--- a/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
+++ b/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ШП" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5514" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="248">
   <si>
     <t>№ п/п</t>
   </si>
@@ -978,6 +978,27 @@
   </si>
   <si>
     <t>24/10</t>
+  </si>
+  <si>
+    <t>14/76</t>
+  </si>
+  <si>
+    <t>15/66</t>
+  </si>
+  <si>
+    <t>14/38</t>
+  </si>
+  <si>
+    <t>14/55</t>
+  </si>
+  <si>
+    <t>14/64</t>
+  </si>
+  <si>
+    <t>17/55</t>
+  </si>
+  <si>
+    <t>17/66</t>
   </si>
 </sst>
 </file>
@@ -2111,8 +2132,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:M370"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N256" sqref="N256"/>
+    <sheetView topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N282" sqref="N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10583,346 +10604,668 @@
       <c r="M276" s="8"/>
     </row>
     <row r="277" spans="1:13">
-      <c r="A277" s="8"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
+      <c r="A277" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B277" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
-      <c r="J277" s="6"/>
+      <c r="J277" s="11">
+        <v>6.9</v>
+      </c>
       <c r="K277" s="8"/>
       <c r="L277" s="8"/>
       <c r="M277" s="8"/>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="8"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="5"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
+      <c r="A278" s="3">
+        <v>1117</v>
+      </c>
+      <c r="B278" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
-      <c r="J278" s="6"/>
+      <c r="J278" s="11">
+        <v>3.7</v>
+      </c>
       <c r="K278" s="8"/>
       <c r="L278" s="8"/>
       <c r="M278" s="8"/>
     </row>
     <row r="279" spans="1:13">
-      <c r="A279" s="8"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="5"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
+      <c r="A279" s="3">
+        <v>1118</v>
+      </c>
+      <c r="B279" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
-      <c r="J279" s="6"/>
+      <c r="J279" s="11">
+        <v>1.6</v>
+      </c>
       <c r="K279" s="8"/>
       <c r="L279" s="8"/>
       <c r="M279" s="8"/>
     </row>
     <row r="280" spans="1:13">
-      <c r="A280" s="8"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="5"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
+      <c r="A280" s="3">
+        <v>1119</v>
+      </c>
+      <c r="B280" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
-      <c r="J280" s="6"/>
+      <c r="J280" s="11">
+        <v>3.9</v>
+      </c>
       <c r="K280" s="8"/>
       <c r="L280" s="8"/>
       <c r="M280" s="8"/>
     </row>
     <row r="281" spans="1:13">
-      <c r="A281" s="8"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
+      <c r="A281" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B281" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
-      <c r="J281" s="6"/>
+      <c r="J281" s="11">
+        <v>10.9</v>
+      </c>
       <c r="K281" s="8"/>
       <c r="L281" s="8"/>
       <c r="M281" s="8"/>
     </row>
     <row r="282" spans="1:13">
-      <c r="A282" s="8"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
+      <c r="A282" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B282" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
-      <c r="J282" s="6"/>
+      <c r="J282" s="11">
+        <v>10.4</v>
+      </c>
       <c r="K282" s="8"/>
       <c r="L282" s="8"/>
       <c r="M282" s="8"/>
     </row>
     <row r="283" spans="1:13">
-      <c r="A283" s="8"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="5"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
+      <c r="A283" s="3">
+        <v>1122</v>
+      </c>
+      <c r="B283" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
-      <c r="J283" s="6"/>
+      <c r="J283" s="11">
+        <v>9.5</v>
+      </c>
       <c r="K283" s="8"/>
       <c r="L283" s="8"/>
       <c r="M283" s="8"/>
     </row>
     <row r="284" spans="1:13">
-      <c r="A284" s="8"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
+      <c r="A284" s="3">
+        <v>1123</v>
+      </c>
+      <c r="B284" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
-      <c r="J284" s="6"/>
+      <c r="J284" s="11">
+        <v>3.6</v>
+      </c>
       <c r="K284" s="8"/>
       <c r="L284" s="8"/>
       <c r="M284" s="8"/>
     </row>
     <row r="285" spans="1:13">
-      <c r="A285" s="8"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
+      <c r="A285" s="3">
+        <v>1124</v>
+      </c>
+      <c r="B285" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G285" s="8"/>
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
-      <c r="J285" s="6"/>
+      <c r="J285" s="11">
+        <v>5.3</v>
+      </c>
       <c r="K285" s="8"/>
       <c r="L285" s="8"/>
       <c r="M285" s="8"/>
     </row>
     <row r="286" spans="1:13">
-      <c r="A286" s="8"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="5"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
+      <c r="A286" s="3">
+        <v>1125</v>
+      </c>
+      <c r="B286" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G286" s="8"/>
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
-      <c r="J286" s="6"/>
+      <c r="J286" s="11">
+        <v>5.8</v>
+      </c>
       <c r="K286" s="8"/>
       <c r="L286" s="8"/>
       <c r="M286" s="8"/>
     </row>
     <row r="287" spans="1:13">
-      <c r="A287" s="8"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="5"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
+      <c r="A287" s="3">
+        <v>1126</v>
+      </c>
+      <c r="B287" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G287" s="8"/>
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
-      <c r="J287" s="6"/>
+      <c r="J287" s="11">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K287" s="8"/>
       <c r="L287" s="8"/>
       <c r="M287" s="8"/>
     </row>
     <row r="288" spans="1:13">
-      <c r="A288" s="8"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="5"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
+      <c r="A288" s="3">
+        <v>1127</v>
+      </c>
+      <c r="B288" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G288" s="8"/>
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
-      <c r="J288" s="6"/>
+      <c r="J288" s="11">
+        <v>8.6</v>
+      </c>
       <c r="K288" s="8"/>
       <c r="L288" s="8"/>
       <c r="M288" s="8"/>
     </row>
     <row r="289" spans="1:13">
-      <c r="A289" s="8"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="5"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
+      <c r="A289" s="3">
+        <v>1128</v>
+      </c>
+      <c r="B289" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G289" s="8"/>
       <c r="H289" s="8"/>
       <c r="I289" s="8"/>
-      <c r="J289" s="6"/>
+      <c r="J289" s="11">
+        <v>6.3</v>
+      </c>
       <c r="K289" s="8"/>
       <c r="L289" s="8"/>
       <c r="M289" s="8"/>
     </row>
     <row r="290" spans="1:13">
-      <c r="A290" s="8"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="5"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
+      <c r="A290" s="3">
+        <v>1129</v>
+      </c>
+      <c r="B290" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G290" s="8"/>
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
-      <c r="J290" s="6"/>
+      <c r="J290" s="11">
+        <v>9</v>
+      </c>
       <c r="K290" s="8"/>
       <c r="L290" s="8"/>
       <c r="M290" s="8"/>
     </row>
     <row r="291" spans="1:13">
-      <c r="A291" s="8"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="5"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
+      <c r="A291" s="3">
+        <v>1130</v>
+      </c>
+      <c r="B291" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G291" s="8"/>
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
-      <c r="J291" s="6"/>
+      <c r="J291" s="11">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K291" s="8"/>
       <c r="L291" s="8"/>
       <c r="M291" s="8"/>
     </row>
     <row r="292" spans="1:13">
-      <c r="A292" s="8"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
+      <c r="A292" s="3">
+        <v>1131</v>
+      </c>
+      <c r="B292" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G292" s="8"/>
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
-      <c r="J292" s="6"/>
+      <c r="J292" s="11">
+        <v>8.5</v>
+      </c>
       <c r="K292" s="8"/>
       <c r="L292" s="8"/>
       <c r="M292" s="8"/>
     </row>
     <row r="293" spans="1:13">
-      <c r="A293" s="8"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="5"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
+      <c r="A293" s="3">
+        <v>1132</v>
+      </c>
+      <c r="B293" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G293" s="8"/>
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
-      <c r="J293" s="6"/>
+      <c r="J293" s="11">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K293" s="8"/>
       <c r="L293" s="8"/>
       <c r="M293" s="8"/>
     </row>
     <row r="294" spans="1:13">
-      <c r="A294" s="8"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="5"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
+      <c r="A294" s="3">
+        <v>1133</v>
+      </c>
+      <c r="B294" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G294" s="8"/>
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
-      <c r="J294" s="6"/>
+      <c r="J294" s="11">
+        <v>5</v>
+      </c>
       <c r="K294" s="8"/>
       <c r="L294" s="8"/>
       <c r="M294" s="8"/>
     </row>
     <row r="295" spans="1:13">
-      <c r="A295" s="8"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="5"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
+      <c r="A295" s="3">
+        <v>1134</v>
+      </c>
+      <c r="B295" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
-      <c r="J295" s="6"/>
+      <c r="J295" s="11">
+        <v>5.8</v>
+      </c>
       <c r="K295" s="8"/>
       <c r="L295" s="8"/>
       <c r="M295" s="8"/>
     </row>
     <row r="296" spans="1:13">
-      <c r="A296" s="8"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
+      <c r="A296" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B296" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G296" s="8"/>
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
-      <c r="J296" s="6"/>
+      <c r="J296" s="11">
+        <v>5</v>
+      </c>
       <c r="K296" s="8"/>
       <c r="L296" s="8"/>
       <c r="M296" s="8"/>
     </row>
     <row r="297" spans="1:13">
-      <c r="A297" s="8"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="5"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
+      <c r="A297" s="3">
+        <v>1136</v>
+      </c>
+      <c r="B297" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G297" s="8"/>
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
-      <c r="J297" s="6"/>
+      <c r="J297" s="11">
+        <v>2.9</v>
+      </c>
       <c r="K297" s="8"/>
       <c r="L297" s="8"/>
       <c r="M297" s="8"/>
     </row>
     <row r="298" spans="1:13">
-      <c r="A298" s="8"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="5"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
+      <c r="A298" s="3">
+        <v>1137</v>
+      </c>
+      <c r="B298" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G298" s="8"/>
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
-      <c r="J298" s="6"/>
+      <c r="J298" s="11">
+        <v>0.63</v>
+      </c>
       <c r="K298" s="8"/>
       <c r="L298" s="8"/>
       <c r="M298" s="8"/>
     </row>
     <row r="299" spans="1:13">
-      <c r="A299" s="8"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="5"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
+      <c r="A299" s="3">
+        <v>1138</v>
+      </c>
+      <c r="B299" s="9">
+        <v>44060</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G299" s="8"/>
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
-      <c r="J299" s="6"/>
+      <c r="J299" s="11">
+        <v>0</v>
+      </c>
       <c r="K299" s="8"/>
       <c r="L299" s="8"/>
       <c r="M299" s="8"/>
@@ -12018,8 +12361,8 @@
   </sheetPr>
   <dimension ref="A1:N573"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15.75"/>
@@ -24333,15 +24676,32 @@
       <c r="N383" s="51"/>
     </row>
     <row r="384" spans="1:14">
-      <c r="A384" s="51"/>
-      <c r="B384" s="51"/>
-      <c r="C384" s="51"/>
-      <c r="D384" s="51"/>
-      <c r="E384" s="51"/>
-      <c r="F384" s="51"/>
+      <c r="A384" s="51">
+        <v>1115</v>
+      </c>
+      <c r="B384" s="23">
+        <v>44055</v>
+      </c>
+      <c r="C384" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D384" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E384" s="56">
+        <v>51203</v>
+      </c>
+      <c r="F384" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="G384" s="51"/>
       <c r="H384" s="51"/>
-      <c r="J384" s="51"/>
+      <c r="I384" s="25">
+        <v>0</v>
+      </c>
+      <c r="J384" s="51">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="K384" s="51"/>
       <c r="L384" s="51"/>
       <c r="M384" s="51"/>
@@ -27218,10 +27578,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1302"/>
+  <dimension ref="A1:R1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1277" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1293" sqref="F1293"/>
+    <sheetView topLeftCell="A1376" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1393" sqref="F1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -61247,6 +61607,2618 @@
       <c r="L1302" s="45"/>
       <c r="M1302" s="133"/>
     </row>
+    <row r="1303" spans="1:13">
+      <c r="A1303" s="125">
+        <v>44054</v>
+      </c>
+      <c r="B1303" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1303" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1303" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1303" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1303" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1303" s="78"/>
+      <c r="H1303" s="79"/>
+      <c r="I1303" s="78"/>
+      <c r="J1303" s="97"/>
+      <c r="K1303" s="97">
+        <v>4</v>
+      </c>
+      <c r="L1303" s="78"/>
+      <c r="M1303" s="80"/>
+    </row>
+    <row r="1304" spans="1:13">
+      <c r="A1304" s="124">
+        <v>44054</v>
+      </c>
+      <c r="B1304" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1304" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1304" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1304" s="106">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1304" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1304" s="36"/>
+      <c r="H1304" s="37"/>
+      <c r="I1304" s="36"/>
+      <c r="J1304" s="95"/>
+      <c r="K1304" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1304" s="36"/>
+      <c r="M1304" s="72"/>
+    </row>
+    <row r="1305" spans="1:13">
+      <c r="A1305" s="125">
+        <v>44054</v>
+      </c>
+      <c r="B1305" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1305" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1305" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1305" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1305" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1305" s="36"/>
+      <c r="H1305" s="37"/>
+      <c r="I1305" s="36"/>
+      <c r="J1305" s="95"/>
+      <c r="K1305" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1305" s="36"/>
+      <c r="M1305" s="72"/>
+    </row>
+    <row r="1306" spans="1:13">
+      <c r="A1306" s="124">
+        <v>44054</v>
+      </c>
+      <c r="B1306" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1306" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1306" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1306" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1306" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1306" s="36"/>
+      <c r="H1306" s="37"/>
+      <c r="I1306" s="36"/>
+      <c r="J1306" s="90"/>
+      <c r="K1306" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1306" s="36"/>
+      <c r="M1306" s="72"/>
+    </row>
+    <row r="1307" spans="1:13">
+      <c r="A1307" s="125">
+        <v>44054</v>
+      </c>
+      <c r="B1307" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1307" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1307" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1307" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1307" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1307" s="36"/>
+      <c r="H1307" s="37"/>
+      <c r="I1307" s="36"/>
+      <c r="J1307" s="90"/>
+      <c r="K1307" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1307" s="36"/>
+      <c r="M1307" s="72"/>
+    </row>
+    <row r="1308" spans="1:13">
+      <c r="A1308" s="124">
+        <v>44054</v>
+      </c>
+      <c r="B1308" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1308" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1308" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1308" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1308" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1308" s="36"/>
+      <c r="H1308" s="37"/>
+      <c r="I1308" s="36"/>
+      <c r="J1308" s="90"/>
+      <c r="K1308" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1308" s="36"/>
+      <c r="M1308" s="72"/>
+    </row>
+    <row r="1309" spans="1:13">
+      <c r="A1309" s="125">
+        <v>44054</v>
+      </c>
+      <c r="B1309" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1309" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1309" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1309" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1309" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1309" s="36"/>
+      <c r="H1309" s="37"/>
+      <c r="I1309" s="36"/>
+      <c r="J1309" s="90"/>
+      <c r="K1309" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1309" s="36"/>
+      <c r="M1309" s="72"/>
+    </row>
+    <row r="1310" spans="1:13">
+      <c r="A1310" s="124">
+        <v>44054</v>
+      </c>
+      <c r="B1310" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1310" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1310" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1310" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1310" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1310" s="36"/>
+      <c r="H1310" s="37"/>
+      <c r="I1310" s="36"/>
+      <c r="J1310" s="90"/>
+      <c r="K1310" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1310" s="36"/>
+      <c r="M1310" s="72"/>
+    </row>
+    <row r="1311" spans="1:13">
+      <c r="A1311" s="125">
+        <v>44054</v>
+      </c>
+      <c r="B1311" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1311" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1311" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1311" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1311" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1311" s="36"/>
+      <c r="H1311" s="37"/>
+      <c r="I1311" s="36"/>
+      <c r="J1311" s="90"/>
+      <c r="K1311" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1311" s="36"/>
+      <c r="M1311" s="72"/>
+    </row>
+    <row r="1312" spans="1:13">
+      <c r="A1312" s="124">
+        <v>44054</v>
+      </c>
+      <c r="B1312" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1312" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1312" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1312" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1312" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1312" s="36"/>
+      <c r="H1312" s="37"/>
+      <c r="I1312" s="36"/>
+      <c r="J1312" s="90"/>
+      <c r="K1312" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1312" s="36"/>
+      <c r="M1312" s="72"/>
+    </row>
+    <row r="1313" spans="1:13">
+      <c r="A1313" s="125">
+        <v>44054</v>
+      </c>
+      <c r="B1313" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1313" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1313" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1313" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1313" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1313" s="36"/>
+      <c r="H1313" s="37"/>
+      <c r="I1313" s="36"/>
+      <c r="J1313" s="90"/>
+      <c r="K1313" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1313" s="36"/>
+      <c r="M1313" s="72"/>
+    </row>
+    <row r="1314" spans="1:13">
+      <c r="A1314" s="125"/>
+      <c r="B1314" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1314" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1314" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1314" s="36"/>
+      <c r="F1314" s="37"/>
+      <c r="G1314" s="90"/>
+      <c r="H1314" s="96"/>
+      <c r="I1314" s="90"/>
+      <c r="J1314" s="95"/>
+      <c r="K1314" s="36"/>
+      <c r="L1314" s="36"/>
+      <c r="M1314" s="72"/>
+    </row>
+    <row r="1315" spans="1:13">
+      <c r="A1315" s="124"/>
+      <c r="B1315" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1315" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1315" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1315" s="36"/>
+      <c r="F1315" s="36"/>
+      <c r="G1315" s="90"/>
+      <c r="H1315" s="37"/>
+      <c r="I1315" s="90"/>
+      <c r="J1315" s="37"/>
+      <c r="K1315" s="36"/>
+      <c r="L1315" s="36"/>
+      <c r="M1315" s="72"/>
+    </row>
+    <row r="1316" spans="1:13" ht="31.5">
+      <c r="A1316" s="125"/>
+      <c r="B1316" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1316" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1316" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1316" s="36"/>
+      <c r="F1316" s="36"/>
+      <c r="G1316" s="90"/>
+      <c r="H1316" s="37"/>
+      <c r="I1316" s="90"/>
+      <c r="J1316" s="95"/>
+      <c r="K1316" s="36"/>
+      <c r="L1316" s="36"/>
+      <c r="M1316" s="72"/>
+    </row>
+    <row r="1317" spans="1:13" ht="31.5">
+      <c r="A1317" s="125"/>
+      <c r="B1317" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1317" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1317" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1317" s="36"/>
+      <c r="F1317" s="36"/>
+      <c r="G1317" s="90"/>
+      <c r="H1317" s="37"/>
+      <c r="I1317" s="90"/>
+      <c r="J1317" s="95"/>
+      <c r="K1317" s="36"/>
+      <c r="L1317" s="36"/>
+      <c r="M1317" s="72"/>
+    </row>
+    <row r="1318" spans="1:13" ht="31.5">
+      <c r="A1318" s="40"/>
+      <c r="B1318" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1318" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1318" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1318" s="36"/>
+      <c r="F1318" s="36"/>
+      <c r="G1318" s="35"/>
+      <c r="H1318" s="37"/>
+      <c r="I1318" s="35"/>
+      <c r="J1318" s="37"/>
+      <c r="K1318" s="36"/>
+      <c r="L1318" s="36"/>
+      <c r="M1318" s="72"/>
+    </row>
+    <row r="1319" spans="1:13">
+      <c r="A1319" s="125"/>
+      <c r="B1319" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1319" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1319" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1319" s="36"/>
+      <c r="F1319" s="36"/>
+      <c r="G1319" s="90"/>
+      <c r="H1319" s="95"/>
+      <c r="I1319" s="90"/>
+      <c r="J1319" s="37"/>
+      <c r="K1319" s="36"/>
+      <c r="L1319" s="36"/>
+      <c r="M1319" s="72"/>
+    </row>
+    <row r="1320" spans="1:13">
+      <c r="A1320" s="124"/>
+      <c r="B1320" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1320" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1320" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1320" s="36"/>
+      <c r="F1320" s="36"/>
+      <c r="G1320" s="90"/>
+      <c r="H1320" s="90"/>
+      <c r="I1320" s="90"/>
+      <c r="J1320" s="95"/>
+      <c r="K1320" s="36"/>
+      <c r="L1320" s="36"/>
+      <c r="M1320" s="72"/>
+    </row>
+    <row r="1321" spans="1:13">
+      <c r="A1321" s="124"/>
+      <c r="B1321" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1321" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1321" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1321" s="36"/>
+      <c r="F1321" s="36"/>
+      <c r="G1321" s="106"/>
+      <c r="H1321" s="95"/>
+      <c r="I1321" s="90"/>
+      <c r="J1321" s="36"/>
+      <c r="K1321" s="36"/>
+      <c r="L1321" s="36"/>
+      <c r="M1321" s="72"/>
+    </row>
+    <row r="1322" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1322" s="125"/>
+      <c r="B1322" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1322" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1322" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1322" s="46"/>
+      <c r="F1322" s="46"/>
+      <c r="G1322" s="46"/>
+      <c r="H1322" s="45"/>
+      <c r="I1322" s="136"/>
+      <c r="J1322" s="45"/>
+      <c r="K1322" s="45"/>
+      <c r="L1322" s="45"/>
+      <c r="M1322" s="133"/>
+    </row>
+    <row r="1323" spans="1:13">
+      <c r="A1323" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1323" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1323" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1323" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1323" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1323" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1323" s="78"/>
+      <c r="H1323" s="79"/>
+      <c r="I1323" s="78"/>
+      <c r="J1323" s="97"/>
+      <c r="K1323" s="97">
+        <v>4</v>
+      </c>
+      <c r="L1323" s="78"/>
+      <c r="M1323" s="80"/>
+    </row>
+    <row r="1324" spans="1:13">
+      <c r="A1324" s="124">
+        <v>44055</v>
+      </c>
+      <c r="B1324" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1324" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1324" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1324" s="106">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1324" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1324" s="36"/>
+      <c r="H1324" s="37"/>
+      <c r="I1324" s="36"/>
+      <c r="J1324" s="95"/>
+      <c r="K1324" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1324" s="36"/>
+      <c r="M1324" s="72"/>
+    </row>
+    <row r="1325" spans="1:13">
+      <c r="A1325" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1325" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1325" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1325" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1325" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1325" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1325" s="36"/>
+      <c r="H1325" s="37"/>
+      <c r="I1325" s="36"/>
+      <c r="J1325" s="95"/>
+      <c r="K1325" s="90">
+        <v>4</v>
+      </c>
+      <c r="L1325" s="36"/>
+      <c r="M1325" s="72"/>
+    </row>
+    <row r="1326" spans="1:13">
+      <c r="A1326" s="124">
+        <v>44055</v>
+      </c>
+      <c r="B1326" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1326" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1326" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1326" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1326" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1326" s="36"/>
+      <c r="H1326" s="37"/>
+      <c r="I1326" s="36"/>
+      <c r="J1326" s="90"/>
+      <c r="K1326" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1326" s="36"/>
+      <c r="M1326" s="72"/>
+    </row>
+    <row r="1327" spans="1:13">
+      <c r="A1327" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1327" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1327" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1327" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1327" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1327" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1327" s="36"/>
+      <c r="H1327" s="37"/>
+      <c r="I1327" s="36"/>
+      <c r="J1327" s="90"/>
+      <c r="K1327" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1327" s="36"/>
+      <c r="M1327" s="72"/>
+    </row>
+    <row r="1328" spans="1:13">
+      <c r="A1328" s="124">
+        <v>44055</v>
+      </c>
+      <c r="B1328" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1328" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1328" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1328" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1328" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1328" s="36"/>
+      <c r="H1328" s="37"/>
+      <c r="I1328" s="36"/>
+      <c r="J1328" s="90"/>
+      <c r="K1328" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1328" s="36"/>
+      <c r="M1328" s="72"/>
+    </row>
+    <row r="1329" spans="1:13">
+      <c r="A1329" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1329" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1329" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1329" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1329" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1329" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1329" s="36"/>
+      <c r="H1329" s="37"/>
+      <c r="I1329" s="36"/>
+      <c r="J1329" s="90"/>
+      <c r="K1329" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1329" s="36"/>
+      <c r="M1329" s="72"/>
+    </row>
+    <row r="1330" spans="1:13">
+      <c r="A1330" s="124">
+        <v>44055</v>
+      </c>
+      <c r="B1330" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1330" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1330" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1330" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1330" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1330" s="36"/>
+      <c r="H1330" s="37"/>
+      <c r="I1330" s="36"/>
+      <c r="J1330" s="90"/>
+      <c r="K1330" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1330" s="36"/>
+      <c r="M1330" s="72"/>
+    </row>
+    <row r="1331" spans="1:13">
+      <c r="A1331" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1331" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1331" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1331" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1331" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1331" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1331" s="36"/>
+      <c r="H1331" s="37"/>
+      <c r="I1331" s="36"/>
+      <c r="J1331" s="90"/>
+      <c r="K1331" s="90">
+        <v>4</v>
+      </c>
+      <c r="L1331" s="36"/>
+      <c r="M1331" s="72"/>
+    </row>
+    <row r="1332" spans="1:13">
+      <c r="A1332" s="124">
+        <v>44055</v>
+      </c>
+      <c r="B1332" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1332" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1332" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1332" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1332" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1332" s="36"/>
+      <c r="H1332" s="37"/>
+      <c r="I1332" s="36"/>
+      <c r="J1332" s="90"/>
+      <c r="K1332" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1332" s="36"/>
+      <c r="M1332" s="72"/>
+    </row>
+    <row r="1333" spans="1:13">
+      <c r="A1333" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1333" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1333" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1333" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1333" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1333" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1333" s="36"/>
+      <c r="H1333" s="37"/>
+      <c r="I1333" s="36"/>
+      <c r="J1333" s="90"/>
+      <c r="K1333" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1333" s="36"/>
+      <c r="M1333" s="72"/>
+    </row>
+    <row r="1334" spans="1:13">
+      <c r="A1334" s="125"/>
+      <c r="B1334" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1334" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1334" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1334" s="36"/>
+      <c r="F1334" s="37"/>
+      <c r="G1334" s="90"/>
+      <c r="H1334" s="96"/>
+      <c r="I1334" s="90"/>
+      <c r="J1334" s="95"/>
+      <c r="K1334" s="36"/>
+      <c r="L1334" s="36"/>
+      <c r="M1334" s="72"/>
+    </row>
+    <row r="1335" spans="1:13">
+      <c r="A1335" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1335" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1335" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1335" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1335" s="36"/>
+      <c r="F1335" s="36"/>
+      <c r="G1335" s="90">
+        <v>4.13</v>
+      </c>
+      <c r="H1335" s="37"/>
+      <c r="I1335" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="J1335" s="37"/>
+      <c r="K1335" s="36"/>
+      <c r="L1335" s="36"/>
+      <c r="M1335" s="72"/>
+    </row>
+    <row r="1336" spans="1:13" ht="31.5">
+      <c r="A1336" s="125"/>
+      <c r="B1336" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1336" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1336" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1336" s="36"/>
+      <c r="F1336" s="36"/>
+      <c r="G1336" s="90"/>
+      <c r="H1336" s="37"/>
+      <c r="I1336" s="90"/>
+      <c r="J1336" s="95"/>
+      <c r="K1336" s="36"/>
+      <c r="L1336" s="36"/>
+      <c r="M1336" s="72"/>
+    </row>
+    <row r="1337" spans="1:13" ht="31.5">
+      <c r="A1337" s="125"/>
+      <c r="B1337" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1337" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1337" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1337" s="36"/>
+      <c r="F1337" s="36"/>
+      <c r="G1337" s="90"/>
+      <c r="H1337" s="37"/>
+      <c r="I1337" s="90"/>
+      <c r="J1337" s="95"/>
+      <c r="K1337" s="36"/>
+      <c r="L1337" s="36"/>
+      <c r="M1337" s="72"/>
+    </row>
+    <row r="1338" spans="1:13" ht="31.5">
+      <c r="A1338" s="40"/>
+      <c r="B1338" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1338" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1338" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1338" s="36"/>
+      <c r="F1338" s="36"/>
+      <c r="G1338" s="35"/>
+      <c r="H1338" s="37"/>
+      <c r="I1338" s="35"/>
+      <c r="J1338" s="37"/>
+      <c r="K1338" s="36"/>
+      <c r="L1338" s="36"/>
+      <c r="M1338" s="72"/>
+    </row>
+    <row r="1339" spans="1:13">
+      <c r="A1339" s="125"/>
+      <c r="B1339" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1339" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1339" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1339" s="36"/>
+      <c r="F1339" s="36"/>
+      <c r="G1339" s="90"/>
+      <c r="H1339" s="95"/>
+      <c r="I1339" s="90"/>
+      <c r="J1339" s="37"/>
+      <c r="K1339" s="36"/>
+      <c r="L1339" s="36"/>
+      <c r="M1339" s="72"/>
+    </row>
+    <row r="1340" spans="1:13">
+      <c r="A1340" s="124"/>
+      <c r="B1340" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1340" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1340" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1340" s="36"/>
+      <c r="F1340" s="36"/>
+      <c r="G1340" s="90"/>
+      <c r="H1340" s="90"/>
+      <c r="I1340" s="90"/>
+      <c r="J1340" s="95"/>
+      <c r="K1340" s="36"/>
+      <c r="L1340" s="36"/>
+      <c r="M1340" s="72"/>
+    </row>
+    <row r="1341" spans="1:13">
+      <c r="A1341" s="125">
+        <v>44055</v>
+      </c>
+      <c r="B1341" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1341" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1341" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1341" s="36"/>
+      <c r="F1341" s="36"/>
+      <c r="G1341" s="106">
+        <v>3.8</v>
+      </c>
+      <c r="H1341" s="95"/>
+      <c r="I1341" s="90">
+        <v>2.6</v>
+      </c>
+      <c r="J1341" s="36"/>
+      <c r="K1341" s="36"/>
+      <c r="L1341" s="36"/>
+      <c r="M1341" s="72"/>
+    </row>
+    <row r="1342" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1342" s="125"/>
+      <c r="B1342" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1342" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1342" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1342" s="46"/>
+      <c r="F1342" s="46"/>
+      <c r="G1342" s="46"/>
+      <c r="H1342" s="45"/>
+      <c r="I1342" s="136"/>
+      <c r="J1342" s="45"/>
+      <c r="K1342" s="45"/>
+      <c r="L1342" s="45"/>
+      <c r="M1342" s="133"/>
+    </row>
+    <row r="1343" spans="1:13">
+      <c r="A1343" s="125">
+        <v>44056</v>
+      </c>
+      <c r="B1343" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1343" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1343" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1343" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1343" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1343" s="78"/>
+      <c r="H1343" s="79"/>
+      <c r="I1343" s="78"/>
+      <c r="J1343" s="97"/>
+      <c r="K1343" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1343" s="78"/>
+      <c r="M1343" s="80"/>
+    </row>
+    <row r="1344" spans="1:13">
+      <c r="A1344" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1344" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1344" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1344" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1344" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1344" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1344" s="36"/>
+      <c r="H1344" s="37"/>
+      <c r="I1344" s="36"/>
+      <c r="J1344" s="95"/>
+      <c r="K1344" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1344" s="36"/>
+      <c r="M1344" s="72"/>
+    </row>
+    <row r="1345" spans="1:13">
+      <c r="A1345" s="125">
+        <v>44056</v>
+      </c>
+      <c r="B1345" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1345" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1345" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1345" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1345" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1345" s="36"/>
+      <c r="H1345" s="37"/>
+      <c r="I1345" s="36"/>
+      <c r="J1345" s="95"/>
+      <c r="K1345" s="90">
+        <v>4</v>
+      </c>
+      <c r="L1345" s="36"/>
+      <c r="M1345" s="72"/>
+    </row>
+    <row r="1346" spans="1:13">
+      <c r="A1346" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1346" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1346" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1346" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1346" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1346" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1346" s="36"/>
+      <c r="H1346" s="37"/>
+      <c r="I1346" s="36"/>
+      <c r="J1346" s="90"/>
+      <c r="K1346" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1346" s="36"/>
+      <c r="M1346" s="72"/>
+    </row>
+    <row r="1347" spans="1:13">
+      <c r="A1347" s="125">
+        <v>44056</v>
+      </c>
+      <c r="B1347" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1347" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1347" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1347" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1347" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1347" s="36"/>
+      <c r="H1347" s="37"/>
+      <c r="I1347" s="36"/>
+      <c r="J1347" s="90"/>
+      <c r="K1347" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1347" s="36"/>
+      <c r="M1347" s="72"/>
+    </row>
+    <row r="1348" spans="1:13">
+      <c r="A1348" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1348" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1348" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1348" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1348" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1348" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1348" s="36"/>
+      <c r="H1348" s="37"/>
+      <c r="I1348" s="36"/>
+      <c r="J1348" s="90"/>
+      <c r="K1348" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1348" s="36"/>
+      <c r="M1348" s="72"/>
+    </row>
+    <row r="1349" spans="1:13">
+      <c r="A1349" s="125">
+        <v>44056</v>
+      </c>
+      <c r="B1349" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1349" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1349" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1349" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1349" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1349" s="36"/>
+      <c r="H1349" s="37"/>
+      <c r="I1349" s="36"/>
+      <c r="J1349" s="90"/>
+      <c r="K1349" s="90">
+        <v>4</v>
+      </c>
+      <c r="L1349" s="36"/>
+      <c r="M1349" s="72"/>
+    </row>
+    <row r="1350" spans="1:13">
+      <c r="A1350" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1350" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1350" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1350" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1350" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1350" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1350" s="36"/>
+      <c r="H1350" s="37"/>
+      <c r="I1350" s="36"/>
+      <c r="J1350" s="90"/>
+      <c r="K1350" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1350" s="36"/>
+      <c r="M1350" s="72"/>
+    </row>
+    <row r="1351" spans="1:13">
+      <c r="A1351" s="125">
+        <v>44056</v>
+      </c>
+      <c r="B1351" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1351" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1351" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1351" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1351" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1351" s="36"/>
+      <c r="H1351" s="37"/>
+      <c r="I1351" s="36"/>
+      <c r="J1351" s="90"/>
+      <c r="K1351" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1351" s="36"/>
+      <c r="M1351" s="72"/>
+    </row>
+    <row r="1352" spans="1:13">
+      <c r="A1352" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1352" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1352" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1352" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1352" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1352" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1352" s="36"/>
+      <c r="H1352" s="37"/>
+      <c r="I1352" s="36"/>
+      <c r="J1352" s="90"/>
+      <c r="K1352" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1352" s="36"/>
+      <c r="M1352" s="72"/>
+    </row>
+    <row r="1353" spans="1:13">
+      <c r="A1353" s="125">
+        <v>44056</v>
+      </c>
+      <c r="B1353" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1353" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1353" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1353" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1353" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1353" s="36"/>
+      <c r="H1353" s="37"/>
+      <c r="I1353" s="36"/>
+      <c r="J1353" s="90"/>
+      <c r="K1353" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1353" s="36"/>
+      <c r="M1353" s="72"/>
+    </row>
+    <row r="1354" spans="1:13">
+      <c r="A1354" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1354" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1354" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1354" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1354" s="36"/>
+      <c r="F1354" s="37"/>
+      <c r="G1354" s="90">
+        <v>4.97</v>
+      </c>
+      <c r="H1354" s="96">
+        <v>6.47</v>
+      </c>
+      <c r="I1354" s="90">
+        <v>2.5</v>
+      </c>
+      <c r="J1354" s="95"/>
+      <c r="K1354" s="36"/>
+      <c r="L1354" s="36"/>
+      <c r="M1354" s="72"/>
+    </row>
+    <row r="1355" spans="1:13">
+      <c r="A1355" s="125"/>
+      <c r="B1355" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1355" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1355" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1355" s="36"/>
+      <c r="F1355" s="36"/>
+      <c r="G1355" s="90"/>
+      <c r="H1355" s="37"/>
+      <c r="I1355" s="90"/>
+      <c r="J1355" s="37"/>
+      <c r="K1355" s="36"/>
+      <c r="L1355" s="36"/>
+      <c r="M1355" s="72"/>
+    </row>
+    <row r="1356" spans="1:13" ht="31.5">
+      <c r="A1356" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1356" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1356" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1356" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1356" s="36"/>
+      <c r="F1356" s="36"/>
+      <c r="G1356" s="90">
+        <v>5.51</v>
+      </c>
+      <c r="H1356" s="37"/>
+      <c r="I1356" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="J1356" s="95"/>
+      <c r="K1356" s="36"/>
+      <c r="L1356" s="36"/>
+      <c r="M1356" s="72"/>
+    </row>
+    <row r="1357" spans="1:13" ht="31.5">
+      <c r="A1357" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1357" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1357" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1357" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1357" s="36"/>
+      <c r="F1357" s="36"/>
+      <c r="G1357" s="90">
+        <v>1.58</v>
+      </c>
+      <c r="H1357" s="37"/>
+      <c r="I1357" s="90">
+        <v>0.22</v>
+      </c>
+      <c r="J1357" s="95"/>
+      <c r="K1357" s="36"/>
+      <c r="L1357" s="36"/>
+      <c r="M1357" s="72"/>
+    </row>
+    <row r="1358" spans="1:13" ht="31.5">
+      <c r="A1358" s="40"/>
+      <c r="B1358" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1358" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1358" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1358" s="36"/>
+      <c r="F1358" s="36"/>
+      <c r="G1358" s="35"/>
+      <c r="H1358" s="37"/>
+      <c r="I1358" s="35"/>
+      <c r="J1358" s="37"/>
+      <c r="K1358" s="36"/>
+      <c r="L1358" s="36"/>
+      <c r="M1358" s="72"/>
+    </row>
+    <row r="1359" spans="1:13">
+      <c r="A1359" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1359" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1359" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1359" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1359" s="36"/>
+      <c r="F1359" s="36"/>
+      <c r="G1359" s="90">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H1359" s="95">
+        <v>6.13</v>
+      </c>
+      <c r="I1359" s="90">
+        <v>0.74</v>
+      </c>
+      <c r="J1359" s="37"/>
+      <c r="K1359" s="36"/>
+      <c r="L1359" s="36"/>
+      <c r="M1359" s="72"/>
+    </row>
+    <row r="1360" spans="1:13">
+      <c r="A1360" s="124"/>
+      <c r="B1360" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1360" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1360" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1360" s="36"/>
+      <c r="F1360" s="36"/>
+      <c r="G1360" s="90"/>
+      <c r="H1360" s="90"/>
+      <c r="I1360" s="90"/>
+      <c r="J1360" s="95"/>
+      <c r="K1360" s="36"/>
+      <c r="L1360" s="36"/>
+      <c r="M1360" s="72"/>
+    </row>
+    <row r="1361" spans="1:13">
+      <c r="A1361" s="125"/>
+      <c r="B1361" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1361" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1361" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1361" s="36"/>
+      <c r="F1361" s="36"/>
+      <c r="G1361" s="106"/>
+      <c r="H1361" s="95"/>
+      <c r="I1361" s="90"/>
+      <c r="J1361" s="36"/>
+      <c r="K1361" s="36"/>
+      <c r="L1361" s="36"/>
+      <c r="M1361" s="72"/>
+    </row>
+    <row r="1362" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1362" s="124">
+        <v>44056</v>
+      </c>
+      <c r="B1362" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1362" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1362" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1362" s="46"/>
+      <c r="F1362" s="46"/>
+      <c r="G1362" s="46"/>
+      <c r="H1362" s="45"/>
+      <c r="I1362" s="136">
+        <v>0.16</v>
+      </c>
+      <c r="J1362" s="45"/>
+      <c r="K1362" s="45"/>
+      <c r="L1362" s="45"/>
+      <c r="M1362" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:13">
+      <c r="A1363" s="125">
+        <v>44057</v>
+      </c>
+      <c r="B1363" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1363" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1363" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1363" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1363" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1363" s="78"/>
+      <c r="H1363" s="79"/>
+      <c r="I1363" s="78"/>
+      <c r="J1363" s="97">
+        <v>0</v>
+      </c>
+      <c r="K1363" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1363" s="78"/>
+      <c r="M1363" s="80"/>
+    </row>
+    <row r="1364" spans="1:13">
+      <c r="A1364" s="124">
+        <v>44057</v>
+      </c>
+      <c r="B1364" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1364" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1364" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1364" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1364" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1364" s="36"/>
+      <c r="H1364" s="37"/>
+      <c r="I1364" s="36"/>
+      <c r="J1364" s="95">
+        <v>0</v>
+      </c>
+      <c r="K1364" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1364" s="36"/>
+      <c r="M1364" s="72"/>
+    </row>
+    <row r="1365" spans="1:13">
+      <c r="A1365" s="125">
+        <v>44057</v>
+      </c>
+      <c r="B1365" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1365" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1365" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1365" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1365" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1365" s="36"/>
+      <c r="H1365" s="37"/>
+      <c r="I1365" s="36"/>
+      <c r="J1365" s="95">
+        <v>0</v>
+      </c>
+      <c r="K1365" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1365" s="36"/>
+      <c r="M1365" s="72"/>
+    </row>
+    <row r="1366" spans="1:13">
+      <c r="A1366" s="124">
+        <v>44057</v>
+      </c>
+      <c r="B1366" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1366" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1366" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1366" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1366" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1366" s="36"/>
+      <c r="H1366" s="37"/>
+      <c r="I1366" s="36"/>
+      <c r="J1366" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1366" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1366" s="36"/>
+      <c r="M1366" s="72"/>
+    </row>
+    <row r="1367" spans="1:13">
+      <c r="A1367" s="125">
+        <v>44057</v>
+      </c>
+      <c r="B1367" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1367" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1367" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1367" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1367" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1367" s="36"/>
+      <c r="H1367" s="37"/>
+      <c r="I1367" s="36"/>
+      <c r="J1367" s="90">
+        <v>2</v>
+      </c>
+      <c r="K1367" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1367" s="36"/>
+      <c r="M1367" s="72"/>
+    </row>
+    <row r="1368" spans="1:13">
+      <c r="A1368" s="124">
+        <v>44057</v>
+      </c>
+      <c r="B1368" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1368" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1368" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1368" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1368" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1368" s="36"/>
+      <c r="H1368" s="37"/>
+      <c r="I1368" s="36"/>
+      <c r="J1368" s="90">
+        <v>3</v>
+      </c>
+      <c r="K1368" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1368" s="36"/>
+      <c r="M1368" s="72"/>
+    </row>
+    <row r="1369" spans="1:13">
+      <c r="A1369" s="125">
+        <v>44057</v>
+      </c>
+      <c r="B1369" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1369" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1369" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1369" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1369" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1369" s="36"/>
+      <c r="H1369" s="37"/>
+      <c r="I1369" s="36"/>
+      <c r="J1369" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1369" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1369" s="36"/>
+      <c r="M1369" s="72"/>
+    </row>
+    <row r="1370" spans="1:13">
+      <c r="A1370" s="124">
+        <v>44057</v>
+      </c>
+      <c r="B1370" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1370" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1370" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1370" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1370" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1370" s="36"/>
+      <c r="H1370" s="37"/>
+      <c r="I1370" s="36"/>
+      <c r="J1370" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1370" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1370" s="36"/>
+      <c r="M1370" s="72"/>
+    </row>
+    <row r="1371" spans="1:13">
+      <c r="A1371" s="125">
+        <v>44057</v>
+      </c>
+      <c r="B1371" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1371" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1371" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1371" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1371" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1371" s="36"/>
+      <c r="H1371" s="37"/>
+      <c r="I1371" s="36"/>
+      <c r="J1371" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1371" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1371" s="36"/>
+      <c r="M1371" s="72"/>
+    </row>
+    <row r="1372" spans="1:13">
+      <c r="A1372" s="124">
+        <v>44057</v>
+      </c>
+      <c r="B1372" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1372" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1372" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1372" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1372" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1372" s="36"/>
+      <c r="H1372" s="37"/>
+      <c r="I1372" s="36"/>
+      <c r="J1372" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1372" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1372" s="36"/>
+      <c r="M1372" s="72"/>
+    </row>
+    <row r="1373" spans="1:13">
+      <c r="A1373" s="125">
+        <v>44057</v>
+      </c>
+      <c r="B1373" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1373" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1373" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1373" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1373" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1373" s="36"/>
+      <c r="H1373" s="37"/>
+      <c r="I1373" s="36"/>
+      <c r="J1373" s="90">
+        <v>1</v>
+      </c>
+      <c r="K1373" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1373" s="36"/>
+      <c r="M1373" s="72"/>
+    </row>
+    <row r="1374" spans="1:13">
+      <c r="A1374" s="124">
+        <v>44057</v>
+      </c>
+      <c r="B1374" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1374" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1374" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1374" s="36"/>
+      <c r="F1374" s="37"/>
+      <c r="G1374" s="90"/>
+      <c r="H1374" s="96"/>
+      <c r="I1374" s="90"/>
+      <c r="J1374" s="95"/>
+      <c r="K1374" s="36"/>
+      <c r="L1374" s="36"/>
+      <c r="M1374" s="72"/>
+    </row>
+    <row r="1375" spans="1:13">
+      <c r="A1375" s="125"/>
+      <c r="B1375" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1375" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1375" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1375" s="36"/>
+      <c r="F1375" s="36"/>
+      <c r="G1375" s="90"/>
+      <c r="H1375" s="37"/>
+      <c r="I1375" s="90"/>
+      <c r="J1375" s="37"/>
+      <c r="K1375" s="36"/>
+      <c r="L1375" s="36"/>
+      <c r="M1375" s="72"/>
+    </row>
+    <row r="1376" spans="1:13" ht="31.5">
+      <c r="A1376" s="124"/>
+      <c r="B1376" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1376" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1376" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1376" s="36"/>
+      <c r="F1376" s="36"/>
+      <c r="G1376" s="90"/>
+      <c r="H1376" s="37"/>
+      <c r="I1376" s="90"/>
+      <c r="J1376" s="95"/>
+      <c r="K1376" s="36"/>
+      <c r="L1376" s="36"/>
+      <c r="M1376" s="72"/>
+    </row>
+    <row r="1377" spans="1:13" ht="31.5">
+      <c r="A1377" s="124"/>
+      <c r="B1377" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1377" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1377" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1377" s="36"/>
+      <c r="F1377" s="36"/>
+      <c r="G1377" s="90"/>
+      <c r="H1377" s="37"/>
+      <c r="I1377" s="90"/>
+      <c r="J1377" s="95"/>
+      <c r="K1377" s="36"/>
+      <c r="L1377" s="36"/>
+      <c r="M1377" s="72"/>
+    </row>
+    <row r="1378" spans="1:13" ht="31.5">
+      <c r="A1378" s="40"/>
+      <c r="B1378" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1378" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1378" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1378" s="36"/>
+      <c r="F1378" s="36"/>
+      <c r="G1378" s="35"/>
+      <c r="H1378" s="37"/>
+      <c r="I1378" s="35"/>
+      <c r="J1378" s="37"/>
+      <c r="K1378" s="36"/>
+      <c r="L1378" s="36"/>
+      <c r="M1378" s="72"/>
+    </row>
+    <row r="1379" spans="1:13">
+      <c r="A1379" s="124"/>
+      <c r="B1379" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1379" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1379" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1379" s="36"/>
+      <c r="F1379" s="36"/>
+      <c r="G1379" s="90"/>
+      <c r="H1379" s="95"/>
+      <c r="I1379" s="90"/>
+      <c r="J1379" s="37"/>
+      <c r="K1379" s="36"/>
+      <c r="L1379" s="36"/>
+      <c r="M1379" s="72"/>
+    </row>
+    <row r="1380" spans="1:13">
+      <c r="A1380" s="124"/>
+      <c r="B1380" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1380" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1380" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1380" s="36"/>
+      <c r="F1380" s="36"/>
+      <c r="G1380" s="90"/>
+      <c r="H1380" s="90"/>
+      <c r="I1380" s="90"/>
+      <c r="J1380" s="95"/>
+      <c r="K1380" s="36"/>
+      <c r="L1380" s="36"/>
+      <c r="M1380" s="72"/>
+    </row>
+    <row r="1381" spans="1:13">
+      <c r="A1381" s="125"/>
+      <c r="B1381" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1381" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1381" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1381" s="36"/>
+      <c r="F1381" s="36"/>
+      <c r="G1381" s="106"/>
+      <c r="H1381" s="95"/>
+      <c r="I1381" s="90"/>
+      <c r="J1381" s="36"/>
+      <c r="K1381" s="36"/>
+      <c r="L1381" s="36"/>
+      <c r="M1381" s="72"/>
+    </row>
+    <row r="1382" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1382" s="124"/>
+      <c r="B1382" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1382" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1382" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1382" s="46"/>
+      <c r="F1382" s="46"/>
+      <c r="G1382" s="46"/>
+      <c r="H1382" s="45"/>
+      <c r="I1382" s="136"/>
+      <c r="J1382" s="45"/>
+      <c r="K1382" s="45"/>
+      <c r="L1382" s="45"/>
+      <c r="M1382" s="133"/>
+    </row>
+    <row r="1383" spans="1:13">
+      <c r="A1383" s="125">
+        <v>44060</v>
+      </c>
+      <c r="B1383" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1383" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1383" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1383" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1383" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1383" s="78"/>
+      <c r="H1383" s="79"/>
+      <c r="I1383" s="78"/>
+      <c r="J1383" s="97"/>
+      <c r="K1383" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1383" s="78"/>
+      <c r="M1383" s="80"/>
+    </row>
+    <row r="1384" spans="1:13">
+      <c r="A1384" s="124">
+        <v>44060</v>
+      </c>
+      <c r="B1384" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1384" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1384" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1384" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1384" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1384" s="36"/>
+      <c r="H1384" s="37"/>
+      <c r="I1384" s="36"/>
+      <c r="J1384" s="95"/>
+      <c r="K1384" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1384" s="36"/>
+      <c r="M1384" s="72"/>
+    </row>
+    <row r="1385" spans="1:13">
+      <c r="A1385" s="125">
+        <v>44060</v>
+      </c>
+      <c r="B1385" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1385" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1385" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1385" s="90">
+        <v>8.4</v>
+      </c>
+      <c r="F1385" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1385" s="36"/>
+      <c r="H1385" s="37"/>
+      <c r="I1385" s="36"/>
+      <c r="J1385" s="95"/>
+      <c r="K1385" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1385" s="36"/>
+      <c r="M1385" s="72"/>
+    </row>
+    <row r="1386" spans="1:13">
+      <c r="A1386" s="124">
+        <v>44060</v>
+      </c>
+      <c r="B1386" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1386" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1386" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1386" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1386" s="90">
+        <v>3.4</v>
+      </c>
+      <c r="G1386" s="36"/>
+      <c r="H1386" s="37"/>
+      <c r="I1386" s="36"/>
+      <c r="J1386" s="90"/>
+      <c r="K1386" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1386" s="36"/>
+      <c r="M1386" s="72"/>
+    </row>
+    <row r="1387" spans="1:13">
+      <c r="A1387" s="125">
+        <v>44060</v>
+      </c>
+      <c r="B1387" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1387" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1387" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1387" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1387" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1387" s="36"/>
+      <c r="H1387" s="37"/>
+      <c r="I1387" s="36"/>
+      <c r="J1387" s="90"/>
+      <c r="K1387" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1387" s="36"/>
+      <c r="M1387" s="72"/>
+    </row>
+    <row r="1388" spans="1:13">
+      <c r="A1388" s="124">
+        <v>44060</v>
+      </c>
+      <c r="B1388" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1388" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1388" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1388" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1388" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1388" s="36"/>
+      <c r="H1388" s="37"/>
+      <c r="I1388" s="36"/>
+      <c r="J1388" s="90"/>
+      <c r="K1388" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1388" s="36"/>
+      <c r="M1388" s="72"/>
+    </row>
+    <row r="1389" spans="1:13">
+      <c r="A1389" s="125">
+        <v>44060</v>
+      </c>
+      <c r="B1389" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1389" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1389" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1389" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1389" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1389" s="36"/>
+      <c r="H1389" s="37"/>
+      <c r="I1389" s="36"/>
+      <c r="J1389" s="90"/>
+      <c r="K1389" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1389" s="36"/>
+      <c r="M1389" s="72"/>
+    </row>
+    <row r="1390" spans="1:13">
+      <c r="A1390" s="124">
+        <v>44060</v>
+      </c>
+      <c r="B1390" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1390" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1390" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1390" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1390" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1390" s="36"/>
+      <c r="H1390" s="37"/>
+      <c r="I1390" s="36"/>
+      <c r="J1390" s="90"/>
+      <c r="K1390" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1390" s="36"/>
+      <c r="M1390" s="72"/>
+    </row>
+    <row r="1391" spans="1:13">
+      <c r="A1391" s="125">
+        <v>44060</v>
+      </c>
+      <c r="B1391" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1391" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1391" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1391" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1391" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1391" s="36"/>
+      <c r="H1391" s="37"/>
+      <c r="I1391" s="36"/>
+      <c r="J1391" s="90"/>
+      <c r="K1391" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1391" s="36"/>
+      <c r="M1391" s="72"/>
+    </row>
+    <row r="1392" spans="1:13">
+      <c r="A1392" s="124">
+        <v>44060</v>
+      </c>
+      <c r="B1392" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1392" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1392" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1392" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1392" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1392" s="36"/>
+      <c r="H1392" s="37"/>
+      <c r="I1392" s="36"/>
+      <c r="J1392" s="90"/>
+      <c r="K1392" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1392" s="36"/>
+      <c r="M1392" s="72"/>
+    </row>
+    <row r="1393" spans="1:13">
+      <c r="A1393" s="125">
+        <v>44060</v>
+      </c>
+      <c r="B1393" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1393" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1393" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1393" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1393" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1393" s="36"/>
+      <c r="H1393" s="37"/>
+      <c r="I1393" s="36"/>
+      <c r="J1393" s="90"/>
+      <c r="K1393" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1393" s="36"/>
+      <c r="M1393" s="72"/>
+    </row>
+    <row r="1394" spans="1:13">
+      <c r="A1394" s="124">
+        <v>44060</v>
+      </c>
+      <c r="B1394" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1394" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1394" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1394" s="36"/>
+      <c r="F1394" s="37"/>
+      <c r="G1394" s="90"/>
+      <c r="H1394" s="96"/>
+      <c r="I1394" s="90"/>
+      <c r="J1394" s="95"/>
+      <c r="K1394" s="36"/>
+      <c r="L1394" s="36"/>
+      <c r="M1394" s="72"/>
+    </row>
+    <row r="1395" spans="1:13">
+      <c r="A1395" s="125"/>
+      <c r="B1395" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1395" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1395" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1395" s="36"/>
+      <c r="F1395" s="36"/>
+      <c r="G1395" s="90"/>
+      <c r="H1395" s="37"/>
+      <c r="I1395" s="90"/>
+      <c r="J1395" s="37"/>
+      <c r="K1395" s="36"/>
+      <c r="L1395" s="36"/>
+      <c r="M1395" s="72"/>
+    </row>
+    <row r="1396" spans="1:13" ht="31.5">
+      <c r="A1396" s="124"/>
+      <c r="B1396" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1396" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1396" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1396" s="36"/>
+      <c r="F1396" s="36"/>
+      <c r="G1396" s="90"/>
+      <c r="H1396" s="37"/>
+      <c r="I1396" s="90"/>
+      <c r="J1396" s="95"/>
+      <c r="K1396" s="36"/>
+      <c r="L1396" s="36"/>
+      <c r="M1396" s="72"/>
+    </row>
+    <row r="1397" spans="1:13" ht="31.5">
+      <c r="A1397" s="124"/>
+      <c r="B1397" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1397" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1397" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1397" s="36"/>
+      <c r="F1397" s="36"/>
+      <c r="G1397" s="90"/>
+      <c r="H1397" s="37"/>
+      <c r="I1397" s="90"/>
+      <c r="J1397" s="95"/>
+      <c r="K1397" s="36"/>
+      <c r="L1397" s="36"/>
+      <c r="M1397" s="72"/>
+    </row>
+    <row r="1398" spans="1:13" ht="31.5">
+      <c r="A1398" s="40"/>
+      <c r="B1398" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1398" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1398" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1398" s="36"/>
+      <c r="F1398" s="36"/>
+      <c r="G1398" s="35"/>
+      <c r="H1398" s="37"/>
+      <c r="I1398" s="35"/>
+      <c r="J1398" s="37"/>
+      <c r="K1398" s="36"/>
+      <c r="L1398" s="36"/>
+      <c r="M1398" s="72"/>
+    </row>
+    <row r="1399" spans="1:13">
+      <c r="A1399" s="124"/>
+      <c r="B1399" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1399" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1399" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1399" s="36"/>
+      <c r="F1399" s="36"/>
+      <c r="G1399" s="90"/>
+      <c r="H1399" s="95"/>
+      <c r="I1399" s="90"/>
+      <c r="J1399" s="37"/>
+      <c r="K1399" s="36"/>
+      <c r="L1399" s="36"/>
+      <c r="M1399" s="72"/>
+    </row>
+    <row r="1400" spans="1:13">
+      <c r="A1400" s="124"/>
+      <c r="B1400" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1400" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1400" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1400" s="36"/>
+      <c r="F1400" s="36"/>
+      <c r="G1400" s="90"/>
+      <c r="H1400" s="90"/>
+      <c r="I1400" s="90"/>
+      <c r="J1400" s="95"/>
+      <c r="K1400" s="36"/>
+      <c r="L1400" s="36"/>
+      <c r="M1400" s="72"/>
+    </row>
+    <row r="1401" spans="1:13">
+      <c r="A1401" s="125"/>
+      <c r="B1401" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1401" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1401" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1401" s="36"/>
+      <c r="F1401" s="36"/>
+      <c r="G1401" s="106"/>
+      <c r="H1401" s="95"/>
+      <c r="I1401" s="90"/>
+      <c r="J1401" s="36"/>
+      <c r="K1401" s="36"/>
+      <c r="L1401" s="36"/>
+      <c r="M1401" s="72"/>
+    </row>
+    <row r="1402" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1402" s="124"/>
+      <c r="B1402" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1402" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1402" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1402" s="46"/>
+      <c r="F1402" s="46"/>
+      <c r="G1402" s="46"/>
+      <c r="H1402" s="45"/>
+      <c r="I1402" s="136"/>
+      <c r="J1402" s="45"/>
+      <c r="K1402" s="45"/>
+      <c r="L1402" s="45"/>
+      <c r="M1402" s="133"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -61257,7 +64229,7 @@
   <pageSetup paperSize="256" scale="92" fitToHeight="4" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291" twoDigitTextYear="1"/>
+    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391" twoDigitTextYear="1"/>
     <ignoredError sqref="M862 I856 H935:I935" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>

--- a/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
+++ b/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ШП" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="248">
   <si>
     <t>№ п/п</t>
   </si>
@@ -12361,7 +12361,7 @@
   </sheetPr>
   <dimension ref="A1:N573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A367" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
@@ -27578,10 +27578,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1402"/>
+  <dimension ref="A1:R1422"/>
   <sheetViews>
-    <sheetView topLeftCell="A1376" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1393" sqref="F1393"/>
+    <sheetView tabSelected="1" topLeftCell="A1394" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1408" sqref="E1408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -64219,6 +64219,516 @@
       <c r="L1402" s="45"/>
       <c r="M1402" s="133"/>
     </row>
+    <row r="1403" spans="1:13">
+      <c r="A1403" s="125">
+        <v>44061</v>
+      </c>
+      <c r="B1403" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1403" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1403" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1403" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1403" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1403" s="78"/>
+      <c r="H1403" s="79"/>
+      <c r="I1403" s="78"/>
+      <c r="J1403" s="97"/>
+      <c r="K1403" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1403" s="78"/>
+      <c r="M1403" s="80"/>
+    </row>
+    <row r="1404" spans="1:13">
+      <c r="A1404" s="124">
+        <v>44061</v>
+      </c>
+      <c r="B1404" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1404" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1404" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1404" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1404" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1404" s="36"/>
+      <c r="H1404" s="37"/>
+      <c r="I1404" s="36"/>
+      <c r="J1404" s="95"/>
+      <c r="K1404" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1404" s="36"/>
+      <c r="M1404" s="72"/>
+    </row>
+    <row r="1405" spans="1:13">
+      <c r="A1405" s="125">
+        <v>44061</v>
+      </c>
+      <c r="B1405" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1405" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1405" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1405" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1405" s="90">
+        <v>4</v>
+      </c>
+      <c r="G1405" s="36"/>
+      <c r="H1405" s="37"/>
+      <c r="I1405" s="36"/>
+      <c r="J1405" s="95"/>
+      <c r="K1405" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1405" s="36"/>
+      <c r="M1405" s="72"/>
+    </row>
+    <row r="1406" spans="1:13">
+      <c r="A1406" s="124">
+        <v>44061</v>
+      </c>
+      <c r="B1406" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1406" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1406" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1406" s="90">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F1406" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1406" s="36"/>
+      <c r="H1406" s="37"/>
+      <c r="I1406" s="36"/>
+      <c r="J1406" s="90"/>
+      <c r="K1406" s="90">
+        <v>4</v>
+      </c>
+      <c r="L1406" s="36"/>
+      <c r="M1406" s="72"/>
+    </row>
+    <row r="1407" spans="1:13">
+      <c r="A1407" s="125">
+        <v>44061</v>
+      </c>
+      <c r="B1407" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1407" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1407" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1407" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1407" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1407" s="36"/>
+      <c r="H1407" s="37"/>
+      <c r="I1407" s="36"/>
+      <c r="J1407" s="90"/>
+      <c r="K1407" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1407" s="36"/>
+      <c r="M1407" s="72"/>
+    </row>
+    <row r="1408" spans="1:13">
+      <c r="A1408" s="124">
+        <v>44061</v>
+      </c>
+      <c r="B1408" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1408" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1408" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1408" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1408" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1408" s="36"/>
+      <c r="H1408" s="37"/>
+      <c r="I1408" s="36"/>
+      <c r="J1408" s="90"/>
+      <c r="K1408" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1408" s="36"/>
+      <c r="M1408" s="72"/>
+    </row>
+    <row r="1409" spans="1:13">
+      <c r="A1409" s="125">
+        <v>44061</v>
+      </c>
+      <c r="B1409" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1409" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1409" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1409" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1409" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1409" s="36"/>
+      <c r="H1409" s="37"/>
+      <c r="I1409" s="36"/>
+      <c r="J1409" s="90"/>
+      <c r="K1409" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1409" s="36"/>
+      <c r="M1409" s="72"/>
+    </row>
+    <row r="1410" spans="1:13">
+      <c r="A1410" s="124">
+        <v>44061</v>
+      </c>
+      <c r="B1410" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1410" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1410" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1410" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1410" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1410" s="36"/>
+      <c r="H1410" s="37"/>
+      <c r="I1410" s="36"/>
+      <c r="J1410" s="90"/>
+      <c r="K1410" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1410" s="36"/>
+      <c r="M1410" s="72"/>
+    </row>
+    <row r="1411" spans="1:13">
+      <c r="A1411" s="125">
+        <v>44061</v>
+      </c>
+      <c r="B1411" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1411" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1411" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1411" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1411" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1411" s="36"/>
+      <c r="H1411" s="37"/>
+      <c r="I1411" s="36"/>
+      <c r="J1411" s="90"/>
+      <c r="K1411" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1411" s="36"/>
+      <c r="M1411" s="72"/>
+    </row>
+    <row r="1412" spans="1:13">
+      <c r="A1412" s="124">
+        <v>44061</v>
+      </c>
+      <c r="B1412" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1412" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1412" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1412" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1412" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1412" s="36"/>
+      <c r="H1412" s="37"/>
+      <c r="I1412" s="36"/>
+      <c r="J1412" s="90"/>
+      <c r="K1412" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1412" s="36"/>
+      <c r="M1412" s="72"/>
+    </row>
+    <row r="1413" spans="1:13">
+      <c r="A1413" s="125">
+        <v>44061</v>
+      </c>
+      <c r="B1413" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1413" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1413" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1413" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1413" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1413" s="36"/>
+      <c r="H1413" s="37"/>
+      <c r="I1413" s="36"/>
+      <c r="J1413" s="90"/>
+      <c r="K1413" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1413" s="36"/>
+      <c r="M1413" s="72"/>
+    </row>
+    <row r="1414" spans="1:13">
+      <c r="A1414" s="124">
+        <v>44061</v>
+      </c>
+      <c r="B1414" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1414" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1414" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1414" s="36"/>
+      <c r="F1414" s="37"/>
+      <c r="G1414" s="90"/>
+      <c r="H1414" s="96"/>
+      <c r="I1414" s="90"/>
+      <c r="J1414" s="95"/>
+      <c r="K1414" s="36"/>
+      <c r="L1414" s="36"/>
+      <c r="M1414" s="72"/>
+    </row>
+    <row r="1415" spans="1:13">
+      <c r="A1415" s="125"/>
+      <c r="B1415" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1415" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1415" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1415" s="36"/>
+      <c r="F1415" s="36"/>
+      <c r="G1415" s="90"/>
+      <c r="H1415" s="37"/>
+      <c r="I1415" s="90"/>
+      <c r="J1415" s="37"/>
+      <c r="K1415" s="36"/>
+      <c r="L1415" s="36"/>
+      <c r="M1415" s="72"/>
+    </row>
+    <row r="1416" spans="1:13" ht="31.5">
+      <c r="A1416" s="124"/>
+      <c r="B1416" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1416" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1416" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1416" s="36"/>
+      <c r="F1416" s="36"/>
+      <c r="G1416" s="90"/>
+      <c r="H1416" s="37"/>
+      <c r="I1416" s="90"/>
+      <c r="J1416" s="95"/>
+      <c r="K1416" s="36"/>
+      <c r="L1416" s="36"/>
+      <c r="M1416" s="72"/>
+    </row>
+    <row r="1417" spans="1:13" ht="31.5">
+      <c r="A1417" s="124"/>
+      <c r="B1417" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1417" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1417" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1417" s="36"/>
+      <c r="F1417" s="36"/>
+      <c r="G1417" s="90"/>
+      <c r="H1417" s="37"/>
+      <c r="I1417" s="90"/>
+      <c r="J1417" s="95"/>
+      <c r="K1417" s="36"/>
+      <c r="L1417" s="36"/>
+      <c r="M1417" s="72"/>
+    </row>
+    <row r="1418" spans="1:13" ht="31.5">
+      <c r="A1418" s="40"/>
+      <c r="B1418" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1418" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1418" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1418" s="36"/>
+      <c r="F1418" s="36"/>
+      <c r="G1418" s="35"/>
+      <c r="H1418" s="37"/>
+      <c r="I1418" s="35"/>
+      <c r="J1418" s="37"/>
+      <c r="K1418" s="36"/>
+      <c r="L1418" s="36"/>
+      <c r="M1418" s="72"/>
+    </row>
+    <row r="1419" spans="1:13">
+      <c r="A1419" s="124"/>
+      <c r="B1419" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1419" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1419" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1419" s="36"/>
+      <c r="F1419" s="36"/>
+      <c r="G1419" s="90"/>
+      <c r="H1419" s="95"/>
+      <c r="I1419" s="90"/>
+      <c r="J1419" s="37"/>
+      <c r="K1419" s="36"/>
+      <c r="L1419" s="36"/>
+      <c r="M1419" s="72"/>
+    </row>
+    <row r="1420" spans="1:13">
+      <c r="A1420" s="124"/>
+      <c r="B1420" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1420" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1420" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1420" s="36"/>
+      <c r="F1420" s="36"/>
+      <c r="G1420" s="90"/>
+      <c r="H1420" s="90"/>
+      <c r="I1420" s="90"/>
+      <c r="J1420" s="95"/>
+      <c r="K1420" s="36"/>
+      <c r="L1420" s="36"/>
+      <c r="M1420" s="72"/>
+    </row>
+    <row r="1421" spans="1:13">
+      <c r="A1421" s="125"/>
+      <c r="B1421" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1421" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1421" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1421" s="36"/>
+      <c r="F1421" s="36"/>
+      <c r="G1421" s="106"/>
+      <c r="H1421" s="95"/>
+      <c r="I1421" s="90"/>
+      <c r="J1421" s="36"/>
+      <c r="K1421" s="36"/>
+      <c r="L1421" s="36"/>
+      <c r="M1421" s="72"/>
+    </row>
+    <row r="1422" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1422" s="124"/>
+      <c r="B1422" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1422" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1422" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1422" s="46"/>
+      <c r="F1422" s="46"/>
+      <c r="G1422" s="46"/>
+      <c r="H1422" s="45"/>
+      <c r="I1422" s="136"/>
+      <c r="J1422" s="45"/>
+      <c r="K1422" s="45"/>
+      <c r="L1422" s="45"/>
+      <c r="M1422" s="133"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -64229,7 +64739,7 @@
   <pageSetup paperSize="256" scale="92" fitToHeight="4" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391" twoDigitTextYear="1"/>
+    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391 C1405:C1411" twoDigitTextYear="1"/>
     <ignoredError sqref="M862 I856 H935:I935" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>

--- a/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
+++ b/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="250">
   <si>
     <t>№ п/п</t>
   </si>
@@ -999,6 +999,12 @@
   </si>
   <si>
     <t>17/66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Масло закалочное ТермоОйл </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Масло закалочное ТермоОйл</t>
   </si>
 </sst>
 </file>
@@ -12361,8 +12367,8 @@
   </sheetPr>
   <dimension ref="A1:N573"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F384" sqref="F384"/>
+    <sheetView topLeftCell="A397" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15.75"/>
@@ -24707,526 +24713,1123 @@
       <c r="M384" s="51"/>
       <c r="N384" s="51"/>
     </row>
-    <row r="385" spans="1:14">
-      <c r="A385" s="51"/>
-      <c r="B385" s="51"/>
-      <c r="C385" s="51"/>
-      <c r="D385" s="51"/>
-      <c r="E385" s="51"/>
-      <c r="F385" s="51"/>
+    <row r="385" spans="1:14" ht="15" customHeight="1">
+      <c r="A385" s="51">
+        <v>1142</v>
+      </c>
+      <c r="B385" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C385" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D385" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E385" s="51">
+        <v>10208</v>
+      </c>
+      <c r="F385" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G385" s="51"/>
       <c r="H385" s="51"/>
-      <c r="J385" s="51"/>
+      <c r="I385" s="25">
+        <v>0</v>
+      </c>
+      <c r="J385" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K385" s="51"/>
       <c r="L385" s="51"/>
       <c r="M385" s="51"/>
       <c r="N385" s="51"/>
     </row>
-    <row r="386" spans="1:14">
-      <c r="A386" s="23"/>
-      <c r="B386" s="51"/>
-      <c r="C386" s="51"/>
-      <c r="D386" s="51"/>
-      <c r="E386" s="51"/>
-      <c r="F386" s="51"/>
+    <row r="386" spans="1:14" ht="15" customHeight="1">
+      <c r="A386" s="51">
+        <v>1143</v>
+      </c>
+      <c r="B386" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C386" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D386" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E386" s="51">
+        <v>10209</v>
+      </c>
+      <c r="F386" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G386" s="51"/>
       <c r="H386" s="51"/>
-      <c r="J386" s="51"/>
+      <c r="I386" s="25">
+        <v>0</v>
+      </c>
+      <c r="J386" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K386" s="51"/>
       <c r="L386" s="51"/>
       <c r="M386" s="51"/>
       <c r="N386" s="51"/>
     </row>
-    <row r="387" spans="1:14">
-      <c r="A387" s="23"/>
-      <c r="B387" s="51"/>
-      <c r="C387" s="51"/>
-      <c r="D387" s="51"/>
-      <c r="E387" s="51"/>
-      <c r="F387" s="51"/>
+    <row r="387" spans="1:14" ht="15" customHeight="1">
+      <c r="A387" s="51">
+        <v>1144</v>
+      </c>
+      <c r="B387" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C387" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D387" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E387" s="51">
+        <v>20610</v>
+      </c>
+      <c r="F387" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G387" s="51"/>
       <c r="H387" s="51"/>
-      <c r="J387" s="51"/>
+      <c r="I387" s="25">
+        <v>0</v>
+      </c>
+      <c r="J387" s="51">
+        <v>1</v>
+      </c>
       <c r="K387" s="51"/>
       <c r="L387" s="51"/>
       <c r="M387" s="51"/>
       <c r="N387" s="51"/>
     </row>
-    <row r="388" spans="1:14">
-      <c r="A388" s="23"/>
-      <c r="B388" s="51"/>
-      <c r="C388" s="51"/>
-      <c r="D388" s="51"/>
-      <c r="E388" s="51"/>
-      <c r="F388" s="51"/>
+    <row r="388" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A388" s="51">
+        <v>1145</v>
+      </c>
+      <c r="B388" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C388" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D388" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E388" s="51">
+        <v>20611</v>
+      </c>
+      <c r="F388" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G388" s="51"/>
       <c r="H388" s="51"/>
-      <c r="J388" s="51"/>
+      <c r="I388" s="25">
+        <v>0</v>
+      </c>
+      <c r="J388" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K388" s="51"/>
       <c r="L388" s="51"/>
       <c r="M388" s="51"/>
       <c r="N388" s="51"/>
     </row>
-    <row r="389" spans="1:14">
-      <c r="A389" s="23"/>
-      <c r="B389" s="51"/>
-      <c r="C389" s="51"/>
-      <c r="D389" s="51"/>
-      <c r="E389" s="51"/>
-      <c r="F389" s="51"/>
+    <row r="389" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A389" s="51">
+        <v>1146</v>
+      </c>
+      <c r="B389" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C389" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D389" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E389" s="51">
+        <v>21109</v>
+      </c>
+      <c r="F389" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G389" s="51"/>
       <c r="H389" s="51"/>
-      <c r="J389" s="51"/>
+      <c r="I389" s="25">
+        <v>0</v>
+      </c>
+      <c r="J389" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="K389" s="51"/>
       <c r="L389" s="51"/>
       <c r="M389" s="51"/>
       <c r="N389" s="51"/>
     </row>
-    <row r="390" spans="1:14">
-      <c r="A390" s="23"/>
-      <c r="B390" s="51"/>
-      <c r="C390" s="51"/>
-      <c r="D390" s="51"/>
-      <c r="E390" s="51"/>
-      <c r="F390" s="51"/>
+    <row r="390" spans="1:14" ht="15" customHeight="1">
+      <c r="A390" s="51">
+        <v>1147</v>
+      </c>
+      <c r="B390" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C390" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D390" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E390" s="51">
+        <v>21110</v>
+      </c>
+      <c r="F390" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G390" s="51"/>
       <c r="H390" s="51"/>
-      <c r="J390" s="51"/>
+      <c r="I390" s="25">
+        <v>0</v>
+      </c>
+      <c r="J390" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K390" s="51"/>
       <c r="L390" s="51"/>
       <c r="M390" s="51"/>
       <c r="N390" s="51"/>
     </row>
-    <row r="391" spans="1:14">
-      <c r="A391" s="23"/>
-      <c r="B391" s="51"/>
-      <c r="C391" s="51"/>
-      <c r="D391" s="51"/>
-      <c r="E391" s="51"/>
-      <c r="F391" s="51"/>
+    <row r="391" spans="1:14" ht="15" customHeight="1">
+      <c r="A391" s="51">
+        <v>1148</v>
+      </c>
+      <c r="B391" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C391" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D391" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E391" s="51">
+        <v>30508</v>
+      </c>
+      <c r="F391" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G391" s="51"/>
       <c r="H391" s="51"/>
-      <c r="J391" s="51"/>
+      <c r="I391" s="25">
+        <v>0</v>
+      </c>
+      <c r="J391" s="51">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="K391" s="51"/>
       <c r="L391" s="51"/>
       <c r="M391" s="51"/>
       <c r="N391" s="51"/>
     </row>
-    <row r="392" spans="1:14">
-      <c r="A392" s="23"/>
-      <c r="B392" s="51"/>
-      <c r="C392" s="51"/>
-      <c r="D392" s="51"/>
-      <c r="E392" s="51"/>
-      <c r="F392" s="51"/>
+    <row r="392" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A392" s="51">
+        <v>1149</v>
+      </c>
+      <c r="B392" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C392" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D392" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E392" s="51">
+        <v>30509</v>
+      </c>
+      <c r="F392" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G392" s="51"/>
       <c r="H392" s="51"/>
-      <c r="J392" s="51"/>
+      <c r="I392" s="25">
+        <v>0</v>
+      </c>
+      <c r="J392" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K392" s="51"/>
       <c r="L392" s="51"/>
       <c r="M392" s="51"/>
       <c r="N392" s="51"/>
     </row>
-    <row r="393" spans="1:14">
-      <c r="A393" s="23"/>
-      <c r="B393" s="51"/>
-      <c r="C393" s="51"/>
-      <c r="D393" s="51"/>
-      <c r="E393" s="51"/>
-      <c r="F393" s="51"/>
+    <row r="393" spans="1:14" ht="12" customHeight="1">
+      <c r="A393" s="51">
+        <v>1150</v>
+      </c>
+      <c r="B393" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C393" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D393" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E393" s="51">
+        <v>30810</v>
+      </c>
+      <c r="F393" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G393" s="51"/>
       <c r="H393" s="51"/>
-      <c r="J393" s="51"/>
+      <c r="I393" s="25">
+        <v>0</v>
+      </c>
+      <c r="J393" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K393" s="51"/>
       <c r="L393" s="51"/>
       <c r="M393" s="51"/>
       <c r="N393" s="51"/>
     </row>
-    <row r="394" spans="1:14">
-      <c r="A394" s="23"/>
-      <c r="B394" s="51"/>
-      <c r="C394" s="51"/>
-      <c r="D394" s="51"/>
-      <c r="E394" s="51"/>
-      <c r="F394" s="51"/>
+    <row r="394" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A394" s="51">
+        <v>1151</v>
+      </c>
+      <c r="B394" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C394" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D394" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E394" s="51">
+        <v>30811</v>
+      </c>
+      <c r="F394" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G394" s="51"/>
-      <c r="H394" s="51"/>
-      <c r="J394" s="51"/>
+      <c r="H394" s="25"/>
+      <c r="I394" s="25">
+        <v>0</v>
+      </c>
+      <c r="J394" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K394" s="51"/>
       <c r="L394" s="51"/>
       <c r="M394" s="51"/>
       <c r="N394" s="51"/>
     </row>
-    <row r="395" spans="1:14">
-      <c r="A395" s="23"/>
-      <c r="B395" s="51"/>
-      <c r="C395" s="51"/>
-      <c r="D395" s="51"/>
-      <c r="E395" s="51"/>
-      <c r="F395" s="51"/>
+    <row r="395" spans="1:14" ht="12" customHeight="1">
+      <c r="A395" s="51">
+        <v>1152</v>
+      </c>
+      <c r="B395" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C395" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D395" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E395" s="51">
+        <v>40709</v>
+      </c>
+      <c r="F395" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G395" s="51"/>
-      <c r="H395" s="51"/>
-      <c r="J395" s="51"/>
+      <c r="H395" s="25"/>
+      <c r="I395" s="25">
+        <v>0</v>
+      </c>
+      <c r="J395" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K395" s="51"/>
       <c r="L395" s="51"/>
       <c r="M395" s="51"/>
       <c r="N395" s="51"/>
     </row>
-    <row r="396" spans="1:14">
-      <c r="A396" s="23"/>
-      <c r="B396" s="51"/>
-      <c r="C396" s="51"/>
-      <c r="D396" s="51"/>
-      <c r="E396" s="51"/>
-      <c r="F396" s="51"/>
+    <row r="396" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A396" s="51">
+        <v>1153</v>
+      </c>
+      <c r="B396" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C396" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D396" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E396" s="51">
+        <v>40710</v>
+      </c>
+      <c r="F396" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G396" s="51"/>
-      <c r="H396" s="51"/>
-      <c r="J396" s="51"/>
+      <c r="H396" s="25"/>
+      <c r="I396" s="25">
+        <v>0</v>
+      </c>
+      <c r="J396" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K396" s="51"/>
       <c r="L396" s="51"/>
       <c r="M396" s="51"/>
       <c r="N396" s="51"/>
     </row>
-    <row r="397" spans="1:14">
-      <c r="A397" s="23"/>
-      <c r="B397" s="51"/>
-      <c r="C397" s="51"/>
-      <c r="D397" s="51"/>
-      <c r="E397" s="51"/>
-      <c r="F397" s="51"/>
+    <row r="397" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A397" s="51">
+        <v>1154</v>
+      </c>
+      <c r="B397" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C397" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D397" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E397" s="51">
+        <v>50508</v>
+      </c>
+      <c r="F397" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G397" s="51"/>
-      <c r="H397" s="51"/>
-      <c r="J397" s="51"/>
+      <c r="H397" s="25"/>
+      <c r="I397" s="25">
+        <v>0</v>
+      </c>
+      <c r="J397" s="51">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="K397" s="51"/>
       <c r="L397" s="51"/>
       <c r="M397" s="51"/>
       <c r="N397" s="51"/>
     </row>
-    <row r="398" spans="1:14">
-      <c r="A398" s="23"/>
-      <c r="B398" s="51"/>
-      <c r="C398" s="51"/>
-      <c r="D398" s="51"/>
-      <c r="E398" s="51"/>
-      <c r="F398" s="51"/>
+    <row r="398" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A398" s="51">
+        <v>1155</v>
+      </c>
+      <c r="B398" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C398" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D398" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E398" s="51">
+        <v>50509</v>
+      </c>
+      <c r="F398" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G398" s="51"/>
-      <c r="H398" s="51"/>
-      <c r="J398" s="51"/>
+      <c r="H398" s="25"/>
+      <c r="I398" s="25">
+        <v>0</v>
+      </c>
+      <c r="J398" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K398" s="51"/>
       <c r="L398" s="51"/>
       <c r="M398" s="51"/>
       <c r="N398" s="51"/>
     </row>
-    <row r="399" spans="1:14">
-      <c r="A399" s="23"/>
-      <c r="B399" s="51"/>
-      <c r="C399" s="51"/>
-      <c r="D399" s="51"/>
-      <c r="E399" s="51"/>
-      <c r="F399" s="51"/>
+    <row r="399" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A399" s="51">
+        <v>1156</v>
+      </c>
+      <c r="B399" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C399" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D399" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E399" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F399" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G399" s="51"/>
-      <c r="H399" s="51"/>
-      <c r="J399" s="51"/>
+      <c r="H399" s="25"/>
+      <c r="I399" s="25">
+        <v>0</v>
+      </c>
+      <c r="J399" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K399" s="51"/>
       <c r="L399" s="51"/>
       <c r="M399" s="51"/>
       <c r="N399" s="51"/>
     </row>
-    <row r="400" spans="1:14">
-      <c r="A400" s="23"/>
-      <c r="B400" s="51"/>
-      <c r="C400" s="51"/>
-      <c r="D400" s="51"/>
-      <c r="E400" s="51"/>
-      <c r="F400" s="51"/>
+    <row r="400" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A400" s="51">
+        <v>1157</v>
+      </c>
+      <c r="B400" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C400" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D400" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E400" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F400" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G400" s="51"/>
-      <c r="H400" s="51"/>
-      <c r="J400" s="51"/>
+      <c r="H400" s="25"/>
+      <c r="I400" s="25">
+        <v>0</v>
+      </c>
+      <c r="J400" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K400" s="51"/>
       <c r="L400" s="51"/>
       <c r="M400" s="51"/>
       <c r="N400" s="51"/>
     </row>
-    <row r="401" spans="1:14">
-      <c r="A401" s="23"/>
-      <c r="B401" s="51"/>
-      <c r="C401" s="51"/>
-      <c r="D401" s="51"/>
-      <c r="E401" s="51"/>
-      <c r="F401" s="51"/>
+    <row r="401" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A401" s="51">
+        <v>1158</v>
+      </c>
+      <c r="B401" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C401" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D401" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E401" s="51">
+        <v>60408</v>
+      </c>
+      <c r="F401" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G401" s="51"/>
-      <c r="H401" s="51"/>
-      <c r="J401" s="51"/>
+      <c r="H401" s="25"/>
+      <c r="I401" s="25">
+        <v>0</v>
+      </c>
+      <c r="J401" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K401" s="51"/>
       <c r="L401" s="51"/>
       <c r="M401" s="51"/>
       <c r="N401" s="51"/>
     </row>
-    <row r="402" spans="1:14">
-      <c r="A402" s="23"/>
-      <c r="B402" s="51"/>
-      <c r="C402" s="51"/>
-      <c r="D402" s="51"/>
-      <c r="E402" s="51"/>
-      <c r="F402" s="51"/>
+    <row r="402" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A402" s="51">
+        <v>1159</v>
+      </c>
+      <c r="B402" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C402" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D402" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E402" s="51">
+        <v>60409</v>
+      </c>
+      <c r="F402" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G402" s="51"/>
-      <c r="H402" s="51"/>
-      <c r="J402" s="51"/>
+      <c r="H402" s="25"/>
+      <c r="I402" s="25">
+        <v>0</v>
+      </c>
+      <c r="J402" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K402" s="51"/>
       <c r="L402" s="51"/>
       <c r="M402" s="51"/>
       <c r="N402" s="51"/>
     </row>
-    <row r="403" spans="1:14">
-      <c r="A403" s="23"/>
-      <c r="B403" s="51"/>
-      <c r="C403" s="51"/>
-      <c r="D403" s="51"/>
-      <c r="E403" s="51"/>
-      <c r="F403" s="51"/>
+    <row r="403" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A403" s="51">
+        <v>1160</v>
+      </c>
+      <c r="B403" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C403" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D403" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E403" s="51">
+        <v>60710</v>
+      </c>
+      <c r="F403" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G403" s="51"/>
-      <c r="H403" s="51"/>
-      <c r="J403" s="51"/>
+      <c r="H403" s="25"/>
+      <c r="I403" s="25">
+        <v>0</v>
+      </c>
+      <c r="J403" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K403" s="51"/>
       <c r="L403" s="51"/>
       <c r="M403" s="51"/>
       <c r="N403" s="51"/>
     </row>
-    <row r="404" spans="1:14">
-      <c r="A404" s="23"/>
-      <c r="B404" s="51"/>
-      <c r="C404" s="51"/>
-      <c r="D404" s="51"/>
-      <c r="E404" s="51"/>
-      <c r="F404" s="51"/>
+    <row r="404" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A404" s="51">
+        <v>1161</v>
+      </c>
+      <c r="B404" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C404" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D404" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E404" s="51">
+        <v>60711</v>
+      </c>
+      <c r="F404" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G404" s="51"/>
-      <c r="H404" s="51"/>
-      <c r="J404" s="51"/>
+      <c r="H404" s="25"/>
+      <c r="I404" s="25">
+        <v>0</v>
+      </c>
+      <c r="J404" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K404" s="51"/>
       <c r="L404" s="51"/>
       <c r="M404" s="51"/>
       <c r="N404" s="51"/>
     </row>
-    <row r="405" spans="1:14">
-      <c r="A405" s="23"/>
-      <c r="B405" s="51"/>
-      <c r="C405" s="51"/>
-      <c r="D405" s="51"/>
-      <c r="E405" s="51"/>
-      <c r="F405" s="51"/>
+    <row r="405" spans="1:14" ht="12" customHeight="1">
+      <c r="A405" s="51">
+        <v>1162</v>
+      </c>
+      <c r="B405" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C405" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D405" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E405" s="51">
+        <v>70710</v>
+      </c>
+      <c r="F405" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G405" s="51"/>
-      <c r="H405" s="51"/>
-      <c r="J405" s="51"/>
+      <c r="H405" s="25"/>
+      <c r="I405" s="25">
+        <v>0</v>
+      </c>
+      <c r="J405" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K405" s="51"/>
       <c r="L405" s="51"/>
       <c r="M405" s="51"/>
       <c r="N405" s="51"/>
     </row>
-    <row r="406" spans="1:14">
-      <c r="A406" s="23"/>
-      <c r="B406" s="51"/>
-      <c r="C406" s="51"/>
-      <c r="D406" s="51"/>
-      <c r="E406" s="51"/>
-      <c r="F406" s="51"/>
+    <row r="406" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A406" s="51">
+        <v>1163</v>
+      </c>
+      <c r="B406" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C406" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D406" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E406" s="51">
+        <v>70711</v>
+      </c>
+      <c r="F406" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G406" s="51"/>
       <c r="H406" s="51"/>
-      <c r="J406" s="51"/>
+      <c r="I406" s="25">
+        <v>0</v>
+      </c>
+      <c r="J406" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K406" s="51"/>
       <c r="L406" s="51"/>
       <c r="M406" s="51"/>
       <c r="N406" s="51"/>
     </row>
-    <row r="407" spans="1:14">
-      <c r="A407" s="23"/>
-      <c r="B407" s="51"/>
-      <c r="C407" s="51"/>
-      <c r="D407" s="51"/>
-      <c r="E407" s="51"/>
-      <c r="F407" s="51"/>
+    <row r="407" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A407" s="51">
+        <v>1164</v>
+      </c>
+      <c r="B407" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C407" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D407" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E407" s="51">
+        <v>80810</v>
+      </c>
+      <c r="F407" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G407" s="51"/>
       <c r="H407" s="51"/>
-      <c r="J407" s="51"/>
+      <c r="I407" s="25">
+        <v>0</v>
+      </c>
+      <c r="J407" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K407" s="51"/>
       <c r="L407" s="51"/>
       <c r="M407" s="51"/>
       <c r="N407" s="51"/>
     </row>
-    <row r="408" spans="1:14">
-      <c r="A408" s="23"/>
-      <c r="B408" s="51"/>
-      <c r="C408" s="51"/>
-      <c r="D408" s="51"/>
-      <c r="E408" s="51"/>
-      <c r="F408" s="51"/>
+    <row r="408" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A408" s="51">
+        <v>1165</v>
+      </c>
+      <c r="B408" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C408" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D408" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E408" s="51">
+        <v>80811</v>
+      </c>
+      <c r="F408" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G408" s="51"/>
       <c r="H408" s="51"/>
-      <c r="J408" s="51"/>
+      <c r="I408" s="25">
+        <v>0</v>
+      </c>
+      <c r="J408" s="51">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="K408" s="51"/>
       <c r="L408" s="51"/>
       <c r="M408" s="51"/>
       <c r="N408" s="51"/>
     </row>
-    <row r="409" spans="1:14">
-      <c r="A409" s="23"/>
-      <c r="B409" s="51"/>
-      <c r="C409" s="51"/>
-      <c r="D409" s="51"/>
-      <c r="E409" s="51"/>
-      <c r="F409" s="51"/>
+    <row r="409" spans="1:14" ht="12" customHeight="1">
+      <c r="A409" s="51">
+        <v>1166</v>
+      </c>
+      <c r="B409" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C409" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D409" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E409" s="51">
+        <v>90910</v>
+      </c>
+      <c r="F409" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G409" s="51"/>
       <c r="H409" s="51"/>
-      <c r="J409" s="51"/>
+      <c r="I409" s="25">
+        <v>0</v>
+      </c>
+      <c r="J409" s="51">
+        <v>0.06</v>
+      </c>
       <c r="K409" s="51"/>
       <c r="L409" s="51"/>
       <c r="M409" s="51"/>
       <c r="N409" s="51"/>
     </row>
-    <row r="410" spans="1:14">
-      <c r="A410" s="23"/>
-      <c r="B410" s="51"/>
-      <c r="C410" s="51"/>
-      <c r="D410" s="51"/>
-      <c r="E410" s="51"/>
-      <c r="F410" s="51"/>
+    <row r="410" spans="1:14" ht="12" customHeight="1">
+      <c r="A410" s="51">
+        <v>1167</v>
+      </c>
+      <c r="B410" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C410" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D410" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E410" s="51">
+        <v>90911</v>
+      </c>
+      <c r="F410" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G410" s="51"/>
       <c r="H410" s="51"/>
-      <c r="J410" s="51"/>
+      <c r="I410" s="25">
+        <v>0</v>
+      </c>
+      <c r="J410" s="51">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="K410" s="51"/>
       <c r="L410" s="51"/>
       <c r="M410" s="51"/>
       <c r="N410" s="51"/>
     </row>
-    <row r="411" spans="1:14">
-      <c r="A411" s="23"/>
-      <c r="B411" s="51"/>
-      <c r="C411" s="51"/>
-      <c r="D411" s="51"/>
-      <c r="E411" s="51"/>
-      <c r="F411" s="51"/>
+    <row r="411" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A411" s="51">
+        <v>1168</v>
+      </c>
+      <c r="B411" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C411" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D411" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E411" s="51">
+        <v>110908</v>
+      </c>
+      <c r="F411" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G411" s="51"/>
       <c r="H411" s="51"/>
-      <c r="J411" s="51"/>
+      <c r="I411" s="25">
+        <v>0</v>
+      </c>
+      <c r="J411" s="51">
+        <v>0.04</v>
+      </c>
       <c r="K411" s="51"/>
       <c r="L411" s="51"/>
       <c r="M411" s="51"/>
       <c r="N411" s="51"/>
     </row>
-    <row r="412" spans="1:14">
-      <c r="A412" s="23"/>
-      <c r="B412" s="51"/>
-      <c r="C412" s="51"/>
-      <c r="D412" s="51"/>
-      <c r="E412" s="51"/>
-      <c r="F412" s="51"/>
+    <row r="412" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A412" s="51">
+        <v>1169</v>
+      </c>
+      <c r="B412" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C412" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D412" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E412" s="51">
+        <v>110909</v>
+      </c>
+      <c r="F412" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G412" s="51"/>
       <c r="H412" s="51"/>
-      <c r="J412" s="51"/>
+      <c r="I412" s="25">
+        <v>0</v>
+      </c>
+      <c r="J412" s="51">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="K412" s="51"/>
       <c r="L412" s="51"/>
       <c r="M412" s="51"/>
       <c r="N412" s="51"/>
     </row>
-    <row r="413" spans="1:14">
-      <c r="A413" s="23"/>
-      <c r="B413" s="51"/>
-      <c r="C413" s="51"/>
-      <c r="D413" s="51"/>
-      <c r="E413" s="51"/>
-      <c r="F413" s="51"/>
+    <row r="413" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A413" s="51">
+        <v>1170</v>
+      </c>
+      <c r="B413" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C413" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D413" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E413" s="51">
+        <v>100710</v>
+      </c>
+      <c r="F413" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G413" s="51"/>
       <c r="H413" s="51"/>
-      <c r="J413" s="51"/>
+      <c r="I413" s="25">
+        <v>0</v>
+      </c>
+      <c r="J413" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K413" s="51"/>
       <c r="L413" s="51"/>
       <c r="M413" s="51"/>
       <c r="N413" s="51"/>
     </row>
-    <row r="414" spans="1:14">
-      <c r="A414" s="23"/>
-      <c r="B414" s="51"/>
-      <c r="C414" s="51"/>
-      <c r="D414" s="51"/>
-      <c r="E414" s="51"/>
-      <c r="F414" s="51"/>
+    <row r="414" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A414" s="51">
+        <v>1171</v>
+      </c>
+      <c r="B414" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C414" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D414" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E414" s="51">
+        <v>110614</v>
+      </c>
+      <c r="F414" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G414" s="51"/>
       <c r="H414" s="51"/>
-      <c r="J414" s="51"/>
+      <c r="I414" s="25">
+        <v>0</v>
+      </c>
+      <c r="J414" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K414" s="51"/>
       <c r="L414" s="51"/>
       <c r="M414" s="51"/>
       <c r="N414" s="51"/>
     </row>
-    <row r="415" spans="1:14">
-      <c r="A415" s="23"/>
-      <c r="B415" s="51"/>
-      <c r="C415" s="51"/>
-      <c r="D415" s="51"/>
-      <c r="E415" s="51"/>
-      <c r="F415" s="51"/>
+    <row r="415" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A415" s="51">
+        <v>1172</v>
+      </c>
+      <c r="B415" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C415" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D415" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E415" s="51">
+        <v>110615</v>
+      </c>
+      <c r="F415" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G415" s="51"/>
       <c r="H415" s="51"/>
-      <c r="J415" s="51"/>
+      <c r="I415" s="25">
+        <v>0</v>
+      </c>
+      <c r="J415" s="51">
+        <v>1.6E-2</v>
+      </c>
       <c r="K415" s="51"/>
       <c r="L415" s="51"/>
       <c r="M415" s="51"/>
       <c r="N415" s="51"/>
     </row>
-    <row r="416" spans="1:14">
-      <c r="A416" s="23"/>
-      <c r="B416" s="51"/>
-      <c r="C416" s="51"/>
-      <c r="D416" s="51"/>
-      <c r="E416" s="51"/>
-      <c r="F416" s="51"/>
+    <row r="416" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A416" s="51">
+        <v>1173</v>
+      </c>
+      <c r="B416" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C416" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D416" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E416" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F416" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G416" s="51"/>
       <c r="H416" s="51"/>
-      <c r="J416" s="51"/>
+      <c r="I416" s="25">
+        <v>0</v>
+      </c>
+      <c r="J416" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K416" s="51"/>
       <c r="L416" s="51"/>
       <c r="M416" s="51"/>
       <c r="N416" s="51"/>
     </row>
-    <row r="417" spans="1:14">
-      <c r="A417" s="23"/>
-      <c r="B417" s="51"/>
-      <c r="C417" s="51"/>
-      <c r="D417" s="51"/>
-      <c r="E417" s="51"/>
-      <c r="F417" s="51"/>
+    <row r="417" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A417" s="51">
+        <v>1174</v>
+      </c>
+      <c r="B417" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C417" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D417" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E417" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F417" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G417" s="51"/>
       <c r="H417" s="51"/>
-      <c r="J417" s="51"/>
+      <c r="I417" s="25">
+        <v>0</v>
+      </c>
+      <c r="J417" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K417" s="51"/>
       <c r="L417" s="51"/>
       <c r="M417" s="51"/>
       <c r="N417" s="51"/>
     </row>
-    <row r="418" spans="1:14">
-      <c r="A418" s="23"/>
-      <c r="B418" s="51"/>
-      <c r="C418" s="51"/>
-      <c r="D418" s="51"/>
-      <c r="E418" s="51"/>
-      <c r="F418" s="51"/>
+    <row r="418" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A418" s="51">
+        <v>1175</v>
+      </c>
+      <c r="B418" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C418" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D418" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E418" s="51">
+        <v>1118</v>
+      </c>
+      <c r="F418" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G418" s="51"/>
       <c r="H418" s="51"/>
-      <c r="J418" s="51"/>
+      <c r="I418" s="25">
+        <v>0</v>
+      </c>
+      <c r="J418" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K418" s="51"/>
       <c r="L418" s="51"/>
       <c r="M418" s="51"/>
       <c r="N418" s="51"/>
     </row>
-    <row r="419" spans="1:14">
-      <c r="A419" s="23"/>
-      <c r="B419" s="51"/>
-      <c r="C419" s="51"/>
-      <c r="D419" s="51"/>
-      <c r="E419" s="51"/>
-      <c r="F419" s="51"/>
+    <row r="419" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A419" s="51">
+        <v>1176</v>
+      </c>
+      <c r="B419" s="23">
+        <v>44062</v>
+      </c>
+      <c r="C419" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D419" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E419" s="51">
+        <v>16</v>
+      </c>
+      <c r="F419" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="G419" s="51"/>
-      <c r="H419" s="51"/>
-      <c r="J419" s="51"/>
+      <c r="H419" s="51">
+        <v>24.8</v>
+      </c>
+      <c r="I419" s="21">
+        <v>3</v>
+      </c>
+      <c r="J419" s="51">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="K419" s="51"/>
       <c r="L419" s="51"/>
       <c r="M419" s="51"/>
@@ -27578,10 +28181,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1422"/>
+  <dimension ref="A1:R1482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1394" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1408" sqref="E1408"/>
+    <sheetView tabSelected="1" topLeftCell="A1454" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1468" sqref="F1468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -64729,6 +65332,1602 @@
       <c r="L1422" s="45"/>
       <c r="M1422" s="133"/>
     </row>
+    <row r="1423" spans="1:13">
+      <c r="A1423" s="125">
+        <v>44062</v>
+      </c>
+      <c r="B1423" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1423" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1423" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1423" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1423" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1423" s="78"/>
+      <c r="H1423" s="79"/>
+      <c r="I1423" s="78"/>
+      <c r="J1423" s="97"/>
+      <c r="K1423" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1423" s="78"/>
+      <c r="M1423" s="80"/>
+    </row>
+    <row r="1424" spans="1:13">
+      <c r="A1424" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1424" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1424" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1424" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1424" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1424" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1424" s="36"/>
+      <c r="H1424" s="37"/>
+      <c r="I1424" s="36"/>
+      <c r="J1424" s="95"/>
+      <c r="K1424" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1424" s="36"/>
+      <c r="M1424" s="72"/>
+    </row>
+    <row r="1425" spans="1:13">
+      <c r="A1425" s="125">
+        <v>44062</v>
+      </c>
+      <c r="B1425" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1425" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1425" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1425" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1425" s="90">
+        <v>4</v>
+      </c>
+      <c r="G1425" s="36"/>
+      <c r="H1425" s="37"/>
+      <c r="I1425" s="36"/>
+      <c r="J1425" s="95"/>
+      <c r="K1425" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1425" s="36"/>
+      <c r="M1425" s="72"/>
+    </row>
+    <row r="1426" spans="1:13">
+      <c r="A1426" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1426" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1426" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1426" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1426" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1426" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1426" s="36"/>
+      <c r="H1426" s="37"/>
+      <c r="I1426" s="36"/>
+      <c r="J1426" s="90"/>
+      <c r="K1426" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1426" s="36"/>
+      <c r="M1426" s="72"/>
+    </row>
+    <row r="1427" spans="1:13">
+      <c r="A1427" s="125">
+        <v>44062</v>
+      </c>
+      <c r="B1427" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1427" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1427" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1427" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1427" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1427" s="36"/>
+      <c r="H1427" s="37"/>
+      <c r="I1427" s="36"/>
+      <c r="J1427" s="90"/>
+      <c r="K1427" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1427" s="36"/>
+      <c r="M1427" s="72"/>
+    </row>
+    <row r="1428" spans="1:13">
+      <c r="A1428" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1428" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1428" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1428" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1428" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1428" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1428" s="36"/>
+      <c r="H1428" s="37"/>
+      <c r="I1428" s="36"/>
+      <c r="J1428" s="90"/>
+      <c r="K1428" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1428" s="36"/>
+      <c r="M1428" s="72"/>
+    </row>
+    <row r="1429" spans="1:13">
+      <c r="A1429" s="125">
+        <v>44062</v>
+      </c>
+      <c r="B1429" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1429" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1429" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1429" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1429" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1429" s="36"/>
+      <c r="H1429" s="37"/>
+      <c r="I1429" s="36"/>
+      <c r="J1429" s="90"/>
+      <c r="K1429" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1429" s="36"/>
+      <c r="M1429" s="72"/>
+    </row>
+    <row r="1430" spans="1:13">
+      <c r="A1430" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1430" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1430" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1430" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1430" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1430" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1430" s="36"/>
+      <c r="H1430" s="37"/>
+      <c r="I1430" s="36"/>
+      <c r="J1430" s="90"/>
+      <c r="K1430" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1430" s="36"/>
+      <c r="M1430" s="72"/>
+    </row>
+    <row r="1431" spans="1:13">
+      <c r="A1431" s="125">
+        <v>44062</v>
+      </c>
+      <c r="B1431" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1431" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1431" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1431" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1431" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1431" s="36"/>
+      <c r="H1431" s="37"/>
+      <c r="I1431" s="36"/>
+      <c r="J1431" s="90"/>
+      <c r="K1431" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1431" s="36"/>
+      <c r="M1431" s="72"/>
+    </row>
+    <row r="1432" spans="1:13">
+      <c r="A1432" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1432" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1432" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1432" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1432" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1432" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1432" s="36"/>
+      <c r="H1432" s="37"/>
+      <c r="I1432" s="36"/>
+      <c r="J1432" s="90"/>
+      <c r="K1432" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1432" s="36"/>
+      <c r="M1432" s="72"/>
+    </row>
+    <row r="1433" spans="1:13">
+      <c r="A1433" s="125">
+        <v>44062</v>
+      </c>
+      <c r="B1433" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1433" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1433" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1433" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1433" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1433" s="36"/>
+      <c r="H1433" s="37"/>
+      <c r="I1433" s="36"/>
+      <c r="J1433" s="90"/>
+      <c r="K1433" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1433" s="36"/>
+      <c r="M1433" s="72"/>
+    </row>
+    <row r="1434" spans="1:13">
+      <c r="A1434" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1434" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1434" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1434" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1434" s="36"/>
+      <c r="F1434" s="37"/>
+      <c r="G1434" s="90"/>
+      <c r="H1434" s="96"/>
+      <c r="I1434" s="90"/>
+      <c r="J1434" s="95"/>
+      <c r="K1434" s="36"/>
+      <c r="L1434" s="36"/>
+      <c r="M1434" s="72"/>
+    </row>
+    <row r="1435" spans="1:13">
+      <c r="A1435" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1435" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1435" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1435" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1435" s="36"/>
+      <c r="F1435" s="36"/>
+      <c r="G1435" s="90">
+        <v>4.87</v>
+      </c>
+      <c r="H1435" s="37"/>
+      <c r="I1435" s="90">
+        <v>1.7</v>
+      </c>
+      <c r="J1435" s="37"/>
+      <c r="K1435" s="36"/>
+      <c r="L1435" s="36"/>
+      <c r="M1435" s="72"/>
+    </row>
+    <row r="1436" spans="1:13" ht="31.5">
+      <c r="A1436" s="124"/>
+      <c r="B1436" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1436" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1436" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1436" s="36"/>
+      <c r="F1436" s="36"/>
+      <c r="G1436" s="90"/>
+      <c r="H1436" s="37"/>
+      <c r="I1436" s="90"/>
+      <c r="J1436" s="95"/>
+      <c r="K1436" s="36"/>
+      <c r="L1436" s="36"/>
+      <c r="M1436" s="72"/>
+    </row>
+    <row r="1437" spans="1:13" ht="31.5">
+      <c r="A1437" s="124"/>
+      <c r="B1437" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1437" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1437" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1437" s="36"/>
+      <c r="F1437" s="36"/>
+      <c r="G1437" s="90"/>
+      <c r="H1437" s="37"/>
+      <c r="I1437" s="90"/>
+      <c r="J1437" s="95"/>
+      <c r="K1437" s="36"/>
+      <c r="L1437" s="36"/>
+      <c r="M1437" s="72"/>
+    </row>
+    <row r="1438" spans="1:13" ht="31.5">
+      <c r="A1438" s="40"/>
+      <c r="B1438" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1438" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1438" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1438" s="36"/>
+      <c r="F1438" s="36"/>
+      <c r="G1438" s="35"/>
+      <c r="H1438" s="37"/>
+      <c r="I1438" s="35"/>
+      <c r="J1438" s="37"/>
+      <c r="K1438" s="36"/>
+      <c r="L1438" s="36"/>
+      <c r="M1438" s="72"/>
+    </row>
+    <row r="1439" spans="1:13">
+      <c r="A1439" s="124"/>
+      <c r="B1439" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1439" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1439" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1439" s="36"/>
+      <c r="F1439" s="36"/>
+      <c r="G1439" s="90"/>
+      <c r="H1439" s="95"/>
+      <c r="I1439" s="90"/>
+      <c r="J1439" s="37"/>
+      <c r="K1439" s="36"/>
+      <c r="L1439" s="36"/>
+      <c r="M1439" s="72"/>
+    </row>
+    <row r="1440" spans="1:13">
+      <c r="A1440" s="124"/>
+      <c r="B1440" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1440" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1440" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1440" s="36"/>
+      <c r="F1440" s="36"/>
+      <c r="G1440" s="90"/>
+      <c r="H1440" s="90"/>
+      <c r="I1440" s="90"/>
+      <c r="J1440" s="95"/>
+      <c r="K1440" s="36"/>
+      <c r="L1440" s="36"/>
+      <c r="M1440" s="72"/>
+    </row>
+    <row r="1441" spans="1:13">
+      <c r="A1441" s="124">
+        <v>44062</v>
+      </c>
+      <c r="B1441" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1441" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1441" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1441" s="36"/>
+      <c r="F1441" s="36"/>
+      <c r="G1441" s="106">
+        <v>3.7</v>
+      </c>
+      <c r="H1441" s="95"/>
+      <c r="I1441" s="90">
+        <v>1.9</v>
+      </c>
+      <c r="J1441" s="36"/>
+      <c r="K1441" s="36"/>
+      <c r="L1441" s="36"/>
+      <c r="M1441" s="72"/>
+    </row>
+    <row r="1442" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1442" s="124"/>
+      <c r="B1442" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1442" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1442" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1442" s="46"/>
+      <c r="F1442" s="46"/>
+      <c r="G1442" s="46"/>
+      <c r="H1442" s="45"/>
+      <c r="I1442" s="136"/>
+      <c r="J1442" s="45"/>
+      <c r="K1442" s="45"/>
+      <c r="L1442" s="45"/>
+      <c r="M1442" s="133"/>
+    </row>
+    <row r="1443" spans="1:13">
+      <c r="A1443" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1443" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1443" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1443" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1443" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1443" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1443" s="78"/>
+      <c r="H1443" s="79"/>
+      <c r="I1443" s="78"/>
+      <c r="J1443" s="97">
+        <v>0</v>
+      </c>
+      <c r="K1443" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1443" s="78"/>
+      <c r="M1443" s="80"/>
+    </row>
+    <row r="1444" spans="1:13">
+      <c r="A1444" s="124">
+        <v>44063</v>
+      </c>
+      <c r="B1444" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1444" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1444" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1444" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1444" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1444" s="36"/>
+      <c r="H1444" s="37"/>
+      <c r="I1444" s="36"/>
+      <c r="J1444" s="95">
+        <v>0</v>
+      </c>
+      <c r="K1444" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1444" s="36"/>
+      <c r="M1444" s="72"/>
+    </row>
+    <row r="1445" spans="1:13">
+      <c r="A1445" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1445" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1445" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1445" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1445" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1445" s="90">
+        <v>4</v>
+      </c>
+      <c r="G1445" s="36"/>
+      <c r="H1445" s="37"/>
+      <c r="I1445" s="36"/>
+      <c r="J1445" s="95">
+        <v>4</v>
+      </c>
+      <c r="K1445" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1445" s="36"/>
+      <c r="M1445" s="72"/>
+    </row>
+    <row r="1446" spans="1:13">
+      <c r="A1446" s="124">
+        <v>44063</v>
+      </c>
+      <c r="B1446" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1446" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1446" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1446" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1446" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1446" s="36"/>
+      <c r="H1446" s="37"/>
+      <c r="I1446" s="36"/>
+      <c r="J1446" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1446" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1446" s="36"/>
+      <c r="M1446" s="72"/>
+    </row>
+    <row r="1447" spans="1:13">
+      <c r="A1447" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1447" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1447" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1447" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1447" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1447" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1447" s="36"/>
+      <c r="H1447" s="37"/>
+      <c r="I1447" s="36"/>
+      <c r="J1447" s="90">
+        <v>2</v>
+      </c>
+      <c r="K1447" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1447" s="36"/>
+      <c r="M1447" s="72"/>
+    </row>
+    <row r="1448" spans="1:13">
+      <c r="A1448" s="124">
+        <v>44063</v>
+      </c>
+      <c r="B1448" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1448" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1448" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1448" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1448" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1448" s="36"/>
+      <c r="H1448" s="37"/>
+      <c r="I1448" s="36"/>
+      <c r="J1448" s="90">
+        <v>3</v>
+      </c>
+      <c r="K1448" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1448" s="36"/>
+      <c r="M1448" s="72"/>
+    </row>
+    <row r="1449" spans="1:13">
+      <c r="A1449" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1449" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1449" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1449" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1449" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1449" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1449" s="36"/>
+      <c r="H1449" s="37"/>
+      <c r="I1449" s="36"/>
+      <c r="J1449" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1449" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1449" s="36"/>
+      <c r="M1449" s="72"/>
+    </row>
+    <row r="1450" spans="1:13">
+      <c r="A1450" s="124">
+        <v>44063</v>
+      </c>
+      <c r="B1450" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1450" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1450" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1450" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1450" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1450" s="36"/>
+      <c r="H1450" s="37"/>
+      <c r="I1450" s="36"/>
+      <c r="J1450" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1450" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1450" s="36"/>
+      <c r="M1450" s="72"/>
+    </row>
+    <row r="1451" spans="1:13">
+      <c r="A1451" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1451" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1451" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1451" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1451" s="90">
+        <v>8.9</v>
+      </c>
+      <c r="F1451" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1451" s="36"/>
+      <c r="H1451" s="37"/>
+      <c r="I1451" s="36"/>
+      <c r="J1451" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1451" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1451" s="36"/>
+      <c r="M1451" s="72"/>
+    </row>
+    <row r="1452" spans="1:13">
+      <c r="A1452" s="124">
+        <v>44063</v>
+      </c>
+      <c r="B1452" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1452" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1452" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1452" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1452" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1452" s="36"/>
+      <c r="H1452" s="37"/>
+      <c r="I1452" s="36"/>
+      <c r="J1452" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1452" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1452" s="36"/>
+      <c r="M1452" s="72"/>
+    </row>
+    <row r="1453" spans="1:13">
+      <c r="A1453" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1453" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1453" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1453" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1453" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1453" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1453" s="36"/>
+      <c r="H1453" s="37"/>
+      <c r="I1453" s="36"/>
+      <c r="J1453" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1453" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1453" s="36"/>
+      <c r="M1453" s="72"/>
+    </row>
+    <row r="1454" spans="1:13">
+      <c r="A1454" s="124">
+        <v>44063</v>
+      </c>
+      <c r="B1454" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1454" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1454" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1454" s="36"/>
+      <c r="F1454" s="37"/>
+      <c r="G1454" s="90">
+        <v>5.2</v>
+      </c>
+      <c r="H1454" s="96">
+        <v>6.3</v>
+      </c>
+      <c r="I1454" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="J1454" s="95"/>
+      <c r="K1454" s="36"/>
+      <c r="L1454" s="36"/>
+      <c r="M1454" s="72"/>
+    </row>
+    <row r="1455" spans="1:13">
+      <c r="A1455" s="125"/>
+      <c r="B1455" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1455" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1455" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1455" s="36"/>
+      <c r="F1455" s="36"/>
+      <c r="G1455" s="90"/>
+      <c r="H1455" s="37"/>
+      <c r="I1455" s="90"/>
+      <c r="J1455" s="37"/>
+      <c r="K1455" s="36"/>
+      <c r="L1455" s="36"/>
+      <c r="M1455" s="72"/>
+    </row>
+    <row r="1456" spans="1:13" ht="31.5">
+      <c r="A1456" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1456" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1456" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1456" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1456" s="36"/>
+      <c r="F1456" s="36"/>
+      <c r="G1456" s="90">
+        <v>6.47</v>
+      </c>
+      <c r="H1456" s="37"/>
+      <c r="I1456" s="90">
+        <v>1.3</v>
+      </c>
+      <c r="J1456" s="95"/>
+      <c r="K1456" s="36"/>
+      <c r="L1456" s="36"/>
+      <c r="M1456" s="72"/>
+    </row>
+    <row r="1457" spans="1:13" ht="31.5">
+      <c r="A1457" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1457" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1457" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1457" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1457" s="36"/>
+      <c r="F1457" s="36"/>
+      <c r="G1457" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="H1457" s="37"/>
+      <c r="I1457" s="90">
+        <v>1.5</v>
+      </c>
+      <c r="J1457" s="95"/>
+      <c r="K1457" s="36"/>
+      <c r="L1457" s="36"/>
+      <c r="M1457" s="72"/>
+    </row>
+    <row r="1458" spans="1:13" ht="31.5">
+      <c r="A1458" s="40"/>
+      <c r="B1458" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1458" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1458" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1458" s="36"/>
+      <c r="F1458" s="36"/>
+      <c r="G1458" s="35"/>
+      <c r="H1458" s="37"/>
+      <c r="I1458" s="35"/>
+      <c r="J1458" s="37"/>
+      <c r="K1458" s="36"/>
+      <c r="L1458" s="36"/>
+      <c r="M1458" s="72"/>
+    </row>
+    <row r="1459" spans="1:13">
+      <c r="A1459" s="124"/>
+      <c r="B1459" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1459" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1459" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1459" s="36"/>
+      <c r="F1459" s="36"/>
+      <c r="G1459" s="90"/>
+      <c r="H1459" s="95"/>
+      <c r="I1459" s="90"/>
+      <c r="J1459" s="37"/>
+      <c r="K1459" s="36"/>
+      <c r="L1459" s="36"/>
+      <c r="M1459" s="72"/>
+    </row>
+    <row r="1460" spans="1:13">
+      <c r="A1460" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1460" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1460" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1460" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1460" s="36"/>
+      <c r="F1460" s="36"/>
+      <c r="G1460" s="90">
+        <v>2.12</v>
+      </c>
+      <c r="H1460" s="90">
+        <v>5.57</v>
+      </c>
+      <c r="I1460" s="90">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J1460" s="95"/>
+      <c r="K1460" s="36"/>
+      <c r="L1460" s="36"/>
+      <c r="M1460" s="72"/>
+    </row>
+    <row r="1461" spans="1:13">
+      <c r="A1461" s="124"/>
+      <c r="B1461" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1461" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1461" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1461" s="36"/>
+      <c r="F1461" s="36"/>
+      <c r="G1461" s="106"/>
+      <c r="H1461" s="95"/>
+      <c r="I1461" s="90"/>
+      <c r="J1461" s="36"/>
+      <c r="K1461" s="36"/>
+      <c r="L1461" s="36"/>
+      <c r="M1461" s="72"/>
+    </row>
+    <row r="1462" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1462" s="125">
+        <v>44063</v>
+      </c>
+      <c r="B1462" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1462" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1462" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1462" s="46"/>
+      <c r="F1462" s="46"/>
+      <c r="G1462" s="46"/>
+      <c r="H1462" s="45"/>
+      <c r="I1462" s="136">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1462" s="45"/>
+      <c r="K1462" s="45"/>
+      <c r="L1462" s="45"/>
+      <c r="M1462" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:13">
+      <c r="A1463" s="125">
+        <v>44064</v>
+      </c>
+      <c r="B1463" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1463" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1463" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1463" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1463" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="G1463" s="78"/>
+      <c r="H1463" s="79"/>
+      <c r="I1463" s="78"/>
+      <c r="J1463" s="97"/>
+      <c r="K1463" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1463" s="78"/>
+      <c r="M1463" s="80"/>
+    </row>
+    <row r="1464" spans="1:13">
+      <c r="A1464" s="124">
+        <v>44064</v>
+      </c>
+      <c r="B1464" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1464" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1464" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1464" s="106">
+        <v>8.6</v>
+      </c>
+      <c r="F1464" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1464" s="36"/>
+      <c r="H1464" s="37"/>
+      <c r="I1464" s="36"/>
+      <c r="J1464" s="95"/>
+      <c r="K1464" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1464" s="36"/>
+      <c r="M1464" s="72"/>
+    </row>
+    <row r="1465" spans="1:13">
+      <c r="A1465" s="125">
+        <v>44064</v>
+      </c>
+      <c r="B1465" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1465" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1465" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1465" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1465" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1465" s="36"/>
+      <c r="H1465" s="37"/>
+      <c r="I1465" s="36"/>
+      <c r="J1465" s="95"/>
+      <c r="K1465" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1465" s="36"/>
+      <c r="M1465" s="72"/>
+    </row>
+    <row r="1466" spans="1:13">
+      <c r="A1466" s="124">
+        <v>44064</v>
+      </c>
+      <c r="B1466" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1466" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1466" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1466" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1466" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1466" s="36"/>
+      <c r="H1466" s="37"/>
+      <c r="I1466" s="36"/>
+      <c r="J1466" s="90"/>
+      <c r="K1466" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1466" s="36"/>
+      <c r="M1466" s="72"/>
+    </row>
+    <row r="1467" spans="1:13">
+      <c r="A1467" s="125">
+        <v>44064</v>
+      </c>
+      <c r="B1467" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1467" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1467" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1467" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1467" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1467" s="36"/>
+      <c r="H1467" s="37"/>
+      <c r="I1467" s="36"/>
+      <c r="J1467" s="90"/>
+      <c r="K1467" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1467" s="36"/>
+      <c r="M1467" s="72"/>
+    </row>
+    <row r="1468" spans="1:13">
+      <c r="A1468" s="124">
+        <v>44064</v>
+      </c>
+      <c r="B1468" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1468" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1468" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1468" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1468" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1468" s="36"/>
+      <c r="H1468" s="37"/>
+      <c r="I1468" s="36"/>
+      <c r="J1468" s="90"/>
+      <c r="K1468" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1468" s="36"/>
+      <c r="M1468" s="72"/>
+    </row>
+    <row r="1469" spans="1:13">
+      <c r="A1469" s="125">
+        <v>44064</v>
+      </c>
+      <c r="B1469" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1469" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1469" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1469" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1469" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1469" s="36"/>
+      <c r="H1469" s="37"/>
+      <c r="I1469" s="36"/>
+      <c r="J1469" s="90"/>
+      <c r="K1469" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1469" s="36"/>
+      <c r="M1469" s="72"/>
+    </row>
+    <row r="1470" spans="1:13">
+      <c r="A1470" s="124">
+        <v>44064</v>
+      </c>
+      <c r="B1470" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1470" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1470" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1470" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1470" s="90">
+        <v>2</v>
+      </c>
+      <c r="G1470" s="36"/>
+      <c r="H1470" s="37"/>
+      <c r="I1470" s="36"/>
+      <c r="J1470" s="90"/>
+      <c r="K1470" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1470" s="36"/>
+      <c r="M1470" s="72"/>
+    </row>
+    <row r="1471" spans="1:13">
+      <c r="A1471" s="125">
+        <v>44064</v>
+      </c>
+      <c r="B1471" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1471" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1471" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1471" s="90">
+        <v>9</v>
+      </c>
+      <c r="F1471" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1471" s="36"/>
+      <c r="H1471" s="37"/>
+      <c r="I1471" s="36"/>
+      <c r="J1471" s="90"/>
+      <c r="K1471" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1471" s="36"/>
+      <c r="M1471" s="72"/>
+    </row>
+    <row r="1472" spans="1:13">
+      <c r="A1472" s="124">
+        <v>44064</v>
+      </c>
+      <c r="B1472" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1472" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1472" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1472" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1472" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1472" s="36"/>
+      <c r="H1472" s="37"/>
+      <c r="I1472" s="36"/>
+      <c r="J1472" s="90"/>
+      <c r="K1472" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1472" s="36"/>
+      <c r="M1472" s="72"/>
+    </row>
+    <row r="1473" spans="1:13">
+      <c r="A1473" s="125">
+        <v>44064</v>
+      </c>
+      <c r="B1473" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1473" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1473" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1473" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1473" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1473" s="36"/>
+      <c r="H1473" s="37"/>
+      <c r="I1473" s="36"/>
+      <c r="J1473" s="90"/>
+      <c r="K1473" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1473" s="36"/>
+      <c r="M1473" s="72"/>
+    </row>
+    <row r="1474" spans="1:13">
+      <c r="A1474" s="124">
+        <v>44064</v>
+      </c>
+      <c r="B1474" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1474" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1474" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1474" s="36"/>
+      <c r="F1474" s="37"/>
+      <c r="G1474" s="90"/>
+      <c r="H1474" s="96"/>
+      <c r="I1474" s="90"/>
+      <c r="J1474" s="95"/>
+      <c r="K1474" s="36"/>
+      <c r="L1474" s="36"/>
+      <c r="M1474" s="72"/>
+    </row>
+    <row r="1475" spans="1:13">
+      <c r="A1475" s="125"/>
+      <c r="B1475" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1475" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1475" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1475" s="36"/>
+      <c r="F1475" s="36"/>
+      <c r="G1475" s="90"/>
+      <c r="H1475" s="37"/>
+      <c r="I1475" s="90"/>
+      <c r="J1475" s="37"/>
+      <c r="K1475" s="36"/>
+      <c r="L1475" s="36"/>
+      <c r="M1475" s="72"/>
+    </row>
+    <row r="1476" spans="1:13" ht="31.5">
+      <c r="A1476" s="125"/>
+      <c r="B1476" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1476" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1476" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1476" s="36"/>
+      <c r="F1476" s="36"/>
+      <c r="G1476" s="90"/>
+      <c r="H1476" s="37"/>
+      <c r="I1476" s="90"/>
+      <c r="J1476" s="95"/>
+      <c r="K1476" s="36"/>
+      <c r="L1476" s="36"/>
+      <c r="M1476" s="72"/>
+    </row>
+    <row r="1477" spans="1:13" ht="31.5">
+      <c r="A1477" s="125"/>
+      <c r="B1477" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1477" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1477" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1477" s="36"/>
+      <c r="F1477" s="36"/>
+      <c r="G1477" s="90"/>
+      <c r="H1477" s="37"/>
+      <c r="I1477" s="90"/>
+      <c r="J1477" s="95"/>
+      <c r="K1477" s="36"/>
+      <c r="L1477" s="36"/>
+      <c r="M1477" s="72"/>
+    </row>
+    <row r="1478" spans="1:13" ht="31.5">
+      <c r="A1478" s="40"/>
+      <c r="B1478" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1478" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1478" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1478" s="36"/>
+      <c r="F1478" s="36"/>
+      <c r="G1478" s="35"/>
+      <c r="H1478" s="37"/>
+      <c r="I1478" s="35"/>
+      <c r="J1478" s="37"/>
+      <c r="K1478" s="36"/>
+      <c r="L1478" s="36"/>
+      <c r="M1478" s="72"/>
+    </row>
+    <row r="1479" spans="1:13">
+      <c r="A1479" s="124"/>
+      <c r="B1479" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1479" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1479" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1479" s="36"/>
+      <c r="F1479" s="36"/>
+      <c r="G1479" s="90"/>
+      <c r="H1479" s="95"/>
+      <c r="I1479" s="90"/>
+      <c r="J1479" s="37"/>
+      <c r="K1479" s="36"/>
+      <c r="L1479" s="36"/>
+      <c r="M1479" s="72"/>
+    </row>
+    <row r="1480" spans="1:13">
+      <c r="A1480" s="125"/>
+      <c r="B1480" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1480" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1480" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1480" s="36"/>
+      <c r="F1480" s="36"/>
+      <c r="G1480" s="90"/>
+      <c r="H1480" s="90"/>
+      <c r="I1480" s="90"/>
+      <c r="J1480" s="95"/>
+      <c r="K1480" s="36"/>
+      <c r="L1480" s="36"/>
+      <c r="M1480" s="72"/>
+    </row>
+    <row r="1481" spans="1:13">
+      <c r="A1481" s="124"/>
+      <c r="B1481" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1481" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1481" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1481" s="36"/>
+      <c r="F1481" s="36"/>
+      <c r="G1481" s="106"/>
+      <c r="H1481" s="95"/>
+      <c r="I1481" s="90"/>
+      <c r="J1481" s="36"/>
+      <c r="K1481" s="36"/>
+      <c r="L1481" s="36"/>
+      <c r="M1481" s="72"/>
+    </row>
+    <row r="1482" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1482" s="125"/>
+      <c r="B1482" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1482" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1482" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1482" s="46"/>
+      <c r="F1482" s="46"/>
+      <c r="G1482" s="46"/>
+      <c r="H1482" s="45"/>
+      <c r="I1482" s="136"/>
+      <c r="J1482" s="45"/>
+      <c r="K1482" s="45"/>
+      <c r="L1482" s="45"/>
+      <c r="M1482" s="133"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -64739,7 +66938,7 @@
   <pageSetup paperSize="256" scale="92" fitToHeight="4" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391 C1405:C1411" twoDigitTextYear="1"/>
+    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391 C1405:C1411 C1425:C1431 C1445:C1451 C1465:C1471" twoDigitTextYear="1"/>
     <ignoredError sqref="M862 I856 H935:I935" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>

--- a/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
+++ b/files/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ШП" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6707" uniqueCount="252">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1006,6 +1006,12 @@
   <si>
     <t xml:space="preserve"> Масло закалочное ТермоОйл</t>
   </si>
+  <si>
+    <t>16/31</t>
+  </si>
+  <si>
+    <t>16/41</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1413,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1789,6 +1795,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2138,8 +2145,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:M370"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N282" sqref="N282"/>
+    <sheetView topLeftCell="A292" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M299" sqref="M299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2156,58 +2163,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A2" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="143" t="s">
+      <c r="A2" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="125.25" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="142"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
@@ -11277,106 +11284,204 @@
       <c r="M299" s="8"/>
     </row>
     <row r="300" spans="1:13">
-      <c r="A300" s="8"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="8"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
+      <c r="A300" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B300" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
-      <c r="J300" s="6"/>
+      <c r="J300" s="11">
+        <v>10.8</v>
+      </c>
       <c r="K300" s="8"/>
       <c r="L300" s="8"/>
       <c r="M300" s="8"/>
     </row>
     <row r="301" spans="1:13">
-      <c r="A301" s="8"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
+      <c r="A301" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B301" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
-      <c r="J301" s="6"/>
+      <c r="J301" s="11">
+        <v>7.7</v>
+      </c>
       <c r="K301" s="8"/>
       <c r="L301" s="8"/>
       <c r="M301" s="8"/>
     </row>
     <row r="302" spans="1:13">
-      <c r="A302" s="8"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="5"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
+      <c r="A302" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B302" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
-      <c r="J302" s="6"/>
+      <c r="J302" s="11">
+        <v>7.1</v>
+      </c>
       <c r="K302" s="8"/>
       <c r="L302" s="8"/>
       <c r="M302" s="8"/>
     </row>
     <row r="303" spans="1:13">
-      <c r="A303" s="8"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="5"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
+      <c r="A303" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B303" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
-      <c r="J303" s="6"/>
+      <c r="J303" s="11">
+        <v>4.8</v>
+      </c>
       <c r="K303" s="8"/>
       <c r="L303" s="8"/>
       <c r="M303" s="8"/>
     </row>
     <row r="304" spans="1:13">
-      <c r="A304" s="8"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="5"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
+      <c r="A304" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B304" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G304" s="8"/>
       <c r="H304" s="8"/>
       <c r="I304" s="8"/>
-      <c r="J304" s="6"/>
+      <c r="J304" s="11">
+        <v>4</v>
+      </c>
       <c r="K304" s="8"/>
       <c r="L304" s="8"/>
       <c r="M304" s="8"/>
     </row>
     <row r="305" spans="1:13">
-      <c r="A305" s="8"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="5"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
+      <c r="A305" s="3">
+        <v>1206</v>
+      </c>
+      <c r="B305" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G305" s="8"/>
       <c r="H305" s="8"/>
       <c r="I305" s="8"/>
-      <c r="J305" s="6"/>
+      <c r="J305" s="11">
+        <v>12.7</v>
+      </c>
       <c r="K305" s="8"/>
       <c r="L305" s="8"/>
       <c r="M305" s="8"/>
     </row>
     <row r="306" spans="1:13">
-      <c r="A306" s="8"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="8"/>
-      <c r="D306" s="5"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
+      <c r="A306" s="3">
+        <v>1207</v>
+      </c>
+      <c r="B306" s="9">
+        <v>44068</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G306" s="8"/>
       <c r="H306" s="8"/>
       <c r="I306" s="8"/>
-      <c r="J306" s="6"/>
+      <c r="J306" s="11">
+        <v>4</v>
+      </c>
       <c r="K306" s="8"/>
       <c r="L306" s="8"/>
       <c r="M306" s="8"/>
@@ -12367,8 +12472,8 @@
   </sheetPr>
   <dimension ref="A1:N573"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K477" sqref="K477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15.75"/>
@@ -12384,42 +12489,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="149" t="s">
+      <c r="A1" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
     </row>
     <row r="2" spans="1:14" ht="125.25">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="145"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
@@ -25835,894 +25940,1897 @@
       <c r="M419" s="51"/>
       <c r="N419" s="51"/>
     </row>
-    <row r="420" spans="1:14">
-      <c r="A420" s="23"/>
-      <c r="B420" s="51"/>
-      <c r="C420" s="51"/>
-      <c r="D420" s="51"/>
-      <c r="E420" s="51"/>
-      <c r="F420" s="51"/>
+    <row r="420" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A420" s="51">
+        <v>1177</v>
+      </c>
+      <c r="B420" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C420" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D420" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E420" s="51">
+        <v>281706</v>
+      </c>
+      <c r="F420" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G420" s="51"/>
       <c r="H420" s="51"/>
-      <c r="J420" s="51"/>
+      <c r="I420" s="25">
+        <v>0</v>
+      </c>
+      <c r="J420" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K420" s="51"/>
       <c r="L420" s="51"/>
       <c r="M420" s="51"/>
       <c r="N420" s="51"/>
     </row>
-    <row r="421" spans="1:14">
-      <c r="A421" s="23"/>
-      <c r="B421" s="51"/>
-      <c r="C421" s="51"/>
-      <c r="D421" s="51"/>
-      <c r="E421" s="51"/>
-      <c r="F421" s="51"/>
+    <row r="421" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A421" s="51">
+        <v>1178</v>
+      </c>
+      <c r="B421" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C421" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D421" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E421" s="51">
+        <v>281707</v>
+      </c>
+      <c r="F421" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G421" s="51"/>
       <c r="H421" s="51"/>
-      <c r="J421" s="51"/>
+      <c r="I421" s="25">
+        <v>0</v>
+      </c>
+      <c r="J421" s="51">
+        <v>1.6E-2</v>
+      </c>
       <c r="K421" s="51"/>
       <c r="L421" s="51"/>
       <c r="M421" s="51"/>
       <c r="N421" s="51"/>
     </row>
-    <row r="422" spans="1:14">
-      <c r="A422" s="23"/>
-      <c r="B422" s="51"/>
-      <c r="C422" s="51"/>
-      <c r="D422" s="51"/>
-      <c r="E422" s="51"/>
-      <c r="F422" s="51"/>
+    <row r="422" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A422" s="51">
+        <v>1179</v>
+      </c>
+      <c r="B422" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C422" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D422" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E422" s="51">
+        <v>282007</v>
+      </c>
+      <c r="F422" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G422" s="51"/>
       <c r="H422" s="51"/>
-      <c r="J422" s="51"/>
+      <c r="I422" s="25">
+        <v>0</v>
+      </c>
+      <c r="J422" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="K422" s="51"/>
       <c r="L422" s="51"/>
       <c r="M422" s="51"/>
       <c r="N422" s="51"/>
     </row>
-    <row r="423" spans="1:14">
-      <c r="A423" s="23"/>
-      <c r="B423" s="51"/>
-      <c r="C423" s="51"/>
-      <c r="D423" s="51"/>
-      <c r="E423" s="51"/>
-      <c r="F423" s="51"/>
+    <row r="423" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A423" s="51">
+        <v>1180</v>
+      </c>
+      <c r="B423" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C423" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D423" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E423" s="51">
+        <v>282008</v>
+      </c>
+      <c r="F423" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G423" s="51"/>
       <c r="H423" s="51"/>
-      <c r="J423" s="51"/>
+      <c r="I423" s="25">
+        <v>0</v>
+      </c>
+      <c r="J423" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K423" s="51"/>
       <c r="L423" s="51"/>
       <c r="M423" s="51"/>
       <c r="N423" s="51"/>
     </row>
-    <row r="424" spans="1:14">
-      <c r="A424" s="23"/>
-      <c r="B424" s="51"/>
-      <c r="C424" s="51"/>
-      <c r="D424" s="51"/>
-      <c r="E424" s="51"/>
-      <c r="F424" s="51"/>
+    <row r="424" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A424" s="51">
+        <v>1181</v>
+      </c>
+      <c r="B424" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C424" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D424" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E424" s="51">
+        <v>290903</v>
+      </c>
+      <c r="F424" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G424" s="51"/>
       <c r="H424" s="51"/>
-      <c r="J424" s="51"/>
+      <c r="I424" s="25">
+        <v>0</v>
+      </c>
+      <c r="J424" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K424" s="51"/>
       <c r="L424" s="51"/>
       <c r="M424" s="51"/>
       <c r="N424" s="51"/>
     </row>
-    <row r="425" spans="1:14">
-      <c r="A425" s="23"/>
-      <c r="B425" s="51"/>
-      <c r="C425" s="51"/>
-      <c r="D425" s="51"/>
-      <c r="E425" s="51"/>
-      <c r="F425" s="51"/>
+    <row r="425" spans="1:14" ht="15" customHeight="1">
+      <c r="A425" s="51">
+        <v>1182</v>
+      </c>
+      <c r="B425" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C425" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D425" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E425" s="51">
+        <v>290904</v>
+      </c>
+      <c r="F425" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G425" s="51"/>
       <c r="H425" s="51"/>
-      <c r="J425" s="51"/>
+      <c r="I425" s="25">
+        <v>0</v>
+      </c>
+      <c r="J425" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K425" s="51"/>
       <c r="L425" s="51"/>
       <c r="M425" s="51"/>
       <c r="N425" s="51"/>
     </row>
-    <row r="426" spans="1:14">
-      <c r="A426" s="23"/>
-      <c r="B426" s="51"/>
-      <c r="C426" s="51"/>
-      <c r="D426" s="51"/>
-      <c r="E426" s="51"/>
-      <c r="F426" s="51"/>
+    <row r="426" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A426" s="51">
+        <v>1183</v>
+      </c>
+      <c r="B426" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C426" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D426" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E426" s="51">
+        <v>291504</v>
+      </c>
+      <c r="F426" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G426" s="51"/>
       <c r="H426" s="51"/>
-      <c r="J426" s="51"/>
+      <c r="I426" s="25">
+        <v>0</v>
+      </c>
+      <c r="J426" s="51">
+        <v>1.6E-2</v>
+      </c>
       <c r="K426" s="51"/>
       <c r="L426" s="51"/>
       <c r="M426" s="51"/>
       <c r="N426" s="51"/>
     </row>
-    <row r="427" spans="1:14">
-      <c r="A427" s="23"/>
-      <c r="B427" s="51"/>
-      <c r="C427" s="51"/>
-      <c r="D427" s="51"/>
-      <c r="E427" s="51"/>
-      <c r="F427" s="51"/>
+    <row r="427" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A427" s="51">
+        <v>1184</v>
+      </c>
+      <c r="B427" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C427" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D427" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E427" s="51">
+        <v>291505</v>
+      </c>
+      <c r="F427" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G427" s="51"/>
       <c r="H427" s="51"/>
-      <c r="J427" s="51"/>
+      <c r="I427" s="25">
+        <v>0</v>
+      </c>
+      <c r="J427" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K427" s="51"/>
       <c r="L427" s="51"/>
       <c r="M427" s="51"/>
       <c r="N427" s="51"/>
     </row>
-    <row r="428" spans="1:14">
-      <c r="A428" s="23"/>
-      <c r="B428" s="51"/>
-      <c r="C428" s="51"/>
-      <c r="D428" s="51"/>
-      <c r="E428" s="51"/>
-      <c r="F428" s="51"/>
+    <row r="428" spans="1:14" ht="12" customHeight="1">
+      <c r="A428" s="51">
+        <v>1185</v>
+      </c>
+      <c r="B428" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C428" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D428" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E428" s="51">
+        <v>291805</v>
+      </c>
+      <c r="F428" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G428" s="51"/>
       <c r="H428" s="51"/>
-      <c r="J428" s="51"/>
+      <c r="I428" s="25">
+        <v>0</v>
+      </c>
+      <c r="J428" s="51">
+        <v>0.03</v>
+      </c>
       <c r="K428" s="51"/>
       <c r="L428" s="51"/>
       <c r="M428" s="51"/>
       <c r="N428" s="51"/>
     </row>
-    <row r="429" spans="1:14">
-      <c r="A429" s="23"/>
-      <c r="B429" s="51"/>
-      <c r="C429" s="51"/>
-      <c r="D429" s="51"/>
-      <c r="E429" s="51"/>
-      <c r="F429" s="51"/>
+    <row r="429" spans="1:14" ht="15" customHeight="1">
+      <c r="A429" s="51">
+        <v>1186</v>
+      </c>
+      <c r="B429" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C429" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D429" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E429" s="51">
+        <v>291806</v>
+      </c>
+      <c r="F429" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G429" s="51"/>
       <c r="H429" s="51"/>
-      <c r="J429" s="51"/>
+      <c r="I429" s="25">
+        <v>0</v>
+      </c>
+      <c r="J429" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K429" s="51"/>
       <c r="L429" s="51"/>
       <c r="M429" s="51"/>
       <c r="N429" s="51"/>
     </row>
-    <row r="430" spans="1:14">
-      <c r="A430" s="23"/>
-      <c r="B430" s="51"/>
-      <c r="C430" s="51"/>
-      <c r="D430" s="51"/>
-      <c r="E430" s="51"/>
-      <c r="F430" s="51"/>
+    <row r="430" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A430" s="51">
+        <v>1187</v>
+      </c>
+      <c r="B430" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C430" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D430" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E430" s="51">
+        <v>300506</v>
+      </c>
+      <c r="F430" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G430" s="51"/>
       <c r="H430" s="51"/>
-      <c r="J430" s="51"/>
+      <c r="I430" s="25">
+        <v>0</v>
+      </c>
+      <c r="J430" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K430" s="51"/>
       <c r="L430" s="51"/>
       <c r="M430" s="51"/>
       <c r="N430" s="51"/>
     </row>
-    <row r="431" spans="1:14">
-      <c r="A431" s="23"/>
-      <c r="B431" s="51"/>
-      <c r="C431" s="51"/>
-      <c r="D431" s="51"/>
-      <c r="E431" s="51"/>
-      <c r="F431" s="51"/>
+    <row r="431" spans="1:14" ht="12" customHeight="1">
+      <c r="A431" s="51">
+        <v>1188</v>
+      </c>
+      <c r="B431" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C431" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D431" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E431" s="51">
+        <v>300507</v>
+      </c>
+      <c r="F431" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G431" s="51"/>
       <c r="H431" s="51"/>
-      <c r="J431" s="51"/>
+      <c r="I431" s="25">
+        <v>0</v>
+      </c>
+      <c r="J431" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="K431" s="51"/>
       <c r="L431" s="51"/>
       <c r="M431" s="51"/>
       <c r="N431" s="51"/>
     </row>
-    <row r="432" spans="1:14">
-      <c r="A432" s="23"/>
-      <c r="B432" s="51"/>
-      <c r="C432" s="51"/>
-      <c r="D432" s="51"/>
-      <c r="E432" s="51"/>
-      <c r="F432" s="51"/>
+    <row r="432" spans="1:14" ht="10.5" customHeight="1">
+      <c r="A432" s="51">
+        <v>1189</v>
+      </c>
+      <c r="B432" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C432" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D432" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E432" s="51">
+        <v>301004</v>
+      </c>
+      <c r="F432" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G432" s="51"/>
       <c r="H432" s="51"/>
-      <c r="J432" s="51"/>
+      <c r="I432" s="25">
+        <v>0</v>
+      </c>
+      <c r="J432" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K432" s="51"/>
       <c r="L432" s="51"/>
       <c r="M432" s="51"/>
       <c r="N432" s="51"/>
     </row>
-    <row r="433" spans="1:14">
-      <c r="A433" s="23"/>
-      <c r="B433" s="51"/>
-      <c r="C433" s="51"/>
-      <c r="D433" s="51"/>
-      <c r="E433" s="51"/>
-      <c r="F433" s="51"/>
+    <row r="433" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A433" s="51">
+        <v>1190</v>
+      </c>
+      <c r="B433" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C433" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D433" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E433" s="51">
+        <v>301005</v>
+      </c>
+      <c r="F433" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G433" s="51"/>
       <c r="H433" s="51"/>
-      <c r="J433" s="51"/>
+      <c r="I433" s="25">
+        <v>0</v>
+      </c>
+      <c r="J433" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K433" s="51"/>
       <c r="L433" s="51"/>
       <c r="M433" s="51"/>
       <c r="N433" s="51"/>
     </row>
-    <row r="434" spans="1:14">
-      <c r="A434" s="23"/>
-      <c r="B434" s="51"/>
-      <c r="C434" s="51"/>
-      <c r="D434" s="51"/>
-      <c r="E434" s="51"/>
-      <c r="F434" s="51"/>
+    <row r="434" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A434" s="51">
+        <v>1191</v>
+      </c>
+      <c r="B434" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C434" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D434" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E434" s="51">
+        <v>310102</v>
+      </c>
+      <c r="F434" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G434" s="51"/>
       <c r="H434" s="51"/>
-      <c r="J434" s="51"/>
+      <c r="I434" s="25">
+        <v>0</v>
+      </c>
+      <c r="J434" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K434" s="51"/>
       <c r="L434" s="51"/>
       <c r="M434" s="51"/>
       <c r="N434" s="51"/>
     </row>
-    <row r="435" spans="1:14">
-      <c r="A435" s="23"/>
-      <c r="B435" s="51"/>
-      <c r="C435" s="51"/>
-      <c r="D435" s="51"/>
-      <c r="E435" s="51"/>
-      <c r="F435" s="51"/>
+    <row r="435" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A435" s="51">
+        <v>1192</v>
+      </c>
+      <c r="B435" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C435" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D435" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E435" s="51">
+        <v>310205</v>
+      </c>
+      <c r="F435" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G435" s="51"/>
       <c r="H435" s="51"/>
-      <c r="J435" s="51"/>
+      <c r="I435" s="25">
+        <v>0</v>
+      </c>
+      <c r="J435" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K435" s="51"/>
       <c r="L435" s="51"/>
       <c r="M435" s="51"/>
       <c r="N435" s="51"/>
     </row>
-    <row r="436" spans="1:14">
-      <c r="A436" s="23"/>
-      <c r="B436" s="51"/>
-      <c r="C436" s="51"/>
-      <c r="D436" s="51"/>
-      <c r="E436" s="51"/>
-      <c r="F436" s="51"/>
+    <row r="436" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A436" s="51">
+        <v>1193</v>
+      </c>
+      <c r="B436" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C436" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D436" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E436" s="51">
+        <v>310505</v>
+      </c>
+      <c r="F436" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G436" s="51"/>
       <c r="H436" s="51"/>
-      <c r="J436" s="51"/>
+      <c r="I436" s="25">
+        <v>0</v>
+      </c>
+      <c r="J436" s="51">
+        <v>0.01</v>
+      </c>
       <c r="K436" s="51"/>
       <c r="L436" s="51"/>
       <c r="M436" s="51"/>
       <c r="N436" s="51"/>
     </row>
-    <row r="437" spans="1:14">
-      <c r="A437" s="23"/>
-      <c r="B437" s="51"/>
-      <c r="C437" s="51"/>
-      <c r="D437" s="51"/>
-      <c r="E437" s="51"/>
-      <c r="F437" s="51"/>
+    <row r="437" spans="1:14" ht="12" customHeight="1">
+      <c r="A437" s="51">
+        <v>1194</v>
+      </c>
+      <c r="B437" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C437" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D437" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E437" s="51">
+        <v>310602</v>
+      </c>
+      <c r="F437" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G437" s="51"/>
       <c r="H437" s="51"/>
-      <c r="J437" s="51"/>
+      <c r="I437" s="25">
+        <v>0</v>
+      </c>
+      <c r="J437" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K437" s="51"/>
       <c r="L437" s="51"/>
       <c r="M437" s="51"/>
       <c r="N437" s="51"/>
     </row>
-    <row r="438" spans="1:14">
-      <c r="A438" s="23"/>
-      <c r="B438" s="51"/>
-      <c r="C438" s="51"/>
-      <c r="D438" s="51"/>
-      <c r="E438" s="51"/>
-      <c r="F438" s="51"/>
+    <row r="438" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A438" s="51">
+        <v>1195</v>
+      </c>
+      <c r="B438" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C438" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D438" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E438" s="51">
+        <v>310603</v>
+      </c>
+      <c r="F438" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G438" s="51"/>
       <c r="H438" s="51"/>
-      <c r="J438" s="51"/>
+      <c r="I438" s="25">
+        <v>0</v>
+      </c>
+      <c r="J438" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K438" s="51"/>
       <c r="L438" s="51"/>
       <c r="M438" s="51"/>
       <c r="N438" s="51"/>
     </row>
-    <row r="439" spans="1:14">
-      <c r="A439" s="23"/>
-      <c r="B439" s="51"/>
-      <c r="C439" s="51"/>
-      <c r="D439" s="51"/>
-      <c r="E439" s="51"/>
-      <c r="F439" s="51"/>
+    <row r="439" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A439" s="51">
+        <v>1196</v>
+      </c>
+      <c r="B439" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C439" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D439" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E439" s="51">
+        <v>40710</v>
+      </c>
+      <c r="F439" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G439" s="51"/>
       <c r="H439" s="51"/>
-      <c r="J439" s="51"/>
+      <c r="I439" s="25">
+        <v>0</v>
+      </c>
+      <c r="J439" s="51">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="K439" s="51"/>
       <c r="L439" s="51"/>
       <c r="M439" s="51"/>
       <c r="N439" s="51"/>
     </row>
-    <row r="440" spans="1:14">
-      <c r="A440" s="23"/>
-      <c r="B440" s="51"/>
-      <c r="C440" s="51"/>
-      <c r="D440" s="51"/>
-      <c r="E440" s="51"/>
-      <c r="F440" s="51"/>
+    <row r="440" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A440" s="51">
+        <v>1197</v>
+      </c>
+      <c r="B440" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C440" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D440" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E440" s="51">
+        <v>40711</v>
+      </c>
+      <c r="F440" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G440" s="51"/>
       <c r="H440" s="51"/>
-      <c r="J440" s="51"/>
+      <c r="I440" s="25">
+        <v>0</v>
+      </c>
+      <c r="J440" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K440" s="51"/>
       <c r="L440" s="51"/>
       <c r="M440" s="51"/>
       <c r="N440" s="51"/>
     </row>
-    <row r="441" spans="1:14">
-      <c r="A441" s="23"/>
-      <c r="B441" s="51"/>
-      <c r="C441" s="51"/>
-      <c r="D441" s="51"/>
-      <c r="E441" s="51"/>
-      <c r="F441" s="51"/>
+    <row r="441" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A441" s="51">
+        <v>1198</v>
+      </c>
+      <c r="B441" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C441" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D441" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E441" s="51">
+        <v>250306</v>
+      </c>
+      <c r="F441" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G441" s="51"/>
       <c r="H441" s="51"/>
-      <c r="J441" s="51"/>
+      <c r="I441" s="25">
+        <v>0</v>
+      </c>
+      <c r="J441" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K441" s="51"/>
       <c r="L441" s="51"/>
       <c r="M441" s="51"/>
       <c r="N441" s="51"/>
     </row>
-    <row r="442" spans="1:14">
-      <c r="A442" s="23"/>
-      <c r="B442" s="51"/>
-      <c r="C442" s="51"/>
-      <c r="D442" s="51"/>
-      <c r="E442" s="51"/>
-      <c r="F442" s="51"/>
+    <row r="442" spans="1:14" ht="15" customHeight="1">
+      <c r="A442" s="51">
+        <v>1199</v>
+      </c>
+      <c r="B442" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C442" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D442" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E442" s="51">
+        <v>250307</v>
+      </c>
+      <c r="F442" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G442" s="51"/>
       <c r="H442" s="51"/>
-      <c r="J442" s="51"/>
+      <c r="I442" s="25">
+        <v>0</v>
+      </c>
+      <c r="J442" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K442" s="51"/>
       <c r="L442" s="51"/>
       <c r="M442" s="51"/>
       <c r="N442" s="51"/>
     </row>
-    <row r="443" spans="1:14">
-      <c r="A443" s="23"/>
-      <c r="B443" s="51"/>
-      <c r="C443" s="51"/>
-      <c r="D443" s="51"/>
-      <c r="E443" s="51"/>
-      <c r="F443" s="51"/>
+    <row r="443" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A443" s="51">
+        <v>1200</v>
+      </c>
+      <c r="B443" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C443" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D443" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E443" s="51">
+        <v>270305</v>
+      </c>
+      <c r="F443" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G443" s="51"/>
       <c r="H443" s="51"/>
-      <c r="J443" s="51"/>
+      <c r="I443" s="25">
+        <v>0</v>
+      </c>
+      <c r="J443" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K443" s="51"/>
       <c r="L443" s="51"/>
       <c r="M443" s="51"/>
       <c r="N443" s="51"/>
     </row>
-    <row r="444" spans="1:14">
-      <c r="A444" s="23"/>
-      <c r="B444" s="51"/>
-      <c r="C444" s="51"/>
-      <c r="D444" s="51"/>
-      <c r="E444" s="51"/>
-      <c r="F444" s="51"/>
+    <row r="444" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A444" s="51">
+        <v>1201</v>
+      </c>
+      <c r="B444" s="23">
+        <v>44067</v>
+      </c>
+      <c r="C444" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D444" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E444" s="51">
+        <v>270307</v>
+      </c>
+      <c r="F444" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G444" s="51"/>
       <c r="H444" s="51"/>
-      <c r="J444" s="51"/>
+      <c r="I444" s="25">
+        <v>0</v>
+      </c>
+      <c r="J444" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K444" s="51"/>
       <c r="L444" s="51"/>
       <c r="M444" s="51"/>
       <c r="N444" s="51"/>
     </row>
-    <row r="445" spans="1:14">
-      <c r="A445" s="23"/>
-      <c r="B445" s="51"/>
-      <c r="C445" s="51"/>
-      <c r="D445" s="51"/>
-      <c r="E445" s="51"/>
-      <c r="F445" s="51"/>
+    <row r="445" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A445" s="51">
+        <v>1208</v>
+      </c>
+      <c r="B445" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C445" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D445" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E445" s="51">
+        <v>1</v>
+      </c>
+      <c r="F445" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G445" s="51"/>
       <c r="H445" s="51"/>
-      <c r="J445" s="51"/>
+      <c r="I445" s="25">
+        <v>0</v>
+      </c>
+      <c r="J445" s="51">
+        <v>1.6E-2</v>
+      </c>
       <c r="K445" s="51"/>
       <c r="L445" s="51"/>
       <c r="M445" s="51"/>
       <c r="N445" s="51"/>
     </row>
-    <row r="446" spans="1:14">
-      <c r="A446" s="23"/>
-      <c r="B446" s="51"/>
-      <c r="C446" s="51"/>
-      <c r="D446" s="51"/>
-      <c r="E446" s="51"/>
-      <c r="F446" s="51"/>
+    <row r="446" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A446" s="51">
+        <v>1209</v>
+      </c>
+      <c r="B446" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C446" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D446" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E446" s="51">
+        <v>2</v>
+      </c>
+      <c r="F446" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G446" s="51"/>
       <c r="H446" s="51"/>
-      <c r="J446" s="51"/>
+      <c r="I446" s="25">
+        <v>0</v>
+      </c>
+      <c r="J446" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K446" s="51"/>
       <c r="L446" s="51"/>
       <c r="M446" s="51"/>
       <c r="N446" s="51"/>
     </row>
-    <row r="447" spans="1:14">
-      <c r="A447" s="23"/>
-      <c r="B447" s="51"/>
-      <c r="C447" s="51"/>
-      <c r="D447" s="51"/>
-      <c r="E447" s="51"/>
-      <c r="F447" s="51"/>
+    <row r="447" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A447" s="51">
+        <v>1210</v>
+      </c>
+      <c r="B447" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C447" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D447" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E447" s="51">
+        <v>3</v>
+      </c>
+      <c r="F447" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G447" s="51"/>
       <c r="H447" s="51"/>
-      <c r="J447" s="51"/>
+      <c r="I447" s="25">
+        <v>0</v>
+      </c>
+      <c r="J447" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K447" s="51"/>
       <c r="L447" s="51"/>
       <c r="M447" s="51"/>
       <c r="N447" s="51"/>
     </row>
-    <row r="448" spans="1:14">
-      <c r="A448" s="23"/>
-      <c r="B448" s="51"/>
-      <c r="C448" s="51"/>
-      <c r="D448" s="51"/>
-      <c r="E448" s="51"/>
-      <c r="F448" s="51"/>
+    <row r="448" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A448" s="51">
+        <v>1211</v>
+      </c>
+      <c r="B448" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C448" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D448" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E448" s="51">
+        <v>4</v>
+      </c>
+      <c r="F448" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G448" s="51"/>
       <c r="H448" s="51"/>
-      <c r="J448" s="51"/>
+      <c r="I448" s="25">
+        <v>0</v>
+      </c>
+      <c r="J448" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K448" s="51"/>
       <c r="L448" s="51"/>
       <c r="M448" s="51"/>
       <c r="N448" s="51"/>
     </row>
-    <row r="449" spans="1:14">
-      <c r="A449" s="23"/>
-      <c r="B449" s="51"/>
-      <c r="C449" s="51"/>
-      <c r="D449" s="51"/>
-      <c r="E449" s="51"/>
-      <c r="F449" s="51"/>
+    <row r="449" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A449" s="51">
+        <v>1212</v>
+      </c>
+      <c r="B449" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C449" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D449" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E449" s="51">
+        <v>5</v>
+      </c>
+      <c r="F449" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G449" s="51"/>
       <c r="H449" s="51"/>
-      <c r="J449" s="51"/>
+      <c r="I449" s="25">
+        <v>0</v>
+      </c>
+      <c r="J449" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K449" s="51"/>
       <c r="L449" s="51"/>
       <c r="M449" s="51"/>
       <c r="N449" s="51"/>
     </row>
-    <row r="450" spans="1:14">
-      <c r="A450" s="23"/>
-      <c r="B450" s="51"/>
-      <c r="C450" s="51"/>
-      <c r="D450" s="51"/>
-      <c r="E450" s="51"/>
-      <c r="F450" s="51"/>
+    <row r="450" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A450" s="51">
+        <v>1213</v>
+      </c>
+      <c r="B450" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C450" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D450" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E450" s="51">
+        <v>6</v>
+      </c>
+      <c r="F450" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G450" s="51"/>
       <c r="H450" s="51"/>
-      <c r="J450" s="51"/>
+      <c r="I450" s="25">
+        <v>0</v>
+      </c>
+      <c r="J450" s="51">
+        <v>1.6E-2</v>
+      </c>
       <c r="K450" s="51"/>
       <c r="L450" s="51"/>
       <c r="M450" s="51"/>
       <c r="N450" s="51"/>
     </row>
-    <row r="451" spans="1:14">
-      <c r="A451" s="23"/>
-      <c r="B451" s="51"/>
-      <c r="C451" s="51"/>
-      <c r="D451" s="51"/>
-      <c r="E451" s="51"/>
-      <c r="F451" s="51"/>
+    <row r="451" spans="1:14" ht="12" customHeight="1">
+      <c r="A451" s="51">
+        <v>1214</v>
+      </c>
+      <c r="B451" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C451" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D451" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E451" s="51">
+        <v>7</v>
+      </c>
+      <c r="F451" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G451" s="51"/>
       <c r="H451" s="51"/>
-      <c r="J451" s="51"/>
+      <c r="I451" s="25">
+        <v>0</v>
+      </c>
+      <c r="J451" s="51">
+        <v>1.6E-2</v>
+      </c>
       <c r="K451" s="51"/>
       <c r="L451" s="51"/>
       <c r="M451" s="51"/>
       <c r="N451" s="51"/>
     </row>
-    <row r="452" spans="1:14">
-      <c r="A452" s="23"/>
-      <c r="B452" s="51"/>
-      <c r="C452" s="51"/>
-      <c r="D452" s="51"/>
-      <c r="E452" s="51"/>
-      <c r="F452" s="51"/>
+    <row r="452" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A452" s="51">
+        <v>1215</v>
+      </c>
+      <c r="B452" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C452" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D452" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E452" s="51">
+        <v>8</v>
+      </c>
+      <c r="F452" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G452" s="51"/>
       <c r="H452" s="51"/>
-      <c r="J452" s="51"/>
+      <c r="I452" s="25">
+        <v>0</v>
+      </c>
+      <c r="J452" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K452" s="51"/>
       <c r="L452" s="51"/>
       <c r="M452" s="51"/>
       <c r="N452" s="51"/>
     </row>
-    <row r="453" spans="1:14">
-      <c r="A453" s="23"/>
-      <c r="B453" s="51"/>
-      <c r="C453" s="51"/>
-      <c r="D453" s="51"/>
-      <c r="E453" s="51"/>
-      <c r="F453" s="51"/>
+    <row r="453" spans="1:14" ht="12" customHeight="1">
+      <c r="A453" s="51">
+        <v>1216</v>
+      </c>
+      <c r="B453" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C453" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D453" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E453" s="51">
+        <v>10</v>
+      </c>
+      <c r="F453" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G453" s="51"/>
       <c r="H453" s="51"/>
-      <c r="J453" s="51"/>
+      <c r="I453" s="25">
+        <v>0</v>
+      </c>
+      <c r="J453" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K453" s="51"/>
       <c r="L453" s="51"/>
       <c r="M453" s="51"/>
       <c r="N453" s="51"/>
     </row>
-    <row r="454" spans="1:14">
-      <c r="A454" s="23"/>
-      <c r="B454" s="51"/>
-      <c r="C454" s="51"/>
-      <c r="D454" s="51"/>
-      <c r="E454" s="51"/>
-      <c r="F454" s="51"/>
+    <row r="454" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A454" s="51">
+        <v>1217</v>
+      </c>
+      <c r="B454" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C454" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D454" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E454" s="51">
+        <v>11</v>
+      </c>
+      <c r="F454" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G454" s="51"/>
       <c r="H454" s="51"/>
-      <c r="J454" s="51"/>
+      <c r="I454" s="25">
+        <v>0</v>
+      </c>
+      <c r="J454" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K454" s="51"/>
       <c r="L454" s="51"/>
       <c r="M454" s="51"/>
       <c r="N454" s="51"/>
     </row>
-    <row r="455" spans="1:14">
-      <c r="A455" s="23"/>
-      <c r="B455" s="51"/>
-      <c r="C455" s="51"/>
-      <c r="D455" s="51"/>
-      <c r="E455" s="51"/>
-      <c r="F455" s="51"/>
+    <row r="455" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A455" s="51">
+        <v>1218</v>
+      </c>
+      <c r="B455" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C455" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D455" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E455" s="51">
+        <v>12</v>
+      </c>
+      <c r="F455" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G455" s="51"/>
       <c r="H455" s="51"/>
-      <c r="J455" s="51"/>
+      <c r="I455" s="25">
+        <v>0</v>
+      </c>
+      <c r="J455" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K455" s="51"/>
       <c r="L455" s="51"/>
       <c r="M455" s="51"/>
       <c r="N455" s="51"/>
     </row>
-    <row r="456" spans="1:14">
-      <c r="A456" s="23"/>
-      <c r="B456" s="51"/>
-      <c r="C456" s="51"/>
-      <c r="D456" s="51"/>
-      <c r="E456" s="51"/>
-      <c r="F456" s="51"/>
+    <row r="456" spans="1:14" ht="12" customHeight="1">
+      <c r="A456" s="51">
+        <v>1219</v>
+      </c>
+      <c r="B456" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C456" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D456" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E456" s="51">
+        <v>1</v>
+      </c>
+      <c r="F456" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G456" s="51"/>
       <c r="H456" s="51"/>
-      <c r="J456" s="51"/>
+      <c r="I456" s="25">
+        <v>0</v>
+      </c>
+      <c r="J456" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K456" s="51"/>
       <c r="L456" s="51"/>
       <c r="M456" s="51"/>
       <c r="N456" s="51"/>
     </row>
-    <row r="457" spans="1:14">
-      <c r="A457" s="23"/>
-      <c r="B457" s="51"/>
-      <c r="C457" s="51"/>
-      <c r="D457" s="51"/>
-      <c r="E457" s="51"/>
-      <c r="F457" s="51"/>
+    <row r="457" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A457" s="51">
+        <v>1220</v>
+      </c>
+      <c r="B457" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C457" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D457" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E457" s="51">
+        <v>2</v>
+      </c>
+      <c r="F457" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G457" s="51"/>
       <c r="H457" s="51"/>
-      <c r="J457" s="51"/>
+      <c r="I457" s="25">
+        <v>0</v>
+      </c>
+      <c r="J457" s="51">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K457" s="51"/>
       <c r="L457" s="51"/>
       <c r="M457" s="51"/>
       <c r="N457" s="51"/>
     </row>
-    <row r="458" spans="1:14">
-      <c r="A458" s="23"/>
-      <c r="B458" s="51"/>
-      <c r="C458" s="51"/>
-      <c r="D458" s="51"/>
-      <c r="E458" s="51"/>
-      <c r="F458" s="51"/>
+    <row r="458" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A458" s="51">
+        <v>1221</v>
+      </c>
+      <c r="B458" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C458" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D458" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E458" s="56">
+        <v>10</v>
+      </c>
+      <c r="F458" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G458" s="51"/>
       <c r="H458" s="51"/>
-      <c r="J458" s="51"/>
+      <c r="I458" s="25">
+        <v>0</v>
+      </c>
+      <c r="J458" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="K458" s="51"/>
       <c r="L458" s="51"/>
       <c r="M458" s="51"/>
       <c r="N458" s="51"/>
     </row>
-    <row r="459" spans="1:14">
-      <c r="A459" s="23"/>
-      <c r="B459" s="51"/>
-      <c r="C459" s="51"/>
-      <c r="D459" s="51"/>
-      <c r="E459" s="51"/>
-      <c r="F459" s="51"/>
+    <row r="459" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A459" s="51">
+        <v>1222</v>
+      </c>
+      <c r="B459" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C459" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D459" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E459" s="51">
+        <v>1</v>
+      </c>
+      <c r="F459" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G459" s="51"/>
       <c r="H459" s="51"/>
-      <c r="J459" s="51"/>
+      <c r="I459" s="25">
+        <v>0</v>
+      </c>
+      <c r="J459" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="K459" s="51"/>
       <c r="L459" s="51"/>
       <c r="M459" s="51"/>
       <c r="N459" s="51"/>
     </row>
-    <row r="460" spans="1:14">
-      <c r="A460" s="23"/>
-      <c r="B460" s="51"/>
-      <c r="C460" s="51"/>
-      <c r="D460" s="51"/>
-      <c r="E460" s="51"/>
-      <c r="F460" s="51"/>
+    <row r="460" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A460" s="51">
+        <v>1223</v>
+      </c>
+      <c r="B460" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C460" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D460" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E460" s="51">
+        <v>2</v>
+      </c>
+      <c r="F460" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G460" s="51"/>
       <c r="H460" s="51"/>
-      <c r="J460" s="51"/>
+      <c r="I460" s="25">
+        <v>0</v>
+      </c>
+      <c r="J460" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K460" s="51"/>
       <c r="L460" s="51"/>
       <c r="M460" s="51"/>
       <c r="N460" s="51"/>
     </row>
-    <row r="461" spans="1:14">
-      <c r="A461" s="23"/>
-      <c r="B461" s="51"/>
-      <c r="C461" s="51"/>
-      <c r="D461" s="51"/>
-      <c r="E461" s="51"/>
-      <c r="F461" s="51"/>
+    <row r="461" spans="1:14" ht="12" customHeight="1">
+      <c r="A461" s="51">
+        <v>1224</v>
+      </c>
+      <c r="B461" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C461" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D461" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E461" s="51">
+        <v>1</v>
+      </c>
+      <c r="F461" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G461" s="51"/>
       <c r="H461" s="51"/>
-      <c r="J461" s="51"/>
+      <c r="I461" s="25">
+        <v>0</v>
+      </c>
+      <c r="J461" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K461" s="51"/>
       <c r="L461" s="51"/>
       <c r="M461" s="51"/>
       <c r="N461" s="51"/>
     </row>
-    <row r="462" spans="1:14">
-      <c r="A462" s="23"/>
-      <c r="B462" s="51"/>
-      <c r="C462" s="51"/>
-      <c r="D462" s="51"/>
-      <c r="E462" s="51"/>
-      <c r="F462" s="51"/>
+    <row r="462" spans="1:14" ht="15" customHeight="1">
+      <c r="A462" s="51">
+        <v>1225</v>
+      </c>
+      <c r="B462" s="23">
+        <v>44071</v>
+      </c>
+      <c r="C462" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D462" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E462" s="51">
+        <v>2</v>
+      </c>
+      <c r="F462" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G462" s="51"/>
       <c r="H462" s="51"/>
-      <c r="J462" s="51"/>
+      <c r="I462" s="25">
+        <v>0</v>
+      </c>
+      <c r="J462" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K462" s="51"/>
       <c r="L462" s="51"/>
       <c r="M462" s="51"/>
       <c r="N462" s="51"/>
     </row>
-    <row r="463" spans="1:14">
-      <c r="A463" s="23"/>
-      <c r="B463" s="51"/>
-      <c r="C463" s="51"/>
-      <c r="D463" s="51"/>
-      <c r="E463" s="51"/>
-      <c r="F463" s="51"/>
+    <row r="463" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A463" s="51">
+        <v>1226</v>
+      </c>
+      <c r="B463" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C463" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D463" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E463" s="51">
+        <v>1</v>
+      </c>
+      <c r="F463" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G463" s="51"/>
       <c r="H463" s="51"/>
-      <c r="J463" s="51"/>
+      <c r="I463" s="25">
+        <v>0</v>
+      </c>
+      <c r="J463" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K463" s="51"/>
       <c r="L463" s="51"/>
       <c r="M463" s="51"/>
       <c r="N463" s="51"/>
     </row>
-    <row r="464" spans="1:14">
-      <c r="A464" s="23"/>
-      <c r="B464" s="51"/>
-      <c r="C464" s="51"/>
-      <c r="D464" s="51"/>
-      <c r="E464" s="51"/>
-      <c r="F464" s="51"/>
+    <row r="464" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A464" s="51">
+        <v>1227</v>
+      </c>
+      <c r="B464" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C464" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D464" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E464" s="51">
+        <v>1</v>
+      </c>
+      <c r="F464" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G464" s="51"/>
       <c r="H464" s="51"/>
-      <c r="J464" s="51"/>
+      <c r="I464" s="25">
+        <v>0</v>
+      </c>
+      <c r="J464" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K464" s="51"/>
       <c r="L464" s="51"/>
       <c r="M464" s="51"/>
       <c r="N464" s="51"/>
     </row>
-    <row r="465" spans="1:14">
-      <c r="A465" s="23"/>
-      <c r="B465" s="51"/>
-      <c r="C465" s="51"/>
-      <c r="D465" s="51"/>
-      <c r="E465" s="51"/>
-      <c r="F465" s="51"/>
+    <row r="465" spans="1:14" ht="12" customHeight="1">
+      <c r="A465" s="51">
+        <v>1228</v>
+      </c>
+      <c r="B465" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C465" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D465" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E465" s="51">
+        <v>2</v>
+      </c>
+      <c r="F465" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G465" s="51"/>
       <c r="H465" s="51"/>
-      <c r="J465" s="51"/>
+      <c r="I465" s="25">
+        <v>0</v>
+      </c>
+      <c r="J465" s="51">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="K465" s="51"/>
       <c r="L465" s="51"/>
       <c r="M465" s="51"/>
       <c r="N465" s="51"/>
     </row>
-    <row r="466" spans="1:14">
-      <c r="A466" s="23"/>
-      <c r="B466" s="51"/>
-      <c r="C466" s="51"/>
-      <c r="D466" s="51"/>
-      <c r="E466" s="51"/>
-      <c r="F466" s="51"/>
+    <row r="466" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A466" s="51">
+        <v>1229</v>
+      </c>
+      <c r="B466" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C466" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D466" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E466" s="51">
+        <v>3</v>
+      </c>
+      <c r="F466" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G466" s="51"/>
       <c r="H466" s="51"/>
-      <c r="J466" s="51"/>
+      <c r="I466" s="25">
+        <v>0</v>
+      </c>
+      <c r="J466" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K466" s="51"/>
       <c r="L466" s="51"/>
       <c r="M466" s="51"/>
       <c r="N466" s="51"/>
     </row>
-    <row r="467" spans="1:14">
-      <c r="A467" s="23"/>
-      <c r="B467" s="51"/>
-      <c r="C467" s="51"/>
-      <c r="D467" s="51"/>
-      <c r="E467" s="51"/>
-      <c r="F467" s="51"/>
+    <row r="467" spans="1:14" ht="15" customHeight="1">
+      <c r="A467" s="51">
+        <v>1230</v>
+      </c>
+      <c r="B467" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C467" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D467" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E467" s="51">
+        <v>4</v>
+      </c>
+      <c r="F467" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G467" s="51"/>
       <c r="H467" s="51"/>
-      <c r="J467" s="51"/>
+      <c r="I467" s="25">
+        <v>0</v>
+      </c>
+      <c r="J467" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K467" s="51"/>
       <c r="L467" s="51"/>
       <c r="M467" s="51"/>
       <c r="N467" s="51"/>
     </row>
-    <row r="468" spans="1:14">
-      <c r="A468" s="23"/>
-      <c r="B468" s="51"/>
-      <c r="C468" s="51"/>
-      <c r="D468" s="51"/>
-      <c r="E468" s="51"/>
-      <c r="F468" s="51"/>
+    <row r="468" spans="1:14" ht="15" customHeight="1">
+      <c r="A468" s="51">
+        <v>1231</v>
+      </c>
+      <c r="B468" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C468" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D468" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E468" s="51">
+        <v>5</v>
+      </c>
+      <c r="F468" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G468" s="51"/>
       <c r="H468" s="51"/>
-      <c r="J468" s="51"/>
+      <c r="I468" s="25">
+        <v>0</v>
+      </c>
+      <c r="J468" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K468" s="51"/>
       <c r="L468" s="51"/>
       <c r="M468" s="51"/>
       <c r="N468" s="51"/>
     </row>
-    <row r="469" spans="1:14">
-      <c r="A469" s="23"/>
-      <c r="B469" s="51"/>
-      <c r="C469" s="51"/>
-      <c r="D469" s="51"/>
-      <c r="E469" s="51"/>
-      <c r="F469" s="51"/>
+    <row r="469" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A469" s="51">
+        <v>1232</v>
+      </c>
+      <c r="B469" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C469" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D469" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E469" s="51">
+        <v>6</v>
+      </c>
+      <c r="F469" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G469" s="51"/>
       <c r="H469" s="51"/>
-      <c r="J469" s="51"/>
+      <c r="I469" s="25">
+        <v>0</v>
+      </c>
+      <c r="J469" s="51">
+        <v>1.4E-2</v>
+      </c>
       <c r="K469" s="51"/>
       <c r="L469" s="51"/>
       <c r="M469" s="51"/>
       <c r="N469" s="51"/>
     </row>
-    <row r="470" spans="1:14">
-      <c r="A470" s="23"/>
-      <c r="B470" s="51"/>
-      <c r="C470" s="51"/>
-      <c r="D470" s="51"/>
-      <c r="E470" s="51"/>
-      <c r="F470" s="51"/>
+    <row r="470" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A470" s="51">
+        <v>1233</v>
+      </c>
+      <c r="B470" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C470" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D470" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E470" s="51">
+        <v>7</v>
+      </c>
+      <c r="F470" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G470" s="51"/>
       <c r="H470" s="51"/>
-      <c r="J470" s="51"/>
+      <c r="I470" s="25">
+        <v>0</v>
+      </c>
+      <c r="J470" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K470" s="51"/>
       <c r="L470" s="51"/>
       <c r="M470" s="51"/>
       <c r="N470" s="51"/>
     </row>
-    <row r="471" spans="1:14">
-      <c r="A471" s="23"/>
-      <c r="B471" s="51"/>
-      <c r="C471" s="51"/>
-      <c r="D471" s="51"/>
-      <c r="E471" s="51"/>
-      <c r="F471" s="51"/>
+    <row r="471" spans="1:14" ht="15" customHeight="1">
+      <c r="A471" s="51">
+        <v>1234</v>
+      </c>
+      <c r="B471" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C471" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D471" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E471" s="51">
+        <v>8</v>
+      </c>
+      <c r="F471" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G471" s="51"/>
       <c r="H471" s="51"/>
-      <c r="J471" s="51"/>
+      <c r="I471" s="25">
+        <v>0</v>
+      </c>
+      <c r="J471" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K471" s="51"/>
       <c r="L471" s="51"/>
       <c r="M471" s="51"/>
       <c r="N471" s="51"/>
     </row>
-    <row r="472" spans="1:14">
-      <c r="A472" s="23"/>
-      <c r="B472" s="51"/>
-      <c r="C472" s="51"/>
-      <c r="D472" s="51"/>
-      <c r="E472" s="51"/>
-      <c r="F472" s="51"/>
+    <row r="472" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A472" s="51">
+        <v>1235</v>
+      </c>
+      <c r="B472" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C472" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D472" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E472" s="51">
+        <v>9</v>
+      </c>
+      <c r="F472" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G472" s="51"/>
       <c r="H472" s="51"/>
-      <c r="J472" s="51"/>
+      <c r="I472" s="25">
+        <v>0</v>
+      </c>
+      <c r="J472" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K472" s="51"/>
       <c r="L472" s="51"/>
       <c r="M472" s="51"/>
       <c r="N472" s="51"/>
     </row>
-    <row r="473" spans="1:14">
-      <c r="A473" s="23"/>
-      <c r="B473" s="51"/>
-      <c r="C473" s="51"/>
-      <c r="D473" s="51"/>
-      <c r="E473" s="51"/>
-      <c r="F473" s="51"/>
+    <row r="473" spans="1:14" ht="15" customHeight="1">
+      <c r="A473" s="51">
+        <v>1236</v>
+      </c>
+      <c r="B473" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C473" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D473" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E473" s="51">
+        <v>12</v>
+      </c>
+      <c r="F473" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G473" s="51"/>
       <c r="H473" s="51"/>
-      <c r="J473" s="51"/>
+      <c r="I473" s="25">
+        <v>0</v>
+      </c>
+      <c r="J473" s="51">
+        <v>1.9E-2</v>
+      </c>
       <c r="K473" s="51"/>
       <c r="L473" s="51"/>
       <c r="M473" s="51"/>
       <c r="N473" s="51"/>
     </row>
-    <row r="474" spans="1:14">
-      <c r="A474" s="23"/>
-      <c r="B474" s="51"/>
-      <c r="C474" s="51"/>
-      <c r="D474" s="51"/>
-      <c r="E474" s="51"/>
-      <c r="F474" s="51"/>
+    <row r="474" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A474" s="51">
+        <v>1237</v>
+      </c>
+      <c r="B474" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C474" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D474" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E474" s="51">
+        <v>13</v>
+      </c>
+      <c r="F474" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G474" s="51"/>
       <c r="H474" s="51"/>
-      <c r="J474" s="51"/>
+      <c r="I474" s="25">
+        <v>0</v>
+      </c>
+      <c r="J474" s="51">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="K474" s="51"/>
       <c r="L474" s="51"/>
       <c r="M474" s="51"/>
       <c r="N474" s="51"/>
     </row>
-    <row r="475" spans="1:14">
-      <c r="A475" s="23"/>
-      <c r="B475" s="51"/>
-      <c r="C475" s="51"/>
-      <c r="D475" s="51"/>
-      <c r="E475" s="51"/>
-      <c r="F475" s="51"/>
+    <row r="475" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A475" s="51">
+        <v>1238</v>
+      </c>
+      <c r="B475" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C475" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D475" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E475" s="51">
+        <v>14</v>
+      </c>
+      <c r="F475" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G475" s="51"/>
       <c r="H475" s="51"/>
-      <c r="J475" s="51"/>
+      <c r="I475" s="25">
+        <v>0</v>
+      </c>
+      <c r="J475" s="51">
+        <v>0.02</v>
+      </c>
       <c r="K475" s="51"/>
       <c r="L475" s="51"/>
       <c r="M475" s="51"/>
       <c r="N475" s="51"/>
     </row>
-    <row r="476" spans="1:14">
-      <c r="A476" s="23"/>
-      <c r="B476" s="51"/>
-      <c r="C476" s="51"/>
-      <c r="D476" s="51"/>
-      <c r="E476" s="51"/>
-      <c r="F476" s="51"/>
+    <row r="476" spans="1:14" ht="12" customHeight="1">
+      <c r="A476" s="51">
+        <v>1239</v>
+      </c>
+      <c r="B476" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C476" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D476" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E476" s="51">
+        <v>15</v>
+      </c>
+      <c r="F476" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G476" s="51"/>
       <c r="H476" s="51"/>
-      <c r="J476" s="51"/>
+      <c r="I476" s="25">
+        <v>0</v>
+      </c>
+      <c r="J476" s="51">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K476" s="51"/>
       <c r="L476" s="51"/>
       <c r="M476" s="51"/>
       <c r="N476" s="51"/>
     </row>
-    <row r="477" spans="1:14">
-      <c r="A477" s="23"/>
-      <c r="B477" s="51"/>
-      <c r="C477" s="51"/>
-      <c r="D477" s="51"/>
-      <c r="E477" s="51"/>
-      <c r="F477" s="51"/>
+    <row r="477" spans="1:14" ht="12" customHeight="1">
+      <c r="A477" s="51">
+        <v>1240</v>
+      </c>
+      <c r="B477" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C477" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D477" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E477" s="51">
+        <v>16</v>
+      </c>
+      <c r="F477" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G477" s="51"/>
       <c r="H477" s="51"/>
-      <c r="J477" s="51"/>
+      <c r="I477" s="25">
+        <v>0</v>
+      </c>
+      <c r="J477" s="51">
+        <v>1.2E-2</v>
+      </c>
       <c r="K477" s="51"/>
       <c r="L477" s="51"/>
       <c r="M477" s="51"/>
       <c r="N477" s="51"/>
     </row>
-    <row r="478" spans="1:14">
-      <c r="A478" s="23"/>
-      <c r="B478" s="51"/>
-      <c r="C478" s="51"/>
-      <c r="D478" s="51"/>
-      <c r="E478" s="51"/>
-      <c r="F478" s="51"/>
+    <row r="478" spans="1:14" ht="15" customHeight="1">
+      <c r="A478" s="51">
+        <v>1241</v>
+      </c>
+      <c r="B478" s="23">
+        <v>44075</v>
+      </c>
+      <c r="C478" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D478" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E478" s="51">
+        <v>18</v>
+      </c>
+      <c r="F478" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="G478" s="51"/>
       <c r="H478" s="51"/>
-      <c r="J478" s="51"/>
+      <c r="I478" s="25">
+        <v>0</v>
+      </c>
+      <c r="J478" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K478" s="51"/>
       <c r="L478" s="51"/>
       <c r="M478" s="51"/>
       <c r="N478" s="51"/>
     </row>
     <row r="479" spans="1:14">
-      <c r="A479" s="23"/>
-      <c r="B479" s="51"/>
+      <c r="A479" s="51"/>
+      <c r="B479" s="23"/>
       <c r="C479" s="51"/>
       <c r="D479" s="51"/>
       <c r="E479" s="51"/>
@@ -26736,8 +27844,8 @@
       <c r="N479" s="51"/>
     </row>
     <row r="480" spans="1:14">
-      <c r="A480" s="23"/>
-      <c r="B480" s="51"/>
+      <c r="A480" s="51"/>
+      <c r="B480" s="23"/>
       <c r="C480" s="51"/>
       <c r="D480" s="51"/>
       <c r="E480" s="51"/>
@@ -26751,8 +27859,8 @@
       <c r="N480" s="51"/>
     </row>
     <row r="481" spans="1:14">
-      <c r="A481" s="23"/>
-      <c r="B481" s="51"/>
+      <c r="A481" s="51"/>
+      <c r="B481" s="23"/>
       <c r="C481" s="51"/>
       <c r="D481" s="51"/>
       <c r="E481" s="51"/>
@@ -26766,8 +27874,8 @@
       <c r="N481" s="51"/>
     </row>
     <row r="482" spans="1:14">
-      <c r="A482" s="23"/>
-      <c r="B482" s="51"/>
+      <c r="A482" s="51"/>
+      <c r="B482" s="23"/>
       <c r="C482" s="51"/>
       <c r="D482" s="51"/>
       <c r="E482" s="51"/>
@@ -28181,10 +29289,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1482"/>
+  <dimension ref="A1:R1622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1454" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1468" sqref="F1468"/>
+    <sheetView topLeftCell="A1594" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P1609" sqref="P1609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -28198,20 +29306,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="110.25" customHeight="1" thickBot="1">
@@ -45859,9 +46967,7 @@
       <c r="G673" s="36"/>
       <c r="H673" s="37"/>
       <c r="I673" s="36"/>
-      <c r="J673" s="90">
-        <v>0</v>
-      </c>
+      <c r="J673" s="90"/>
       <c r="K673" s="91">
         <v>4</v>
       </c>
@@ -49682,13 +50788,13 @@
       <c r="G823" s="78"/>
       <c r="H823" s="79"/>
       <c r="I823" s="78"/>
-      <c r="J823" s="102">
-        <v>70</v>
-      </c>
+      <c r="J823" s="102"/>
       <c r="K823" s="99">
         <v>5</v>
       </c>
-      <c r="L823" s="78"/>
+      <c r="L823" s="102">
+        <v>70</v>
+      </c>
       <c r="M823" s="80"/>
     </row>
     <row r="824" spans="1:13">
@@ -49713,13 +50819,13 @@
       <c r="G824" s="36"/>
       <c r="H824" s="37"/>
       <c r="I824" s="36"/>
-      <c r="J824" s="95">
-        <v>50</v>
-      </c>
+      <c r="J824" s="95"/>
       <c r="K824" s="91">
         <v>3</v>
       </c>
-      <c r="L824" s="36"/>
+      <c r="L824" s="95">
+        <v>50</v>
+      </c>
       <c r="M824" s="72"/>
     </row>
     <row r="825" spans="1:13">
@@ -49744,13 +50850,13 @@
       <c r="G825" s="36"/>
       <c r="H825" s="37"/>
       <c r="I825" s="36"/>
-      <c r="J825" s="95">
-        <v>70</v>
-      </c>
+      <c r="J825" s="95"/>
       <c r="K825" s="90">
         <v>1</v>
       </c>
-      <c r="L825" s="36"/>
+      <c r="L825" s="95">
+        <v>70</v>
+      </c>
       <c r="M825" s="72"/>
     </row>
     <row r="826" spans="1:13">
@@ -49775,13 +50881,13 @@
       <c r="G826" s="36"/>
       <c r="H826" s="37"/>
       <c r="I826" s="36"/>
-      <c r="J826" s="90">
-        <v>40</v>
-      </c>
+      <c r="J826" s="90"/>
       <c r="K826" s="91">
         <v>5</v>
       </c>
-      <c r="L826" s="36"/>
+      <c r="L826" s="90">
+        <v>40</v>
+      </c>
       <c r="M826" s="72"/>
     </row>
     <row r="827" spans="1:13">
@@ -49806,13 +50912,13 @@
       <c r="G827" s="36"/>
       <c r="H827" s="37"/>
       <c r="I827" s="36"/>
-      <c r="J827" s="90">
-        <v>50</v>
-      </c>
+      <c r="J827" s="90"/>
       <c r="K827" s="91">
         <v>5</v>
       </c>
-      <c r="L827" s="36"/>
+      <c r="L827" s="90">
+        <v>50</v>
+      </c>
       <c r="M827" s="72"/>
     </row>
     <row r="828" spans="1:13">
@@ -49837,13 +50943,13 @@
       <c r="G828" s="36"/>
       <c r="H828" s="37"/>
       <c r="I828" s="36"/>
-      <c r="J828" s="90">
-        <v>50</v>
-      </c>
+      <c r="J828" s="90"/>
       <c r="K828" s="91">
         <v>5</v>
       </c>
-      <c r="L828" s="36"/>
+      <c r="L828" s="90">
+        <v>50</v>
+      </c>
       <c r="M828" s="72"/>
     </row>
     <row r="829" spans="1:13">
@@ -49868,13 +50974,13 @@
       <c r="G829" s="36"/>
       <c r="H829" s="37"/>
       <c r="I829" s="36"/>
-      <c r="J829" s="90">
+      <c r="J829" s="90"/>
+      <c r="K829" s="90">
+        <v>0</v>
+      </c>
+      <c r="L829" s="90">
         <v>40</v>
       </c>
-      <c r="K829" s="90">
-        <v>0</v>
-      </c>
-      <c r="L829" s="36"/>
       <c r="M829" s="72"/>
     </row>
     <row r="830" spans="1:13">
@@ -49899,13 +51005,13 @@
       <c r="G830" s="36"/>
       <c r="H830" s="37"/>
       <c r="I830" s="36"/>
-      <c r="J830" s="90">
-        <v>40</v>
-      </c>
+      <c r="J830" s="90"/>
       <c r="K830" s="90">
         <v>1</v>
       </c>
-      <c r="L830" s="36"/>
+      <c r="L830" s="90">
+        <v>40</v>
+      </c>
       <c r="M830" s="72"/>
     </row>
     <row r="831" spans="1:13">
@@ -49930,13 +51036,13 @@
       <c r="G831" s="36"/>
       <c r="H831" s="37"/>
       <c r="I831" s="36"/>
-      <c r="J831" s="90">
-        <v>40</v>
-      </c>
+      <c r="J831" s="90"/>
       <c r="K831" s="90">
         <v>1</v>
       </c>
-      <c r="L831" s="36"/>
+      <c r="L831" s="90">
+        <v>40</v>
+      </c>
       <c r="M831" s="72"/>
     </row>
     <row r="832" spans="1:13">
@@ -49961,13 +51067,13 @@
       <c r="G832" s="36"/>
       <c r="H832" s="37"/>
       <c r="I832" s="36"/>
-      <c r="J832" s="90">
-        <v>40</v>
-      </c>
+      <c r="J832" s="90"/>
       <c r="K832" s="91">
         <v>3</v>
       </c>
-      <c r="L832" s="36"/>
+      <c r="L832" s="90">
+        <v>40</v>
+      </c>
       <c r="M832" s="72"/>
     </row>
     <row r="833" spans="1:13">
@@ -49992,13 +51098,13 @@
       <c r="G833" s="36"/>
       <c r="H833" s="37"/>
       <c r="I833" s="36"/>
-      <c r="J833" s="90">
-        <v>50</v>
-      </c>
+      <c r="J833" s="90"/>
       <c r="K833" s="91">
         <v>3</v>
       </c>
-      <c r="L833" s="36"/>
+      <c r="L833" s="90">
+        <v>50</v>
+      </c>
       <c r="M833" s="72"/>
     </row>
     <row r="834" spans="1:13">
@@ -50019,11 +51125,11 @@
       <c r="G834" s="35"/>
       <c r="H834" s="36"/>
       <c r="I834" s="35"/>
-      <c r="J834" s="95">
+      <c r="J834" s="95"/>
+      <c r="K834" s="36"/>
+      <c r="L834" s="95">
         <v>140</v>
       </c>
-      <c r="K834" s="36"/>
-      <c r="L834" s="36"/>
       <c r="M834" s="72"/>
     </row>
     <row r="835" spans="1:13">
@@ -66927,6 +68033,3672 @@
       <c r="K1482" s="45"/>
       <c r="L1482" s="45"/>
       <c r="M1482" s="133"/>
+    </row>
+    <row r="1483" spans="1:13">
+      <c r="A1483" s="125">
+        <v>44067</v>
+      </c>
+      <c r="B1483" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1483" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1483" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1483" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1483" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1483" s="78"/>
+      <c r="H1483" s="79"/>
+      <c r="I1483" s="78"/>
+      <c r="J1483" s="97"/>
+      <c r="K1483" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1483" s="78"/>
+      <c r="M1483" s="80"/>
+    </row>
+    <row r="1484" spans="1:13">
+      <c r="A1484" s="124">
+        <v>44067</v>
+      </c>
+      <c r="B1484" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1484" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1484" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1484" s="106">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1484" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1484" s="36"/>
+      <c r="H1484" s="37"/>
+      <c r="I1484" s="36"/>
+      <c r="J1484" s="95"/>
+      <c r="K1484" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1484" s="36"/>
+      <c r="M1484" s="72"/>
+    </row>
+    <row r="1485" spans="1:13">
+      <c r="A1485" s="125">
+        <v>44067</v>
+      </c>
+      <c r="B1485" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1485" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1485" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1485" s="90">
+        <v>8.4</v>
+      </c>
+      <c r="F1485" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1485" s="36"/>
+      <c r="H1485" s="37"/>
+      <c r="I1485" s="36"/>
+      <c r="J1485" s="95"/>
+      <c r="K1485" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1485" s="36"/>
+      <c r="M1485" s="72"/>
+    </row>
+    <row r="1486" spans="1:13">
+      <c r="A1486" s="124">
+        <v>44067</v>
+      </c>
+      <c r="B1486" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1486" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1486" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1486" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1486" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1486" s="36"/>
+      <c r="H1486" s="37"/>
+      <c r="I1486" s="36"/>
+      <c r="J1486" s="90"/>
+      <c r="K1486" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1486" s="36"/>
+      <c r="M1486" s="72"/>
+    </row>
+    <row r="1487" spans="1:13">
+      <c r="A1487" s="125">
+        <v>44067</v>
+      </c>
+      <c r="B1487" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1487" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1487" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1487" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1487" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1487" s="36"/>
+      <c r="H1487" s="37"/>
+      <c r="I1487" s="36"/>
+      <c r="J1487" s="90"/>
+      <c r="K1487" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1487" s="36"/>
+      <c r="M1487" s="72"/>
+    </row>
+    <row r="1488" spans="1:13">
+      <c r="A1488" s="124">
+        <v>44067</v>
+      </c>
+      <c r="B1488" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1488" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1488" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1488" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1488" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1488" s="36"/>
+      <c r="H1488" s="37"/>
+      <c r="I1488" s="36"/>
+      <c r="J1488" s="90"/>
+      <c r="K1488" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1488" s="36"/>
+      <c r="M1488" s="72"/>
+    </row>
+    <row r="1489" spans="1:13">
+      <c r="A1489" s="125">
+        <v>44067</v>
+      </c>
+      <c r="B1489" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1489" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1489" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1489" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1489" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1489" s="36"/>
+      <c r="H1489" s="37"/>
+      <c r="I1489" s="36"/>
+      <c r="J1489" s="90"/>
+      <c r="K1489" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1489" s="36"/>
+      <c r="M1489" s="72"/>
+    </row>
+    <row r="1490" spans="1:13">
+      <c r="A1490" s="124">
+        <v>44067</v>
+      </c>
+      <c r="B1490" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1490" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1490" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1490" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1490" s="90">
+        <v>1.7</v>
+      </c>
+      <c r="G1490" s="36"/>
+      <c r="H1490" s="37"/>
+      <c r="I1490" s="36"/>
+      <c r="J1490" s="90"/>
+      <c r="K1490" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1490" s="36"/>
+      <c r="M1490" s="72"/>
+    </row>
+    <row r="1491" spans="1:13">
+      <c r="A1491" s="125">
+        <v>44067</v>
+      </c>
+      <c r="B1491" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1491" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1491" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1491" s="90">
+        <v>9</v>
+      </c>
+      <c r="F1491" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1491" s="36"/>
+      <c r="H1491" s="37"/>
+      <c r="I1491" s="36"/>
+      <c r="J1491" s="90"/>
+      <c r="K1491" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1491" s="36"/>
+      <c r="M1491" s="72"/>
+    </row>
+    <row r="1492" spans="1:13">
+      <c r="A1492" s="124">
+        <v>44067</v>
+      </c>
+      <c r="B1492" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1492" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1492" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1492" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1492" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1492" s="36"/>
+      <c r="H1492" s="37"/>
+      <c r="I1492" s="36"/>
+      <c r="J1492" s="90"/>
+      <c r="K1492" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1492" s="36"/>
+      <c r="M1492" s="72"/>
+    </row>
+    <row r="1493" spans="1:13">
+      <c r="A1493" s="125">
+        <v>44067</v>
+      </c>
+      <c r="B1493" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1493" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1493" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1493" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1493" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1493" s="36"/>
+      <c r="H1493" s="37"/>
+      <c r="I1493" s="36"/>
+      <c r="J1493" s="90"/>
+      <c r="K1493" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1493" s="36"/>
+      <c r="M1493" s="72"/>
+    </row>
+    <row r="1494" spans="1:13">
+      <c r="A1494" s="124">
+        <v>44067</v>
+      </c>
+      <c r="B1494" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1494" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1494" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1494" s="36"/>
+      <c r="F1494" s="37"/>
+      <c r="G1494" s="90"/>
+      <c r="H1494" s="96"/>
+      <c r="I1494" s="90"/>
+      <c r="J1494" s="95"/>
+      <c r="K1494" s="36"/>
+      <c r="L1494" s="36"/>
+      <c r="M1494" s="72"/>
+    </row>
+    <row r="1495" spans="1:13">
+      <c r="A1495" s="125"/>
+      <c r="B1495" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1495" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1495" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1495" s="36"/>
+      <c r="F1495" s="36"/>
+      <c r="G1495" s="90"/>
+      <c r="H1495" s="37"/>
+      <c r="I1495" s="90"/>
+      <c r="J1495" s="37"/>
+      <c r="K1495" s="36"/>
+      <c r="L1495" s="36"/>
+      <c r="M1495" s="72"/>
+    </row>
+    <row r="1496" spans="1:13" ht="31.5">
+      <c r="A1496" s="125"/>
+      <c r="B1496" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1496" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1496" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1496" s="36"/>
+      <c r="F1496" s="36"/>
+      <c r="G1496" s="90"/>
+      <c r="H1496" s="37"/>
+      <c r="I1496" s="90"/>
+      <c r="J1496" s="95"/>
+      <c r="K1496" s="36"/>
+      <c r="L1496" s="36"/>
+      <c r="M1496" s="72"/>
+    </row>
+    <row r="1497" spans="1:13" ht="31.5">
+      <c r="A1497" s="125"/>
+      <c r="B1497" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1497" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1497" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1497" s="36"/>
+      <c r="F1497" s="36"/>
+      <c r="G1497" s="90"/>
+      <c r="H1497" s="37"/>
+      <c r="I1497" s="90"/>
+      <c r="J1497" s="95"/>
+      <c r="K1497" s="36"/>
+      <c r="L1497" s="36"/>
+      <c r="M1497" s="72"/>
+    </row>
+    <row r="1498" spans="1:13" ht="31.5">
+      <c r="A1498" s="40"/>
+      <c r="B1498" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1498" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1498" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1498" s="36"/>
+      <c r="F1498" s="36"/>
+      <c r="G1498" s="35"/>
+      <c r="H1498" s="37"/>
+      <c r="I1498" s="35"/>
+      <c r="J1498" s="37"/>
+      <c r="K1498" s="36"/>
+      <c r="L1498" s="36"/>
+      <c r="M1498" s="72"/>
+    </row>
+    <row r="1499" spans="1:13">
+      <c r="A1499" s="124"/>
+      <c r="B1499" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1499" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1499" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1499" s="36"/>
+      <c r="F1499" s="36"/>
+      <c r="G1499" s="90"/>
+      <c r="H1499" s="95"/>
+      <c r="I1499" s="90"/>
+      <c r="J1499" s="37"/>
+      <c r="K1499" s="36"/>
+      <c r="L1499" s="36"/>
+      <c r="M1499" s="72"/>
+    </row>
+    <row r="1500" spans="1:13">
+      <c r="A1500" s="125"/>
+      <c r="B1500" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1500" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1500" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1500" s="36"/>
+      <c r="F1500" s="36"/>
+      <c r="G1500" s="90"/>
+      <c r="H1500" s="90"/>
+      <c r="I1500" s="90"/>
+      <c r="J1500" s="95"/>
+      <c r="K1500" s="36"/>
+      <c r="L1500" s="36"/>
+      <c r="M1500" s="72"/>
+    </row>
+    <row r="1501" spans="1:13">
+      <c r="A1501" s="124"/>
+      <c r="B1501" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1501" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1501" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1501" s="36"/>
+      <c r="F1501" s="36"/>
+      <c r="G1501" s="106"/>
+      <c r="H1501" s="95"/>
+      <c r="I1501" s="90"/>
+      <c r="J1501" s="36"/>
+      <c r="K1501" s="36"/>
+      <c r="L1501" s="36"/>
+      <c r="M1501" s="72"/>
+    </row>
+    <row r="1502" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1502" s="125"/>
+      <c r="B1502" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1502" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1502" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1502" s="46"/>
+      <c r="F1502" s="46"/>
+      <c r="G1502" s="46"/>
+      <c r="H1502" s="45"/>
+      <c r="I1502" s="136"/>
+      <c r="J1502" s="45"/>
+      <c r="K1502" s="45"/>
+      <c r="L1502" s="45"/>
+      <c r="M1502" s="133"/>
+    </row>
+    <row r="1503" spans="1:13">
+      <c r="A1503" s="125">
+        <v>44068</v>
+      </c>
+      <c r="B1503" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1503" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1503" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1503" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1503" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1503" s="78"/>
+      <c r="H1503" s="79"/>
+      <c r="I1503" s="78"/>
+      <c r="J1503" s="97"/>
+      <c r="K1503" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1503" s="78"/>
+      <c r="M1503" s="80"/>
+    </row>
+    <row r="1504" spans="1:13">
+      <c r="A1504" s="124">
+        <v>44068</v>
+      </c>
+      <c r="B1504" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1504" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1504" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1504" s="106">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1504" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1504" s="36"/>
+      <c r="H1504" s="37"/>
+      <c r="I1504" s="36"/>
+      <c r="J1504" s="95"/>
+      <c r="K1504" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1504" s="36"/>
+      <c r="M1504" s="72"/>
+    </row>
+    <row r="1505" spans="1:13">
+      <c r="A1505" s="125">
+        <v>44068</v>
+      </c>
+      <c r="B1505" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1505" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1505" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1505" s="90">
+        <v>8.4</v>
+      </c>
+      <c r="F1505" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1505" s="36"/>
+      <c r="H1505" s="37"/>
+      <c r="I1505" s="36"/>
+      <c r="J1505" s="95"/>
+      <c r="K1505" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1505" s="36"/>
+      <c r="M1505" s="72"/>
+    </row>
+    <row r="1506" spans="1:13">
+      <c r="A1506" s="124">
+        <v>44068</v>
+      </c>
+      <c r="B1506" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1506" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1506" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1506" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1506" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1506" s="36"/>
+      <c r="H1506" s="37"/>
+      <c r="I1506" s="36"/>
+      <c r="J1506" s="90"/>
+      <c r="K1506" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1506" s="36"/>
+      <c r="M1506" s="72"/>
+    </row>
+    <row r="1507" spans="1:13">
+      <c r="A1507" s="125">
+        <v>44068</v>
+      </c>
+      <c r="B1507" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1507" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1507" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1507" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1507" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1507" s="36"/>
+      <c r="H1507" s="37"/>
+      <c r="I1507" s="36"/>
+      <c r="J1507" s="90"/>
+      <c r="K1507" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1507" s="36"/>
+      <c r="M1507" s="72"/>
+    </row>
+    <row r="1508" spans="1:13">
+      <c r="A1508" s="124">
+        <v>44068</v>
+      </c>
+      <c r="B1508" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1508" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1508" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1508" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1508" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1508" s="36"/>
+      <c r="H1508" s="37"/>
+      <c r="I1508" s="36"/>
+      <c r="J1508" s="90"/>
+      <c r="K1508" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1508" s="36"/>
+      <c r="M1508" s="72"/>
+    </row>
+    <row r="1509" spans="1:13">
+      <c r="A1509" s="125">
+        <v>44068</v>
+      </c>
+      <c r="B1509" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1509" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1509" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1509" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1509" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1509" s="36"/>
+      <c r="H1509" s="37"/>
+      <c r="I1509" s="36"/>
+      <c r="J1509" s="90"/>
+      <c r="K1509" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1509" s="36"/>
+      <c r="M1509" s="72"/>
+    </row>
+    <row r="1510" spans="1:13">
+      <c r="A1510" s="124">
+        <v>44068</v>
+      </c>
+      <c r="B1510" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1510" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1510" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1510" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1510" s="90">
+        <v>2</v>
+      </c>
+      <c r="G1510" s="36"/>
+      <c r="H1510" s="37"/>
+      <c r="I1510" s="36"/>
+      <c r="J1510" s="90"/>
+      <c r="K1510" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1510" s="36"/>
+      <c r="M1510" s="72"/>
+    </row>
+    <row r="1511" spans="1:13">
+      <c r="A1511" s="125">
+        <v>44068</v>
+      </c>
+      <c r="B1511" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1511" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1511" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1511" s="90">
+        <v>9.1</v>
+      </c>
+      <c r="F1511" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1511" s="36"/>
+      <c r="H1511" s="37"/>
+      <c r="I1511" s="36"/>
+      <c r="J1511" s="90"/>
+      <c r="K1511" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1511" s="36"/>
+      <c r="M1511" s="72"/>
+    </row>
+    <row r="1512" spans="1:13">
+      <c r="A1512" s="124">
+        <v>44068</v>
+      </c>
+      <c r="B1512" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1512" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1512" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1512" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1512" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1512" s="36"/>
+      <c r="H1512" s="37"/>
+      <c r="I1512" s="36"/>
+      <c r="J1512" s="90"/>
+      <c r="K1512" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1512" s="36"/>
+      <c r="M1512" s="72"/>
+    </row>
+    <row r="1513" spans="1:13">
+      <c r="A1513" s="125">
+        <v>44068</v>
+      </c>
+      <c r="B1513" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1513" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1513" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1513" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1513" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="G1513" s="36"/>
+      <c r="H1513" s="37"/>
+      <c r="I1513" s="36"/>
+      <c r="J1513" s="90"/>
+      <c r="K1513" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1513" s="36"/>
+      <c r="M1513" s="72"/>
+    </row>
+    <row r="1514" spans="1:13">
+      <c r="A1514" s="124">
+        <v>44068</v>
+      </c>
+      <c r="B1514" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1514" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1514" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1514" s="36"/>
+      <c r="F1514" s="37"/>
+      <c r="G1514" s="90"/>
+      <c r="H1514" s="96"/>
+      <c r="I1514" s="90"/>
+      <c r="J1514" s="95"/>
+      <c r="K1514" s="36"/>
+      <c r="L1514" s="36"/>
+      <c r="M1514" s="72"/>
+    </row>
+    <row r="1515" spans="1:13">
+      <c r="A1515" s="125"/>
+      <c r="B1515" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1515" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1515" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1515" s="36"/>
+      <c r="F1515" s="36"/>
+      <c r="G1515" s="90"/>
+      <c r="H1515" s="37"/>
+      <c r="I1515" s="90"/>
+      <c r="J1515" s="37"/>
+      <c r="K1515" s="36"/>
+      <c r="L1515" s="36"/>
+      <c r="M1515" s="72"/>
+    </row>
+    <row r="1516" spans="1:13" ht="31.5">
+      <c r="A1516" s="125"/>
+      <c r="B1516" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1516" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1516" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1516" s="36"/>
+      <c r="F1516" s="36"/>
+      <c r="G1516" s="90"/>
+      <c r="H1516" s="37"/>
+      <c r="I1516" s="90"/>
+      <c r="J1516" s="95"/>
+      <c r="K1516" s="36"/>
+      <c r="L1516" s="36"/>
+      <c r="M1516" s="72"/>
+    </row>
+    <row r="1517" spans="1:13" ht="31.5">
+      <c r="A1517" s="125"/>
+      <c r="B1517" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1517" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1517" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1517" s="36"/>
+      <c r="F1517" s="36"/>
+      <c r="G1517" s="90"/>
+      <c r="H1517" s="37"/>
+      <c r="I1517" s="90"/>
+      <c r="J1517" s="95"/>
+      <c r="K1517" s="36"/>
+      <c r="L1517" s="36"/>
+      <c r="M1517" s="72"/>
+    </row>
+    <row r="1518" spans="1:13" ht="31.5">
+      <c r="A1518" s="40"/>
+      <c r="B1518" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1518" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1518" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1518" s="36"/>
+      <c r="F1518" s="36"/>
+      <c r="G1518" s="35"/>
+      <c r="H1518" s="37"/>
+      <c r="I1518" s="35"/>
+      <c r="J1518" s="37"/>
+      <c r="K1518" s="36"/>
+      <c r="L1518" s="36"/>
+      <c r="M1518" s="72"/>
+    </row>
+    <row r="1519" spans="1:13">
+      <c r="A1519" s="124"/>
+      <c r="B1519" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1519" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1519" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1519" s="36"/>
+      <c r="F1519" s="36"/>
+      <c r="G1519" s="90"/>
+      <c r="H1519" s="95"/>
+      <c r="I1519" s="90"/>
+      <c r="J1519" s="37"/>
+      <c r="K1519" s="36"/>
+      <c r="L1519" s="36"/>
+      <c r="M1519" s="72"/>
+    </row>
+    <row r="1520" spans="1:13">
+      <c r="A1520" s="125"/>
+      <c r="B1520" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1520" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1520" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1520" s="36"/>
+      <c r="F1520" s="36"/>
+      <c r="G1520" s="90"/>
+      <c r="H1520" s="90"/>
+      <c r="I1520" s="90"/>
+      <c r="J1520" s="95"/>
+      <c r="K1520" s="36"/>
+      <c r="L1520" s="36"/>
+      <c r="M1520" s="72"/>
+    </row>
+    <row r="1521" spans="1:13">
+      <c r="A1521" s="124"/>
+      <c r="B1521" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1521" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1521" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1521" s="36"/>
+      <c r="F1521" s="36"/>
+      <c r="G1521" s="106"/>
+      <c r="H1521" s="95"/>
+      <c r="I1521" s="90"/>
+      <c r="J1521" s="36"/>
+      <c r="K1521" s="36"/>
+      <c r="L1521" s="36"/>
+      <c r="M1521" s="72"/>
+    </row>
+    <row r="1522" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1522" s="125"/>
+      <c r="B1522" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1522" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1522" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1522" s="46"/>
+      <c r="F1522" s="46"/>
+      <c r="G1522" s="46"/>
+      <c r="H1522" s="45"/>
+      <c r="I1522" s="136"/>
+      <c r="J1522" s="45"/>
+      <c r="K1522" s="45"/>
+      <c r="L1522" s="45"/>
+      <c r="M1522" s="133"/>
+    </row>
+    <row r="1523" spans="1:13">
+      <c r="A1523" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1523" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1523" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1523" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1523" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1523" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1523" s="78"/>
+      <c r="H1523" s="79"/>
+      <c r="I1523" s="78"/>
+      <c r="J1523" s="97">
+        <v>0</v>
+      </c>
+      <c r="K1523" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1523" s="78"/>
+      <c r="M1523" s="80"/>
+    </row>
+    <row r="1524" spans="1:13">
+      <c r="A1524" s="124">
+        <v>44069</v>
+      </c>
+      <c r="B1524" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1524" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1524" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1524" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1524" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1524" s="36"/>
+      <c r="H1524" s="37"/>
+      <c r="I1524" s="36"/>
+      <c r="J1524" s="95">
+        <v>0</v>
+      </c>
+      <c r="K1524" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1524" s="36"/>
+      <c r="M1524" s="72"/>
+    </row>
+    <row r="1525" spans="1:13">
+      <c r="A1525" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1525" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1525" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1525" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1525" s="90">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F1525" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1525" s="36"/>
+      <c r="H1525" s="37"/>
+      <c r="I1525" s="36"/>
+      <c r="J1525" s="95">
+        <v>4</v>
+      </c>
+      <c r="K1525" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1525" s="36"/>
+      <c r="M1525" s="72"/>
+    </row>
+    <row r="1526" spans="1:13">
+      <c r="A1526" s="124">
+        <v>44069</v>
+      </c>
+      <c r="B1526" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1526" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1526" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1526" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1526" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1526" s="36"/>
+      <c r="H1526" s="37"/>
+      <c r="I1526" s="36"/>
+      <c r="J1526" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1526" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1526" s="36"/>
+      <c r="M1526" s="72"/>
+    </row>
+    <row r="1527" spans="1:13">
+      <c r="A1527" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1527" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1527" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1527" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1527" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1527" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1527" s="36"/>
+      <c r="H1527" s="37"/>
+      <c r="I1527" s="36"/>
+      <c r="J1527" s="90">
+        <v>2</v>
+      </c>
+      <c r="K1527" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1527" s="36"/>
+      <c r="M1527" s="72"/>
+    </row>
+    <row r="1528" spans="1:13">
+      <c r="A1528" s="124">
+        <v>44069</v>
+      </c>
+      <c r="B1528" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1528" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1528" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1528" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1528" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1528" s="36"/>
+      <c r="H1528" s="37"/>
+      <c r="I1528" s="36"/>
+      <c r="J1528" s="90">
+        <v>2</v>
+      </c>
+      <c r="K1528" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1528" s="36"/>
+      <c r="M1528" s="72"/>
+    </row>
+    <row r="1529" spans="1:13">
+      <c r="A1529" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1529" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1529" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1529" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1529" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1529" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1529" s="36"/>
+      <c r="H1529" s="37"/>
+      <c r="I1529" s="36"/>
+      <c r="J1529" s="90">
+        <v>1</v>
+      </c>
+      <c r="K1529" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1529" s="36"/>
+      <c r="M1529" s="72"/>
+    </row>
+    <row r="1530" spans="1:13">
+      <c r="A1530" s="124">
+        <v>44069</v>
+      </c>
+      <c r="B1530" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1530" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1530" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1530" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1530" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1530" s="36"/>
+      <c r="H1530" s="37"/>
+      <c r="I1530" s="36"/>
+      <c r="J1530" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1530" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1530" s="36"/>
+      <c r="M1530" s="72"/>
+    </row>
+    <row r="1531" spans="1:13">
+      <c r="A1531" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1531" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1531" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1531" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1531" s="90">
+        <v>9.1</v>
+      </c>
+      <c r="F1531" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1531" s="36"/>
+      <c r="H1531" s="37"/>
+      <c r="I1531" s="36"/>
+      <c r="J1531" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1531" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1531" s="36"/>
+      <c r="M1531" s="72"/>
+    </row>
+    <row r="1532" spans="1:13">
+      <c r="A1532" s="124">
+        <v>44069</v>
+      </c>
+      <c r="B1532" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1532" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1532" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1532" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1532" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1532" s="36"/>
+      <c r="H1532" s="37"/>
+      <c r="I1532" s="36"/>
+      <c r="J1532" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1532" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1532" s="36"/>
+      <c r="M1532" s="72"/>
+    </row>
+    <row r="1533" spans="1:13">
+      <c r="A1533" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1533" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1533" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1533" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1533" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1533" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="G1533" s="36"/>
+      <c r="H1533" s="37"/>
+      <c r="I1533" s="36"/>
+      <c r="J1533" s="90">
+        <v>0</v>
+      </c>
+      <c r="K1533" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1533" s="36"/>
+      <c r="M1533" s="72"/>
+    </row>
+    <row r="1534" spans="1:13">
+      <c r="A1534" s="124"/>
+      <c r="B1534" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1534" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1534" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1534" s="36"/>
+      <c r="F1534" s="37"/>
+      <c r="G1534" s="90"/>
+      <c r="H1534" s="96"/>
+      <c r="I1534" s="90"/>
+      <c r="J1534" s="95"/>
+      <c r="K1534" s="36"/>
+      <c r="L1534" s="36"/>
+      <c r="M1534" s="72"/>
+    </row>
+    <row r="1535" spans="1:13">
+      <c r="A1535" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1535" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1535" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1535" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1535" s="36"/>
+      <c r="F1535" s="36"/>
+      <c r="G1535" s="90">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H1535" s="37"/>
+      <c r="I1535" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="J1535" s="37"/>
+      <c r="K1535" s="36"/>
+      <c r="L1535" s="36"/>
+      <c r="M1535" s="72"/>
+    </row>
+    <row r="1536" spans="1:13" ht="31.5">
+      <c r="A1536" s="125"/>
+      <c r="B1536" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1536" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1536" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1536" s="36"/>
+      <c r="F1536" s="36"/>
+      <c r="G1536" s="90"/>
+      <c r="H1536" s="37"/>
+      <c r="I1536" s="90"/>
+      <c r="J1536" s="95"/>
+      <c r="K1536" s="36"/>
+      <c r="L1536" s="36"/>
+      <c r="M1536" s="72"/>
+    </row>
+    <row r="1537" spans="1:13" ht="31.5">
+      <c r="A1537" s="125"/>
+      <c r="B1537" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1537" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1537" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1537" s="36"/>
+      <c r="F1537" s="36"/>
+      <c r="G1537" s="90"/>
+      <c r="H1537" s="37"/>
+      <c r="I1537" s="90"/>
+      <c r="J1537" s="95"/>
+      <c r="K1537" s="36"/>
+      <c r="L1537" s="36"/>
+      <c r="M1537" s="72"/>
+    </row>
+    <row r="1538" spans="1:13" ht="31.5">
+      <c r="A1538" s="40"/>
+      <c r="B1538" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1538" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1538" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1538" s="36"/>
+      <c r="F1538" s="36"/>
+      <c r="G1538" s="35"/>
+      <c r="H1538" s="37"/>
+      <c r="I1538" s="35"/>
+      <c r="J1538" s="37"/>
+      <c r="K1538" s="36"/>
+      <c r="L1538" s="36"/>
+      <c r="M1538" s="72"/>
+    </row>
+    <row r="1539" spans="1:13">
+      <c r="A1539" s="124"/>
+      <c r="B1539" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1539" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1539" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1539" s="36"/>
+      <c r="F1539" s="36"/>
+      <c r="G1539" s="90"/>
+      <c r="H1539" s="95"/>
+      <c r="I1539" s="90"/>
+      <c r="J1539" s="37"/>
+      <c r="K1539" s="36"/>
+      <c r="L1539" s="36"/>
+      <c r="M1539" s="72"/>
+    </row>
+    <row r="1540" spans="1:13">
+      <c r="A1540" s="125"/>
+      <c r="B1540" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1540" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1540" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1540" s="36"/>
+      <c r="F1540" s="36"/>
+      <c r="G1540" s="90"/>
+      <c r="H1540" s="90"/>
+      <c r="I1540" s="90"/>
+      <c r="J1540" s="95"/>
+      <c r="K1540" s="36"/>
+      <c r="L1540" s="36"/>
+      <c r="M1540" s="72"/>
+    </row>
+    <row r="1541" spans="1:13">
+      <c r="A1541" s="125">
+        <v>44069</v>
+      </c>
+      <c r="B1541" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1541" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1541" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1541" s="36"/>
+      <c r="F1541" s="36"/>
+      <c r="G1541" s="106">
+        <v>3.8</v>
+      </c>
+      <c r="H1541" s="95"/>
+      <c r="I1541" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="J1541" s="36"/>
+      <c r="K1541" s="36"/>
+      <c r="L1541" s="36"/>
+      <c r="M1541" s="72"/>
+    </row>
+    <row r="1542" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1542" s="125"/>
+      <c r="B1542" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1542" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1542" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1542" s="46"/>
+      <c r="F1542" s="46"/>
+      <c r="G1542" s="46"/>
+      <c r="H1542" s="45"/>
+      <c r="I1542" s="136"/>
+      <c r="J1542" s="45"/>
+      <c r="K1542" s="45"/>
+      <c r="L1542" s="45"/>
+      <c r="M1542" s="133"/>
+    </row>
+    <row r="1543" spans="1:13">
+      <c r="A1543" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1543" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1543" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1543" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1543" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1543" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1543" s="78"/>
+      <c r="H1543" s="79"/>
+      <c r="I1543" s="78"/>
+      <c r="J1543" s="97"/>
+      <c r="K1543" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1543" s="78"/>
+      <c r="M1543" s="80"/>
+    </row>
+    <row r="1544" spans="1:13">
+      <c r="A1544" s="124">
+        <v>44070</v>
+      </c>
+      <c r="B1544" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1544" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1544" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1544" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1544" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1544" s="36"/>
+      <c r="H1544" s="37"/>
+      <c r="I1544" s="36"/>
+      <c r="J1544" s="95"/>
+      <c r="K1544" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1544" s="36"/>
+      <c r="M1544" s="72"/>
+    </row>
+    <row r="1545" spans="1:13">
+      <c r="A1545" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1545" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1545" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1545" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1545" s="90">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F1545" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1545" s="36"/>
+      <c r="H1545" s="37"/>
+      <c r="I1545" s="36"/>
+      <c r="J1545" s="95"/>
+      <c r="K1545" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1545" s="36"/>
+      <c r="M1545" s="72"/>
+    </row>
+    <row r="1546" spans="1:13">
+      <c r="A1546" s="124">
+        <v>44070</v>
+      </c>
+      <c r="B1546" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1546" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1546" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1546" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1546" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1546" s="36"/>
+      <c r="H1546" s="37"/>
+      <c r="I1546" s="36"/>
+      <c r="J1546" s="90"/>
+      <c r="K1546" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1546" s="36"/>
+      <c r="M1546" s="72"/>
+    </row>
+    <row r="1547" spans="1:13">
+      <c r="A1547" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1547" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1547" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1547" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1547" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1547" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1547" s="36"/>
+      <c r="H1547" s="37"/>
+      <c r="I1547" s="36"/>
+      <c r="J1547" s="90"/>
+      <c r="K1547" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1547" s="36"/>
+      <c r="M1547" s="72"/>
+    </row>
+    <row r="1548" spans="1:13">
+      <c r="A1548" s="124">
+        <v>44070</v>
+      </c>
+      <c r="B1548" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1548" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1548" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1548" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1548" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1548" s="36"/>
+      <c r="H1548" s="37"/>
+      <c r="I1548" s="36"/>
+      <c r="J1548" s="90"/>
+      <c r="K1548" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1548" s="36"/>
+      <c r="M1548" s="72"/>
+    </row>
+    <row r="1549" spans="1:13">
+      <c r="A1549" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1549" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1549" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1549" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1549" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1549" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1549" s="36"/>
+      <c r="H1549" s="37"/>
+      <c r="I1549" s="36"/>
+      <c r="J1549" s="90"/>
+      <c r="K1549" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1549" s="36"/>
+      <c r="M1549" s="72"/>
+    </row>
+    <row r="1550" spans="1:13">
+      <c r="A1550" s="124">
+        <v>44070</v>
+      </c>
+      <c r="B1550" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1550" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1550" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1550" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1550" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1550" s="36"/>
+      <c r="H1550" s="37"/>
+      <c r="I1550" s="36"/>
+      <c r="J1550" s="90"/>
+      <c r="K1550" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1550" s="36"/>
+      <c r="M1550" s="72"/>
+    </row>
+    <row r="1551" spans="1:13">
+      <c r="A1551" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1551" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1551" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1551" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1551" s="90">
+        <v>9</v>
+      </c>
+      <c r="F1551" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1551" s="36"/>
+      <c r="H1551" s="37"/>
+      <c r="I1551" s="36"/>
+      <c r="J1551" s="90"/>
+      <c r="K1551" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1551" s="36"/>
+      <c r="M1551" s="72"/>
+    </row>
+    <row r="1552" spans="1:13">
+      <c r="A1552" s="124">
+        <v>44070</v>
+      </c>
+      <c r="B1552" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1552" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1552" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1552" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1552" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1552" s="36"/>
+      <c r="H1552" s="37"/>
+      <c r="I1552" s="36"/>
+      <c r="J1552" s="90"/>
+      <c r="K1552" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1552" s="36"/>
+      <c r="M1552" s="72"/>
+    </row>
+    <row r="1553" spans="1:13">
+      <c r="A1553" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1553" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1553" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1553" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1553" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1553" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="G1553" s="36"/>
+      <c r="H1553" s="37"/>
+      <c r="I1553" s="36"/>
+      <c r="J1553" s="90"/>
+      <c r="K1553" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1553" s="36"/>
+      <c r="M1553" s="72"/>
+    </row>
+    <row r="1554" spans="1:13">
+      <c r="A1554" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1554" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1554" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1554" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1554" s="36"/>
+      <c r="F1554" s="37"/>
+      <c r="G1554" s="90">
+        <v>5.2</v>
+      </c>
+      <c r="H1554" s="96">
+        <v>5.88</v>
+      </c>
+      <c r="I1554" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="J1554" s="95"/>
+      <c r="K1554" s="36"/>
+      <c r="L1554" s="36"/>
+      <c r="M1554" s="72"/>
+    </row>
+    <row r="1555" spans="1:13">
+      <c r="A1555" s="125"/>
+      <c r="B1555" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1555" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1555" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1555" s="36"/>
+      <c r="F1555" s="36"/>
+      <c r="G1555" s="90"/>
+      <c r="H1555" s="37"/>
+      <c r="I1555" s="90"/>
+      <c r="J1555" s="37"/>
+      <c r="K1555" s="36"/>
+      <c r="L1555" s="36"/>
+      <c r="M1555" s="72"/>
+    </row>
+    <row r="1556" spans="1:13" ht="31.5">
+      <c r="A1556" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1556" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1556" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1556" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1556" s="36"/>
+      <c r="F1556" s="36"/>
+      <c r="G1556" s="90">
+        <v>7.95</v>
+      </c>
+      <c r="H1556" s="37"/>
+      <c r="I1556" s="90">
+        <v>1.2</v>
+      </c>
+      <c r="J1556" s="95"/>
+      <c r="K1556" s="36"/>
+      <c r="L1556" s="36"/>
+      <c r="M1556" s="72"/>
+    </row>
+    <row r="1557" spans="1:13" ht="31.5">
+      <c r="A1557" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1557" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1557" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1557" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1557" s="36"/>
+      <c r="F1557" s="36"/>
+      <c r="G1557" s="90">
+        <v>2.33</v>
+      </c>
+      <c r="H1557" s="37"/>
+      <c r="I1557" s="90">
+        <v>0.43</v>
+      </c>
+      <c r="J1557" s="95"/>
+      <c r="K1557" s="36"/>
+      <c r="L1557" s="36"/>
+      <c r="M1557" s="72"/>
+    </row>
+    <row r="1558" spans="1:13" ht="31.5">
+      <c r="A1558" s="40"/>
+      <c r="B1558" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1558" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1558" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1558" s="36"/>
+      <c r="F1558" s="36"/>
+      <c r="G1558" s="35"/>
+      <c r="H1558" s="37"/>
+      <c r="I1558" s="35"/>
+      <c r="J1558" s="37"/>
+      <c r="K1558" s="36"/>
+      <c r="L1558" s="36"/>
+      <c r="M1558" s="72"/>
+    </row>
+    <row r="1559" spans="1:13">
+      <c r="A1559" s="124"/>
+      <c r="B1559" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1559" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1559" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1559" s="36"/>
+      <c r="F1559" s="36"/>
+      <c r="G1559" s="90"/>
+      <c r="H1559" s="95"/>
+      <c r="I1559" s="90"/>
+      <c r="J1559" s="37"/>
+      <c r="K1559" s="36"/>
+      <c r="L1559" s="36"/>
+      <c r="M1559" s="72"/>
+    </row>
+    <row r="1560" spans="1:13">
+      <c r="A1560" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1560" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1560" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1560" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1560" s="36"/>
+      <c r="F1560" s="36"/>
+      <c r="G1560" s="90">
+        <v>1.8</v>
+      </c>
+      <c r="H1560" s="90">
+        <v>5.04</v>
+      </c>
+      <c r="I1560" s="90">
+        <v>0.92</v>
+      </c>
+      <c r="J1560" s="95"/>
+      <c r="K1560" s="36"/>
+      <c r="L1560" s="36"/>
+      <c r="M1560" s="72"/>
+    </row>
+    <row r="1561" spans="1:13">
+      <c r="A1561" s="125"/>
+      <c r="B1561" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1561" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1561" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1561" s="36"/>
+      <c r="F1561" s="36"/>
+      <c r="G1561" s="106"/>
+      <c r="H1561" s="95"/>
+      <c r="I1561" s="90"/>
+      <c r="J1561" s="36"/>
+      <c r="K1561" s="36"/>
+      <c r="L1561" s="36"/>
+      <c r="M1561" s="72"/>
+    </row>
+    <row r="1562" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1562" s="125">
+        <v>44070</v>
+      </c>
+      <c r="B1562" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1562" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1562" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1562" s="46"/>
+      <c r="F1562" s="46"/>
+      <c r="G1562" s="46"/>
+      <c r="H1562" s="45"/>
+      <c r="I1562" s="136">
+        <v>0.19</v>
+      </c>
+      <c r="J1562" s="45"/>
+      <c r="K1562" s="45"/>
+      <c r="L1562" s="45"/>
+      <c r="M1562" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:13">
+      <c r="A1563" s="125">
+        <v>44071</v>
+      </c>
+      <c r="B1563" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1563" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1563" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1563" s="97">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1563" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1563" s="78"/>
+      <c r="H1563" s="79"/>
+      <c r="I1563" s="78"/>
+      <c r="J1563" s="97"/>
+      <c r="K1563" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1563" s="78"/>
+      <c r="M1563" s="80"/>
+    </row>
+    <row r="1564" spans="1:13">
+      <c r="A1564" s="124">
+        <v>44071</v>
+      </c>
+      <c r="B1564" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1564" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1564" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1564" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1564" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1564" s="36"/>
+      <c r="H1564" s="37"/>
+      <c r="I1564" s="36"/>
+      <c r="J1564" s="95"/>
+      <c r="K1564" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1564" s="36"/>
+      <c r="M1564" s="72"/>
+    </row>
+    <row r="1565" spans="1:13">
+      <c r="A1565" s="125">
+        <v>44071</v>
+      </c>
+      <c r="B1565" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1565" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1565" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1565" s="90">
+        <v>8</v>
+      </c>
+      <c r="F1565" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1565" s="36"/>
+      <c r="H1565" s="37"/>
+      <c r="I1565" s="36"/>
+      <c r="J1565" s="95"/>
+      <c r="K1565" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1565" s="36"/>
+      <c r="M1565" s="72"/>
+    </row>
+    <row r="1566" spans="1:13">
+      <c r="A1566" s="124">
+        <v>44071</v>
+      </c>
+      <c r="B1566" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1566" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1566" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1566" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1566" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1566" s="36"/>
+      <c r="H1566" s="37"/>
+      <c r="I1566" s="36"/>
+      <c r="J1566" s="90"/>
+      <c r="K1566" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1566" s="36"/>
+      <c r="M1566" s="72"/>
+    </row>
+    <row r="1567" spans="1:13">
+      <c r="A1567" s="125">
+        <v>44071</v>
+      </c>
+      <c r="B1567" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1567" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1567" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1567" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1567" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1567" s="36"/>
+      <c r="H1567" s="37"/>
+      <c r="I1567" s="36"/>
+      <c r="J1567" s="90"/>
+      <c r="K1567" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1567" s="36"/>
+      <c r="M1567" s="72"/>
+    </row>
+    <row r="1568" spans="1:13">
+      <c r="A1568" s="124">
+        <v>44071</v>
+      </c>
+      <c r="B1568" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1568" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1568" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1568" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1568" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1568" s="36"/>
+      <c r="H1568" s="37"/>
+      <c r="I1568" s="36"/>
+      <c r="J1568" s="90"/>
+      <c r="K1568" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1568" s="36"/>
+      <c r="M1568" s="72"/>
+    </row>
+    <row r="1569" spans="1:13">
+      <c r="A1569" s="125">
+        <v>44071</v>
+      </c>
+      <c r="B1569" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1569" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1569" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1569" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1569" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1569" s="36"/>
+      <c r="H1569" s="37"/>
+      <c r="I1569" s="36"/>
+      <c r="J1569" s="90"/>
+      <c r="K1569" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1569" s="36"/>
+      <c r="M1569" s="72"/>
+    </row>
+    <row r="1570" spans="1:13">
+      <c r="A1570" s="124">
+        <v>44071</v>
+      </c>
+      <c r="B1570" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1570" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1570" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1570" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1570" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1570" s="36"/>
+      <c r="H1570" s="37"/>
+      <c r="I1570" s="36"/>
+      <c r="J1570" s="90"/>
+      <c r="K1570" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1570" s="36"/>
+      <c r="M1570" s="72"/>
+    </row>
+    <row r="1571" spans="1:13">
+      <c r="A1571" s="125">
+        <v>44071</v>
+      </c>
+      <c r="B1571" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1571" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1571" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1571" s="90">
+        <v>9.1</v>
+      </c>
+      <c r="F1571" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1571" s="36"/>
+      <c r="H1571" s="37"/>
+      <c r="I1571" s="36"/>
+      <c r="J1571" s="90"/>
+      <c r="K1571" s="90">
+        <v>3</v>
+      </c>
+      <c r="L1571" s="36"/>
+      <c r="M1571" s="72"/>
+    </row>
+    <row r="1572" spans="1:13">
+      <c r="A1572" s="124">
+        <v>44071</v>
+      </c>
+      <c r="B1572" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1572" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1572" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1572" s="90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1572" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1572" s="36"/>
+      <c r="H1572" s="37"/>
+      <c r="I1572" s="36"/>
+      <c r="J1572" s="90"/>
+      <c r="K1572" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1572" s="36"/>
+      <c r="M1572" s="72"/>
+    </row>
+    <row r="1573" spans="1:13">
+      <c r="A1573" s="125">
+        <v>44071</v>
+      </c>
+      <c r="B1573" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1573" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1573" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1573" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1573" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="G1573" s="36"/>
+      <c r="H1573" s="37"/>
+      <c r="I1573" s="36"/>
+      <c r="J1573" s="90"/>
+      <c r="K1573" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1573" s="36"/>
+      <c r="M1573" s="72"/>
+    </row>
+    <row r="1574" spans="1:13">
+      <c r="A1574" s="124">
+        <v>44071</v>
+      </c>
+      <c r="B1574" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1574" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1574" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1574" s="36"/>
+      <c r="F1574" s="37"/>
+      <c r="G1574" s="90"/>
+      <c r="H1574" s="96"/>
+      <c r="I1574" s="90"/>
+      <c r="J1574" s="95"/>
+      <c r="K1574" s="36"/>
+      <c r="L1574" s="36"/>
+      <c r="M1574" s="72"/>
+    </row>
+    <row r="1575" spans="1:13">
+      <c r="A1575" s="125"/>
+      <c r="B1575" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1575" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1575" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1575" s="36"/>
+      <c r="F1575" s="36"/>
+      <c r="G1575" s="90"/>
+      <c r="H1575" s="37"/>
+      <c r="I1575" s="90"/>
+      <c r="J1575" s="37"/>
+      <c r="K1575" s="36"/>
+      <c r="L1575" s="36"/>
+      <c r="M1575" s="72"/>
+    </row>
+    <row r="1576" spans="1:13" ht="31.5">
+      <c r="A1576" s="125"/>
+      <c r="B1576" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1576" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1576" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1576" s="36"/>
+      <c r="F1576" s="36"/>
+      <c r="G1576" s="90"/>
+      <c r="H1576" s="37"/>
+      <c r="I1576" s="90"/>
+      <c r="J1576" s="95"/>
+      <c r="K1576" s="36"/>
+      <c r="L1576" s="36"/>
+      <c r="M1576" s="72"/>
+    </row>
+    <row r="1577" spans="1:13" ht="31.5">
+      <c r="A1577" s="125"/>
+      <c r="B1577" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1577" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1577" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1577" s="36"/>
+      <c r="F1577" s="36"/>
+      <c r="G1577" s="90"/>
+      <c r="H1577" s="37"/>
+      <c r="I1577" s="90"/>
+      <c r="J1577" s="95"/>
+      <c r="K1577" s="36"/>
+      <c r="L1577" s="36"/>
+      <c r="M1577" s="72"/>
+    </row>
+    <row r="1578" spans="1:13" ht="31.5">
+      <c r="A1578" s="40"/>
+      <c r="B1578" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1578" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1578" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1578" s="36"/>
+      <c r="F1578" s="36"/>
+      <c r="G1578" s="35"/>
+      <c r="H1578" s="37"/>
+      <c r="I1578" s="35"/>
+      <c r="J1578" s="37"/>
+      <c r="K1578" s="36"/>
+      <c r="L1578" s="36"/>
+      <c r="M1578" s="72"/>
+    </row>
+    <row r="1579" spans="1:13">
+      <c r="A1579" s="124"/>
+      <c r="B1579" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1579" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1579" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1579" s="36"/>
+      <c r="F1579" s="36"/>
+      <c r="G1579" s="90"/>
+      <c r="H1579" s="95"/>
+      <c r="I1579" s="90"/>
+      <c r="J1579" s="37"/>
+      <c r="K1579" s="36"/>
+      <c r="L1579" s="36"/>
+      <c r="M1579" s="72"/>
+    </row>
+    <row r="1580" spans="1:13">
+      <c r="A1580" s="125"/>
+      <c r="B1580" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1580" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1580" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1580" s="36"/>
+      <c r="F1580" s="36"/>
+      <c r="G1580" s="90"/>
+      <c r="H1580" s="90"/>
+      <c r="I1580" s="90"/>
+      <c r="J1580" s="95"/>
+      <c r="K1580" s="36"/>
+      <c r="L1580" s="36"/>
+      <c r="M1580" s="72"/>
+    </row>
+    <row r="1581" spans="1:13">
+      <c r="A1581" s="125"/>
+      <c r="B1581" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1581" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1581" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1581" s="36"/>
+      <c r="F1581" s="36"/>
+      <c r="G1581" s="106"/>
+      <c r="H1581" s="95"/>
+      <c r="I1581" s="90"/>
+      <c r="J1581" s="36"/>
+      <c r="K1581" s="36"/>
+      <c r="L1581" s="36"/>
+      <c r="M1581" s="72"/>
+    </row>
+    <row r="1582" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1582" s="125"/>
+      <c r="B1582" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1582" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1582" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1582" s="46"/>
+      <c r="F1582" s="46"/>
+      <c r="G1582" s="46"/>
+      <c r="H1582" s="45"/>
+      <c r="I1582" s="136"/>
+      <c r="J1582" s="45"/>
+      <c r="K1582" s="45"/>
+      <c r="L1582" s="45"/>
+      <c r="M1582" s="133"/>
+    </row>
+    <row r="1583" spans="1:13">
+      <c r="A1583" s="125">
+        <v>44074</v>
+      </c>
+      <c r="B1583" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1583" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1583" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1583" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1583" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1583" s="78"/>
+      <c r="H1583" s="79"/>
+      <c r="I1583" s="78"/>
+      <c r="J1583" s="97"/>
+      <c r="K1583" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1583" s="137">
+        <v>70</v>
+      </c>
+      <c r="M1583" s="80"/>
+    </row>
+    <row r="1584" spans="1:13">
+      <c r="A1584" s="124">
+        <v>44074</v>
+      </c>
+      <c r="B1584" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1584" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1584" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1584" s="106">
+        <v>8.6</v>
+      </c>
+      <c r="F1584" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1584" s="36"/>
+      <c r="H1584" s="37"/>
+      <c r="I1584" s="36"/>
+      <c r="J1584" s="95"/>
+      <c r="K1584" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1584" s="96">
+        <v>60</v>
+      </c>
+      <c r="M1584" s="72"/>
+    </row>
+    <row r="1585" spans="1:13">
+      <c r="A1585" s="125">
+        <v>44074</v>
+      </c>
+      <c r="B1585" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1585" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1585" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1585" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1585" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1585" s="36"/>
+      <c r="H1585" s="37"/>
+      <c r="I1585" s="36"/>
+      <c r="J1585" s="95"/>
+      <c r="K1585" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1585" s="96">
+        <v>80</v>
+      </c>
+      <c r="M1585" s="72"/>
+    </row>
+    <row r="1586" spans="1:13">
+      <c r="A1586" s="124">
+        <v>44074</v>
+      </c>
+      <c r="B1586" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1586" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1586" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1586" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1586" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1586" s="36"/>
+      <c r="H1586" s="37"/>
+      <c r="I1586" s="36"/>
+      <c r="J1586" s="90"/>
+      <c r="K1586" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1586" s="96">
+        <v>50</v>
+      </c>
+      <c r="M1586" s="72"/>
+    </row>
+    <row r="1587" spans="1:13">
+      <c r="A1587" s="125">
+        <v>44074</v>
+      </c>
+      <c r="B1587" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1587" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1587" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1587" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1587" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1587" s="36"/>
+      <c r="H1587" s="37"/>
+      <c r="I1587" s="36"/>
+      <c r="J1587" s="90"/>
+      <c r="K1587" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1587" s="96">
+        <v>50</v>
+      </c>
+      <c r="M1587" s="72"/>
+    </row>
+    <row r="1588" spans="1:13">
+      <c r="A1588" s="124">
+        <v>44074</v>
+      </c>
+      <c r="B1588" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1588" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1588" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1588" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1588" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1588" s="36"/>
+      <c r="H1588" s="37"/>
+      <c r="I1588" s="36"/>
+      <c r="J1588" s="90"/>
+      <c r="K1588" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1588" s="96">
+        <v>40</v>
+      </c>
+      <c r="M1588" s="72"/>
+    </row>
+    <row r="1589" spans="1:13">
+      <c r="A1589" s="125">
+        <v>44074</v>
+      </c>
+      <c r="B1589" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1589" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1589" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1589" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1589" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1589" s="36"/>
+      <c r="H1589" s="37"/>
+      <c r="I1589" s="36"/>
+      <c r="J1589" s="90"/>
+      <c r="K1589" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1589" s="96">
+        <v>40</v>
+      </c>
+      <c r="M1589" s="72"/>
+    </row>
+    <row r="1590" spans="1:13">
+      <c r="A1590" s="124">
+        <v>44074</v>
+      </c>
+      <c r="B1590" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1590" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1590" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1590" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1590" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1590" s="36"/>
+      <c r="H1590" s="37"/>
+      <c r="I1590" s="36"/>
+      <c r="J1590" s="90"/>
+      <c r="K1590" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1590" s="96">
+        <v>50</v>
+      </c>
+      <c r="M1590" s="72"/>
+    </row>
+    <row r="1591" spans="1:13">
+      <c r="A1591" s="125">
+        <v>44074</v>
+      </c>
+      <c r="B1591" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1591" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1591" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1591" s="90">
+        <v>9.1</v>
+      </c>
+      <c r="F1591" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1591" s="36"/>
+      <c r="H1591" s="37"/>
+      <c r="I1591" s="36"/>
+      <c r="J1591" s="90"/>
+      <c r="K1591" s="90">
+        <v>4</v>
+      </c>
+      <c r="L1591" s="96">
+        <v>40</v>
+      </c>
+      <c r="M1591" s="72"/>
+    </row>
+    <row r="1592" spans="1:13">
+      <c r="A1592" s="124">
+        <v>44074</v>
+      </c>
+      <c r="B1592" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1592" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1592" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1592" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1592" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1592" s="36"/>
+      <c r="H1592" s="37"/>
+      <c r="I1592" s="36"/>
+      <c r="J1592" s="90"/>
+      <c r="K1592" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1592" s="96">
+        <v>50</v>
+      </c>
+      <c r="M1592" s="72"/>
+    </row>
+    <row r="1593" spans="1:13">
+      <c r="A1593" s="125">
+        <v>44074</v>
+      </c>
+      <c r="B1593" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1593" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1593" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1593" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1593" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="G1593" s="36"/>
+      <c r="H1593" s="37"/>
+      <c r="I1593" s="36"/>
+      <c r="J1593" s="90"/>
+      <c r="K1593" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1593" s="96">
+        <v>70</v>
+      </c>
+      <c r="M1593" s="72"/>
+    </row>
+    <row r="1594" spans="1:13">
+      <c r="A1594" s="124">
+        <v>44074</v>
+      </c>
+      <c r="B1594" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1594" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1594" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1594" s="36"/>
+      <c r="F1594" s="37"/>
+      <c r="G1594" s="90"/>
+      <c r="H1594" s="96"/>
+      <c r="I1594" s="90"/>
+      <c r="J1594" s="95"/>
+      <c r="K1594" s="36"/>
+      <c r="L1594" s="96">
+        <v>120</v>
+      </c>
+      <c r="M1594" s="72"/>
+    </row>
+    <row r="1595" spans="1:13">
+      <c r="A1595" s="125"/>
+      <c r="B1595" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1595" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1595" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1595" s="36"/>
+      <c r="F1595" s="36"/>
+      <c r="G1595" s="90"/>
+      <c r="H1595" s="37"/>
+      <c r="I1595" s="90"/>
+      <c r="J1595" s="37"/>
+      <c r="K1595" s="36"/>
+      <c r="L1595" s="36"/>
+      <c r="M1595" s="72"/>
+    </row>
+    <row r="1596" spans="1:13" ht="31.5">
+      <c r="A1596" s="125"/>
+      <c r="B1596" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1596" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1596" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1596" s="36"/>
+      <c r="F1596" s="36"/>
+      <c r="G1596" s="90"/>
+      <c r="H1596" s="37"/>
+      <c r="I1596" s="90"/>
+      <c r="J1596" s="95"/>
+      <c r="K1596" s="36"/>
+      <c r="L1596" s="96">
+        <v>70</v>
+      </c>
+      <c r="M1596" s="72"/>
+    </row>
+    <row r="1597" spans="1:13" ht="31.5">
+      <c r="A1597" s="125"/>
+      <c r="B1597" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1597" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1597" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1597" s="36"/>
+      <c r="F1597" s="36"/>
+      <c r="G1597" s="90"/>
+      <c r="H1597" s="37"/>
+      <c r="I1597" s="90"/>
+      <c r="J1597" s="95"/>
+      <c r="K1597" s="36"/>
+      <c r="L1597" s="96">
+        <v>50</v>
+      </c>
+      <c r="M1597" s="72"/>
+    </row>
+    <row r="1598" spans="1:13" ht="31.5">
+      <c r="A1598" s="40"/>
+      <c r="B1598" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1598" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1598" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1598" s="36"/>
+      <c r="F1598" s="36"/>
+      <c r="G1598" s="35"/>
+      <c r="H1598" s="37"/>
+      <c r="I1598" s="35"/>
+      <c r="J1598" s="37"/>
+      <c r="K1598" s="36"/>
+      <c r="L1598" s="36"/>
+      <c r="M1598" s="72"/>
+    </row>
+    <row r="1599" spans="1:13">
+      <c r="A1599" s="124"/>
+      <c r="B1599" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1599" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1599" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1599" s="36"/>
+      <c r="F1599" s="36"/>
+      <c r="G1599" s="90"/>
+      <c r="H1599" s="95"/>
+      <c r="I1599" s="90"/>
+      <c r="J1599" s="37"/>
+      <c r="K1599" s="36"/>
+      <c r="L1599" s="96">
+        <v>80</v>
+      </c>
+      <c r="M1599" s="72"/>
+    </row>
+    <row r="1600" spans="1:13">
+      <c r="A1600" s="125"/>
+      <c r="B1600" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1600" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1600" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1600" s="36"/>
+      <c r="F1600" s="36"/>
+      <c r="G1600" s="90"/>
+      <c r="H1600" s="90"/>
+      <c r="I1600" s="90"/>
+      <c r="J1600" s="95"/>
+      <c r="K1600" s="36"/>
+      <c r="L1600" s="36"/>
+      <c r="M1600" s="72"/>
+    </row>
+    <row r="1601" spans="1:13">
+      <c r="A1601" s="125"/>
+      <c r="B1601" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1601" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1601" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1601" s="36"/>
+      <c r="F1601" s="36"/>
+      <c r="G1601" s="106"/>
+      <c r="H1601" s="95"/>
+      <c r="I1601" s="90"/>
+      <c r="J1601" s="36"/>
+      <c r="K1601" s="36"/>
+      <c r="L1601" s="36"/>
+      <c r="M1601" s="72"/>
+    </row>
+    <row r="1602" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1602" s="125"/>
+      <c r="B1602" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1602" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1602" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1602" s="46"/>
+      <c r="F1602" s="46"/>
+      <c r="G1602" s="46"/>
+      <c r="H1602" s="45"/>
+      <c r="I1602" s="136"/>
+      <c r="J1602" s="45"/>
+      <c r="K1602" s="45"/>
+      <c r="L1602" s="45"/>
+      <c r="M1602" s="133"/>
+    </row>
+    <row r="1603" spans="1:13">
+      <c r="A1603" s="125">
+        <v>44075</v>
+      </c>
+      <c r="B1603" s="119">
+        <v>1</v>
+      </c>
+      <c r="C1603" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1603" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1603" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="F1603" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="G1603" s="78"/>
+      <c r="H1603" s="79"/>
+      <c r="I1603" s="78"/>
+      <c r="J1603" s="97"/>
+      <c r="K1603" s="97">
+        <v>5</v>
+      </c>
+      <c r="L1603" s="137"/>
+      <c r="M1603" s="80"/>
+    </row>
+    <row r="1604" spans="1:13">
+      <c r="A1604" s="124">
+        <v>44075</v>
+      </c>
+      <c r="B1604" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1604" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1604" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1604" s="106">
+        <v>8.5</v>
+      </c>
+      <c r="F1604" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1604" s="36"/>
+      <c r="H1604" s="37"/>
+      <c r="I1604" s="36"/>
+      <c r="J1604" s="95"/>
+      <c r="K1604" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1604" s="96"/>
+      <c r="M1604" s="72"/>
+    </row>
+    <row r="1605" spans="1:13">
+      <c r="A1605" s="125">
+        <v>44075</v>
+      </c>
+      <c r="B1605" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1605" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1605" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1605" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1605" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="G1605" s="36"/>
+      <c r="H1605" s="37"/>
+      <c r="I1605" s="36"/>
+      <c r="J1605" s="95">
+        <v>0</v>
+      </c>
+      <c r="K1605" s="90">
+        <v>2</v>
+      </c>
+      <c r="L1605" s="96"/>
+      <c r="M1605" s="72"/>
+    </row>
+    <row r="1606" spans="1:13">
+      <c r="A1606" s="124">
+        <v>44075</v>
+      </c>
+      <c r="B1606" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1606" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1606" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1606" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1606" s="90">
+        <v>2.7</v>
+      </c>
+      <c r="G1606" s="36"/>
+      <c r="H1606" s="37"/>
+      <c r="I1606" s="36"/>
+      <c r="J1606" s="90"/>
+      <c r="K1606" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1606" s="96"/>
+      <c r="M1606" s="72"/>
+    </row>
+    <row r="1607" spans="1:13">
+      <c r="A1607" s="125">
+        <v>44075</v>
+      </c>
+      <c r="B1607" s="120">
+        <v>1</v>
+      </c>
+      <c r="C1607" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1607" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1607" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1607" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1607" s="36"/>
+      <c r="H1607" s="37"/>
+      <c r="I1607" s="36"/>
+      <c r="J1607" s="90"/>
+      <c r="K1607" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1607" s="96"/>
+      <c r="M1607" s="72"/>
+    </row>
+    <row r="1608" spans="1:13">
+      <c r="A1608" s="124">
+        <v>44075</v>
+      </c>
+      <c r="B1608" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1608" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1608" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1608" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1608" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1608" s="36"/>
+      <c r="H1608" s="37"/>
+      <c r="I1608" s="36"/>
+      <c r="J1608" s="90"/>
+      <c r="K1608" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1608" s="96"/>
+      <c r="M1608" s="72"/>
+    </row>
+    <row r="1609" spans="1:13">
+      <c r="A1609" s="125">
+        <v>44075</v>
+      </c>
+      <c r="B1609" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1609" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1609" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1609" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1609" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1609" s="36"/>
+      <c r="H1609" s="37"/>
+      <c r="I1609" s="36"/>
+      <c r="J1609" s="90"/>
+      <c r="K1609" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1609" s="96"/>
+      <c r="M1609" s="72"/>
+    </row>
+    <row r="1610" spans="1:13">
+      <c r="A1610" s="124">
+        <v>44075</v>
+      </c>
+      <c r="B1610" s="120">
+        <v>2</v>
+      </c>
+      <c r="C1610" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1610" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1610" s="90">
+        <v>8.6</v>
+      </c>
+      <c r="F1610" s="90">
+        <v>2.4</v>
+      </c>
+      <c r="G1610" s="36"/>
+      <c r="H1610" s="37"/>
+      <c r="I1610" s="36"/>
+      <c r="J1610" s="90"/>
+      <c r="K1610" s="90">
+        <v>1</v>
+      </c>
+      <c r="L1610" s="96"/>
+      <c r="M1610" s="72"/>
+    </row>
+    <row r="1611" spans="1:13">
+      <c r="A1611" s="125">
+        <v>44075</v>
+      </c>
+      <c r="B1611" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1611" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1611" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1611" s="90">
+        <v>9</v>
+      </c>
+      <c r="F1611" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="G1611" s="36"/>
+      <c r="H1611" s="37"/>
+      <c r="I1611" s="36"/>
+      <c r="J1611" s="90"/>
+      <c r="K1611" s="90">
+        <v>5</v>
+      </c>
+      <c r="L1611" s="96"/>
+      <c r="M1611" s="72"/>
+    </row>
+    <row r="1612" spans="1:13">
+      <c r="A1612" s="124">
+        <v>44075</v>
+      </c>
+      <c r="B1612" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1612" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1612" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1612" s="90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1612" s="90">
+        <v>3</v>
+      </c>
+      <c r="G1612" s="36"/>
+      <c r="H1612" s="37"/>
+      <c r="I1612" s="36"/>
+      <c r="J1612" s="90"/>
+      <c r="K1612" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1612" s="96"/>
+      <c r="M1612" s="72"/>
+    </row>
+    <row r="1613" spans="1:13">
+      <c r="A1613" s="125">
+        <v>44075</v>
+      </c>
+      <c r="B1613" s="120">
+        <v>3</v>
+      </c>
+      <c r="C1613" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1613" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1613" s="90">
+        <v>8.5</v>
+      </c>
+      <c r="F1613" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="G1613" s="36"/>
+      <c r="H1613" s="37"/>
+      <c r="I1613" s="36"/>
+      <c r="J1613" s="90"/>
+      <c r="K1613" s="90">
+        <v>0</v>
+      </c>
+      <c r="L1613" s="96"/>
+      <c r="M1613" s="72"/>
+    </row>
+    <row r="1614" spans="1:13">
+      <c r="A1614" s="124">
+        <v>44075</v>
+      </c>
+      <c r="B1614" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1614" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1614" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1614" s="36"/>
+      <c r="F1614" s="37"/>
+      <c r="G1614" s="90"/>
+      <c r="H1614" s="96"/>
+      <c r="I1614" s="90"/>
+      <c r="J1614" s="95"/>
+      <c r="K1614" s="36"/>
+      <c r="L1614" s="96"/>
+      <c r="M1614" s="72"/>
+    </row>
+    <row r="1615" spans="1:13">
+      <c r="A1615" s="125"/>
+      <c r="B1615" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1615" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1615" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1615" s="36"/>
+      <c r="F1615" s="36"/>
+      <c r="G1615" s="90"/>
+      <c r="H1615" s="37"/>
+      <c r="I1615" s="90"/>
+      <c r="J1615" s="37"/>
+      <c r="K1615" s="36"/>
+      <c r="L1615" s="36"/>
+      <c r="M1615" s="72"/>
+    </row>
+    <row r="1616" spans="1:13" ht="31.5">
+      <c r="A1616" s="125"/>
+      <c r="B1616" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1616" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1616" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1616" s="36"/>
+      <c r="F1616" s="36"/>
+      <c r="G1616" s="90"/>
+      <c r="H1616" s="37"/>
+      <c r="I1616" s="90"/>
+      <c r="J1616" s="95"/>
+      <c r="K1616" s="36"/>
+      <c r="L1616" s="96"/>
+      <c r="M1616" s="72"/>
+    </row>
+    <row r="1617" spans="1:13" ht="31.5">
+      <c r="A1617" s="125"/>
+      <c r="B1617" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1617" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1617" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1617" s="36"/>
+      <c r="F1617" s="36"/>
+      <c r="G1617" s="90"/>
+      <c r="H1617" s="37"/>
+      <c r="I1617" s="90"/>
+      <c r="J1617" s="95"/>
+      <c r="K1617" s="36"/>
+      <c r="L1617" s="96"/>
+      <c r="M1617" s="72"/>
+    </row>
+    <row r="1618" spans="1:13" ht="31.5">
+      <c r="A1618" s="40"/>
+      <c r="B1618" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1618" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1618" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1618" s="36"/>
+      <c r="F1618" s="36"/>
+      <c r="G1618" s="35"/>
+      <c r="H1618" s="37"/>
+      <c r="I1618" s="35"/>
+      <c r="J1618" s="37"/>
+      <c r="K1618" s="36"/>
+      <c r="L1618" s="36"/>
+      <c r="M1618" s="72"/>
+    </row>
+    <row r="1619" spans="1:13">
+      <c r="A1619" s="124"/>
+      <c r="B1619" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1619" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1619" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1619" s="36"/>
+      <c r="F1619" s="36"/>
+      <c r="G1619" s="90"/>
+      <c r="H1619" s="95"/>
+      <c r="I1619" s="90"/>
+      <c r="J1619" s="37"/>
+      <c r="K1619" s="36"/>
+      <c r="L1619" s="96"/>
+      <c r="M1619" s="72"/>
+    </row>
+    <row r="1620" spans="1:13">
+      <c r="A1620" s="125"/>
+      <c r="B1620" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1620" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1620" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1620" s="36"/>
+      <c r="F1620" s="36"/>
+      <c r="G1620" s="90"/>
+      <c r="H1620" s="90"/>
+      <c r="I1620" s="90"/>
+      <c r="J1620" s="95"/>
+      <c r="K1620" s="36"/>
+      <c r="L1620" s="36"/>
+      <c r="M1620" s="72"/>
+    </row>
+    <row r="1621" spans="1:13">
+      <c r="A1621" s="125"/>
+      <c r="B1621" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1621" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1621" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1621" s="36"/>
+      <c r="F1621" s="36"/>
+      <c r="G1621" s="106"/>
+      <c r="H1621" s="95"/>
+      <c r="I1621" s="90"/>
+      <c r="J1621" s="36"/>
+      <c r="K1621" s="36"/>
+      <c r="L1621" s="36"/>
+      <c r="M1621" s="72"/>
+    </row>
+    <row r="1622" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A1622" s="125"/>
+      <c r="B1622" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1622" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1622" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1622" s="46"/>
+      <c r="F1622" s="46"/>
+      <c r="G1622" s="46"/>
+      <c r="H1622" s="45"/>
+      <c r="I1622" s="136"/>
+      <c r="J1622" s="45"/>
+      <c r="K1622" s="45"/>
+      <c r="L1622" s="45"/>
+      <c r="M1622" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -66938,7 +71710,7 @@
   <pageSetup paperSize="256" scale="92" fitToHeight="4" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391 C1405:C1411 C1425:C1431 C1445:C1451 C1465:C1471" twoDigitTextYear="1"/>
+    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871 C885:C891 C905:C911 C925:C932 C945:C951 C965 C968:C971 C985:C991 C1005:C1012 C1025:C1032 C1045:C1051 C1065:C1071 C1085:C1091 C1105:C1111 C1125:C1131 C1145:C1152 C1165:C1168 C1171 B1185:C1191 C1205:C1212 C1225:C1231 C1245:C1251 C1265:C1271 C1285:C1291 C1305:C1311 C1325:C1330 C1345:C1351 C1365:C1371 C1385:C1391 C1405:C1411 C1425:C1431 C1445:C1451 C1465:C1471 C1485:C1491 C1505:C1511 C1525:C1531 C1545:C1551 C1565:C1571 C1585:C1591 C1605:C1612" twoDigitTextYear="1"/>
     <ignoredError sqref="M862 I856 H935:I935" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
